--- a/ext_assets/LevelDesign.xlsx
+++ b/ext_assets/LevelDesign.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nesdev\repos\crillion-nes\crillion-nes\ext_assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0BDC62C-C7F0-43A4-B8A9-7E3CD62E61E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E951E37-AFF1-43E0-A1DC-E14085F0F001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E8D8F587-BDBE-423A-95AF-6E9B76766DB8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{E8D8F587-BDBE-423A-95AF-6E9B76766DB8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad6" sheetId="6" r:id="rId1"/>
-    <sheet name="01" sheetId="1" r:id="rId2"/>
-    <sheet name="02" sheetId="2" r:id="rId3"/>
-    <sheet name="03" sheetId="3" r:id="rId4"/>
+    <sheet name="base" sheetId="3" r:id="rId1"/>
+    <sheet name="info" sheetId="6" r:id="rId2"/>
+    <sheet name="01" sheetId="1" r:id="rId3"/>
+    <sheet name="02" sheetId="2" r:id="rId4"/>
     <sheet name="04" sheetId="4" r:id="rId5"/>
     <sheet name="05" sheetId="5" r:id="rId6"/>
   </sheets>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="22">
   <si>
     <t>D</t>
   </si>
@@ -74,6 +74,39 @@
   </si>
   <si>
     <t>Totaal</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>clr</t>
+  </si>
+  <si>
+    <t>r/c</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
 </sst>
 </file>
@@ -786,7 +819,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -861,9 +894,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -918,7 +948,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1047,7 +1077,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1104,14 +1134,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1425,28 +1456,281 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95440412-A2B7-43E5-A6C1-1A36CF91A08F}">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="27"/>
+    <col min="2" max="15" width="3.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="28">
+        <v>0</v>
+      </c>
+      <c r="C1" s="28">
+        <v>1</v>
+      </c>
+      <c r="D1" s="28">
+        <v>2</v>
+      </c>
+      <c r="E1" s="28">
+        <v>3</v>
+      </c>
+      <c r="F1" s="28">
+        <v>4</v>
+      </c>
+      <c r="G1" s="28">
+        <v>5</v>
+      </c>
+      <c r="H1" s="28">
+        <v>6</v>
+      </c>
+      <c r="I1" s="28">
+        <v>7</v>
+      </c>
+      <c r="J1" s="28">
+        <v>8</v>
+      </c>
+      <c r="K1" s="28">
+        <v>9</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:15" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="29">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1B7977-7B33-4887-94B8-2677514B6F62}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="112"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E1" s="113"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1454,33 +1738,32 @@
         <f>'01'!Q2</f>
         <v>27</v>
       </c>
-      <c r="D2" s="113">
+      <c r="D2" s="110">
         <f>SUM(B:B)</f>
-        <v>315</v>
-      </c>
-      <c r="E2" s="114" t="s">
+        <v>313</v>
+      </c>
+      <c r="E2" s="111" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <f>'02'!Q2</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <f>'03'!Q2</f>
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1488,8 +1771,14 @@
         <f>'04'!Q2</f>
         <v>119</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="114" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1497,53 +1786,77 @@
         <f>'05'!Q2</f>
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="114" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="114" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="114" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="114" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1607,18 +1920,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BB428C-4651-4B9F-9821-E588F1484CFA}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14:P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="27"/>
     <col min="2" max="15" width="3.5546875" customWidth="1"/>
+    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1701,10 +2015,10 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="12" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -1723,16 +2037,16 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="12" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -1749,16 +2063,16 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="20" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5" s="26" t="s">
         <v>2</v>
@@ -1850,22 +2164,22 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="16" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -1882,16 +2196,16 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -1910,10 +2224,10 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -1941,23 +2255,356 @@
       <c r="N11" s="8"/>
       <c r="O11" s="9"/>
     </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="P14" t="str">
+        <f>CONCATENATE(".db #$", C14, B14, ", #%", IF(E14="R", "0", "1"),  DEC2BIN(D14-1,2), VLOOKUP(F14, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G14,3))</f>
+        <v>.db #$61, #%00100001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="str">
+        <f>CONCATENATE(".db #$", C15, B15, ", #%", IF(E15="R", "0", "1"),  DEC2BIN(D15-1,2), VLOOKUP(F15, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G15,3))</f>
+        <v>.db #$52, #%01100001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="P16" t="str">
+        <f>CONCATENATE(".db #$", C16, B16, ", #%", IF(E16="R", "0", "1"),  DEC2BIN(D16-1,2), VLOOKUP(F16, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G16,3))</f>
+        <v>.db #$43, #%01100010</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="P17" t="str">
+        <f>CONCATENATE(".db #$", C17, B17, ", #%", IF(E17="R", "0", "1"),  DEC2BIN(D17-1,2), VLOOKUP(F17, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G17,3))</f>
+        <v>.db #$83, #%00000010</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="P18" t="str">
+        <f>CONCATENATE(".db #$", C18, B18, ", #%", IF(E18="R", "0", "1"),  DEC2BIN(D18-1,2), VLOOKUP(F18, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G18,3))</f>
+        <v>.db #$93, #%00010010</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="str">
+        <f>CONCATENATE(".db #$", C19, B19, ", #%", IF(E19="R", "0", "1"),  DEC2BIN(D19-1,2), VLOOKUP(F19, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G19,3))</f>
+        <v>.db #$34, #%01111000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="str">
+        <f>CONCATENATE(".db #$", C20, B20, ", #%", IF(E20="R", "0", "1"),  DEC2BIN(D20-1,2), VLOOKUP(F20, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G20,3))</f>
+        <v>.db #$74, #%01111000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="str">
+        <f>CONCATENATE(".db #$", C21, B21, ", #%", IF(E21="R", "0", "1"),  DEC2BIN(D21-1,2), VLOOKUP(F21, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G21,3))</f>
+        <v>.db #$35, #%01111000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="str">
+        <f>CONCATENATE(".db #$", C22, B22, ", #%", IF(E22="R", "0", "1"),  DEC2BIN(D22-1,2), VLOOKUP(F22, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G22,3))</f>
+        <v>.db #$75, #%01111000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="P23" t="str">
+        <f>CONCATENATE(".db #$", C23, B23, ", #%", IF(E23="R", "0", "1"),  DEC2BIN(D23-1,2), VLOOKUP(F23, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G23,3))</f>
+        <v>.db #$46, #%01100010</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="P24" t="str">
+        <f>CONCATENATE(".db #$", C24, B24, ", #%", IF(E24="R", "0", "1"),  DEC2BIN(D24-1,2), VLOOKUP(F24, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G24,3))</f>
+        <v>.db #$86, #%00100010</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="P25" t="str">
+        <f>CONCATENATE(".db #$", C25, B25, ", #%", IF(E25="R", "0", "1"),  DEC2BIN(D25-1,2), VLOOKUP(F25, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G25,3))</f>
+        <v>.db #$57, #%01100001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="P26" t="str">
+        <f>CONCATENATE(".db #$", C26, B26, ", #%", IF(E26="R", "0", "1"),  DEC2BIN(D26-1,2), VLOOKUP(F26, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G26,3))</f>
+        <v>.db #$68, #%00100001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8571E8-FA34-41DE-BC66-C61EF0B5623D}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14:P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="27"/>
     <col min="2" max="15" width="3.5546875" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2020,12 +2667,12 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="47" t="s">
         <v>5</v>
       </c>
       <c r="O2" s="3"/>
       <c r="Q2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R2" t="s">
         <v>7</v>
@@ -2036,40 +2683,40 @@
         <v>1</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="35" t="s">
+      <c r="C3" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="34" t="s">
         <v>4</v>
       </c>
       <c r="O3" s="6"/>
@@ -2079,40 +2726,40 @@
         <v>2</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="38" t="s">
+      <c r="C4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="37" t="s">
         <v>6</v>
       </c>
       <c r="O4" s="6"/>
@@ -2122,18 +2769,18 @@
         <v>3</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="39" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="38" t="s">
         <v>5</v>
       </c>
       <c r="O5" s="6"/>
@@ -2146,37 +2793,37 @@
       <c r="C6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="N6" s="42" t="s">
+      <c r="D6" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="41" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="6"/>
@@ -2186,40 +2833,40 @@
         <v>5</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" s="38" t="s">
+      <c r="C7" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="37" t="s">
         <v>6</v>
       </c>
       <c r="O7" s="6"/>
@@ -2229,17 +2876,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="6"/>
     </row>
@@ -2248,7 +2895,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="32" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -2291,40 +2938,40 @@
         <v>8</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="M10" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="N10" s="47" t="s">
+      <c r="C10" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="46" t="s">
         <v>6</v>
       </c>
       <c r="O10" s="6"/>
@@ -2348,264 +2995,649 @@
       <c r="N11" s="8"/>
       <c r="O11" s="9"/>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95440412-A2B7-43E5-A6C1-1A36CF91A08F}">
-  <dimension ref="A1:R11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="27"/>
-    <col min="2" max="15" width="3.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="28">
-        <v>0</v>
-      </c>
-      <c r="C1" s="28">
-        <v>1</v>
-      </c>
-      <c r="D1" s="28">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="P14" t="str">
+        <f>CONCATENATE(".db #$", C14, B14, ", #%", IF(E14="R", "0", "1"),  DEC2BIN(D14-1,2), VLOOKUP(F14, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G14,3))</f>
+        <v>.db #$C0, #%00001001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15">
         <v>2</v>
       </c>
-      <c r="E1" s="28">
+      <c r="P15" t="str">
+        <f>CONCATENATE(".db #$", C15, B15, ", #%", IF(E15="R", "0", "1"),  DEC2BIN(D15-1,2), VLOOKUP(F15, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G15,3))</f>
+        <v>.db #$11, #%00010010</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="P16" t="str">
+        <f>CONCATENATE(".db #$", C16, B16, ", #%", IF(E16="R", "0", "1"),  DEC2BIN(D16-1,2), VLOOKUP(F16, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G16,3))</f>
+        <v>.db #$21, #%01100001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="P17" t="str">
+        <f>CONCATENATE(".db #$", C17, B17, ", #%", IF(E17="R", "0", "1"),  DEC2BIN(D17-1,2), VLOOKUP(F17, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G17,3))</f>
+        <v>.db #$61, #%01100001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28">
-        <v>4</v>
-      </c>
-      <c r="G1" s="28">
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="P18" t="str">
+        <f>CONCATENATE(".db #$", C18, B18, ", #%", IF(E18="R", "0", "1"),  DEC2BIN(D18-1,2), VLOOKUP(F18, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G18,3))</f>
+        <v>.db #$A1, #%01000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="P19" t="str">
+        <f>CONCATENATE(".db #$", C19, B19, ", #%", IF(E19="R", "0", "1"),  DEC2BIN(D19-1,2), VLOOKUP(F19, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G19,3))</f>
+        <v>.db #$12, #%01100111</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
         <v>5</v>
       </c>
-      <c r="H1" s="28">
-        <v>6</v>
-      </c>
-      <c r="I1" s="28">
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20">
         <v>7</v>
       </c>
-      <c r="J1" s="28">
+      <c r="P20" t="str">
+        <f>CONCATENATE(".db #$", C20, B20, ", #%", IF(E20="R", "0", "1"),  DEC2BIN(D20-1,2), VLOOKUP(F20, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G20,3))</f>
+        <v>.db #$52, #%01100111</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="P21" t="str">
+        <f>CONCATENATE(".db #$", C21, B21, ", #%", IF(E21="R", "0", "1"),  DEC2BIN(D21-1,2), VLOOKUP(F21, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G21,3))</f>
+        <v>.db #$92, #%01100111</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="P22" t="str">
+        <f>CONCATENATE(".db #$", C22, B22, ", #%", IF(E22="R", "0", "1"),  DEC2BIN(D22-1,2), VLOOKUP(F22, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G22,3))</f>
+        <v>.db #$C3, #%00001010</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="P23" t="str">
+        <f>CONCATENATE(".db #$", C23, B23, ", #%", IF(E23="R", "0", "1"),  DEC2BIN(D23-1,2), VLOOKUP(F23, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G23,3))</f>
+        <v>.db #$14, #%00010011</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="P24" t="str">
+        <f>CONCATENATE(".db #$", C24, B24, ", #%", IF(E24="R", "0", "1"),  DEC2BIN(D24-1,2), VLOOKUP(F24, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G24,3))</f>
+        <v>.db #$24, #%01100010</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="P25" t="str">
+        <f>CONCATENATE(".db #$", C25, B25, ", #%", IF(E25="R", "0", "1"),  DEC2BIN(D25-1,2), VLOOKUP(F25, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G25,3))</f>
+        <v>.db #$64, #%01100010</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="P26" t="str">
+        <f>CONCATENATE(".db #$", C26, B26, ", #%", IF(E26="R", "0", "1"),  DEC2BIN(D26-1,2), VLOOKUP(F26, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G26,3))</f>
+        <v>.db #$A4, #%01000010</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
+      <c r="P27" t="str">
+        <f>CONCATENATE(".db #$", C27, B27, ", #%", IF(E27="R", "0", "1"),  DEC2BIN(D27-1,2), VLOOKUP(F27, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G27,3))</f>
+        <v>.db #$15, #%01100111</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <v>7</v>
+      </c>
+      <c r="P28" t="str">
+        <f>CONCATENATE(".db #$", C28, B28, ", #%", IF(E28="R", "0", "1"),  DEC2BIN(D28-1,2), VLOOKUP(F28, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G28,3))</f>
+        <v>.db #$55, #%01100111</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29">
+        <v>7</v>
+      </c>
+      <c r="P29" t="str">
+        <f>CONCATENATE(".db #$", C29, B29, ", #%", IF(E29="R", "0", "1"),  DEC2BIN(D29-1,2), VLOOKUP(F29, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G29,3))</f>
+        <v>.db #$95, #%01100111</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="P30" t="str">
+        <f>CONCATENATE(".db #$", C30, B30, ", #%", IF(E30="R", "0", "1"),  DEC2BIN(D30-1,2), VLOOKUP(F30, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G30,3))</f>
+        <v>.db #$17, #%00010001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="P31" t="str">
+        <f>CONCATENATE(".db #$", C31, B31, ", #%", IF(E31="R", "0", "1"),  DEC2BIN(D31-1,2), VLOOKUP(F31, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G31,3))</f>
+        <v>.db #$27, #%01100011</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="P32" t="str">
+        <f>CONCATENATE(".db #$", C32, B32, ", #%", IF(E32="R", "0", "1"),  DEC2BIN(D32-1,2), VLOOKUP(F32, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G32,3))</f>
+        <v>.db #$67, #%01100011</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="P33" t="str">
+        <f>CONCATENATE(".db #$", C33, B33, ", #%", IF(E33="R", "0", "1"),  DEC2BIN(D33-1,2), VLOOKUP(F33, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G33,3))</f>
+        <v>.db #$A7, #%01000011</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B34">
         <v>8</v>
       </c>
-      <c r="K1" s="28">
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="str">
+        <f>CONCATENATE(".db #$", C34, B34, ", #%", IF(E34="R", "0", "1"),  DEC2BIN(D34-1,2), VLOOKUP(F34, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G34,3))</f>
+        <v>.db #$38, #%01111000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35">
         <v>9</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="D35">
         <v>3</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="str">
+        <f>CONCATENATE(".db #$", C35, B35, ", #%", IF(E35="R", "0", "1"),  DEC2BIN(D35-1,2), VLOOKUP(F35, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G35,3))</f>
+        <v>.db #$98, #%01011000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
         <v>2</v>
       </c>
-      <c r="N1" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
-      <c r="Q2">
-        <v>55</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29">
+      <c r="P36" t="str">
+        <f>CONCATENATE(".db #$", C36, B36, ", #%", IF(E36="R", "0", "1"),  DEC2BIN(D36-1,2), VLOOKUP(F36, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G36,3))</f>
+        <v>.db #$18, #%00100111</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="6"/>
-    </row>
-    <row r="5" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29">
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29">
+      <c r="P37" t="str">
+        <f>CONCATENATE(".db #$", C37, B37, ", #%", IF(E37="R", "0", "1"),  DEC2BIN(D37-1,2), VLOOKUP(F37, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G37,3))</f>
+        <v>.db #$48, #%00100111</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B38">
         <v>8</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="6"/>
-    </row>
-    <row r="11" spans="1:18" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="29">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9"/>
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38">
+        <v>7</v>
+      </c>
+      <c r="P38" t="str">
+        <f>CONCATENATE(".db #$", C38, B38, ", #%", IF(E38="R", "0", "1"),  DEC2BIN(D38-1,2), VLOOKUP(F38, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G38,3))</f>
+        <v>.db #$78, #%00100111</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39">
+        <v>7</v>
+      </c>
+      <c r="P39" t="str">
+        <f>CONCATENATE(".db #$", C39, B39, ", #%", IF(E39="R", "0", "1"),  DEC2BIN(D39-1,2), VLOOKUP(F39, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G39,3))</f>
+        <v>.db #$C8, #%00000111</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2674,20 +3706,20 @@
       <c r="A2" s="29">
         <v>0</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="72"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="71"/>
       <c r="Q2">
         <v>119</v>
       </c>
@@ -2699,172 +3731,172 @@
       <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="62"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
       <c r="J3" s="26"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="62"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="61"/>
       <c r="N3" s="16"/>
-      <c r="O3" s="74"/>
+      <c r="O3" s="73"/>
     </row>
     <row r="4" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29">
         <v>2</v>
       </c>
-      <c r="B4" s="75"/>
+      <c r="B4" s="74"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="76"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="75"/>
     </row>
     <row r="5" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29">
         <v>3</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="48"/>
       <c r="N5" s="26"/>
-      <c r="O5" s="77"/>
+      <c r="O5" s="76"/>
     </row>
     <row r="6" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29">
         <v>4</v>
       </c>
-      <c r="B6" s="75"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="17"/>
       <c r="D6" s="21"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="54"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
       <c r="J6" s="17"/>
       <c r="K6" s="25"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="78"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="77"/>
     </row>
     <row r="7" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29">
         <v>5</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="62"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="59"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="58"/>
       <c r="J7" s="25"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="78"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="77"/>
     </row>
     <row r="8" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29">
         <v>6</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="55"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="54"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="52"/>
       <c r="H8" s="26"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="56"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="55"/>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
       <c r="N8" s="18"/>
-      <c r="O8" s="80"/>
+      <c r="O8" s="79"/>
     </row>
     <row r="9" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29">
         <v>7</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="58"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="57"/>
       <c r="N9" s="26"/>
-      <c r="O9" s="82"/>
+      <c r="O9" s="81"/>
     </row>
     <row r="10" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29">
         <v>8</v>
       </c>
-      <c r="B10" s="83"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="18"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="53"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="52"/>
       <c r="I10" s="20"/>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="84"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="83"/>
     </row>
     <row r="11" spans="1:18" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="29">
         <v>9</v>
       </c>
-      <c r="B11" s="85"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="91"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="90"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2937,24 +3969,24 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="96" t="s">
+      <c r="F2" s="95" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="104" t="s">
+      <c r="I2" s="103" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="107" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="108" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="109" t="s">
+      <c r="M2" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="107" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="108" t="s">
         <v>4</v>
       </c>
       <c r="Q2">
@@ -2969,25 +4001,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" s="74" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="73" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2996,29 +4028,29 @@
         <v>2</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="94" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="93" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" s="110" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="109" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3026,44 +4058,44 @@
       <c r="A5" s="29">
         <v>3</v>
       </c>
-      <c r="B5" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" s="105" t="s">
-        <v>6</v>
-      </c>
-      <c r="O5" s="106" t="s">
+      <c r="B5" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="105" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3072,17 +4104,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="6"/>
     </row>
@@ -3090,10 +4122,10 @@
       <c r="A7" s="29">
         <v>5</v>
       </c>
-      <c r="B7" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="30"/>
+      <c r="B7" s="97" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="26" t="s">
         <v>4</v>
       </c>
@@ -3103,7 +4135,7 @@
       <c r="F7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="30"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="16" t="s">
         <v>4</v>
       </c>
@@ -3113,7 +4145,7 @@
       <c r="J7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="30"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="20" t="s">
         <v>4</v>
       </c>
@@ -3129,30 +4161,30 @@
       <c r="A8" s="29">
         <v>6</v>
       </c>
-      <c r="B8" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="30"/>
+      <c r="B8" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5"/>
       <c r="F8" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="30"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="30"/>
+      <c r="I8" s="5"/>
       <c r="J8" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="30"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="5"/>
       <c r="N8" s="26" t="s">
         <v>4</v>
       </c>
@@ -3162,37 +4194,37 @@
       <c r="A9" s="29">
         <v>7</v>
       </c>
-      <c r="B9" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="30"/>
+      <c r="B9" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="53" t="s">
+      <c r="F9" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="52" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="95" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="63" t="s">
+      <c r="J9" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="62" t="s">
         <v>4</v>
       </c>
       <c r="O9" s="6"/>
@@ -3201,29 +4233,29 @@
       <c r="A10" s="29">
         <v>8</v>
       </c>
-      <c r="B10" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="95" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="30"/>
-      <c r="N10" s="53" t="s">
+      <c r="B10" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="52" t="s">
         <v>4</v>
       </c>
       <c r="O10" s="6"/>
@@ -3232,33 +4264,33 @@
       <c r="A11" s="29">
         <v>9</v>
       </c>
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="98" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="88" t="s">
+      <c r="F11" s="87" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="100" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="88" t="s">
+      <c r="H11" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="87" t="s">
         <v>4</v>
       </c>
       <c r="K11" s="8"/>
-      <c r="L11" s="101" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11" s="102" t="s">
-        <v>4</v>
-      </c>
-      <c r="N11" s="103" t="s">
+      <c r="L11" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="102" t="s">
         <v>4</v>
       </c>
       <c r="O11" s="9"/>

--- a/ext_assets/LevelDesign.xlsx
+++ b/ext_assets/LevelDesign.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nesdev\repos\crillion-nes\crillion-nes\ext_assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E951E37-AFF1-43E0-A1DC-E14085F0F001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C5AFCE-CF4D-42B8-A95E-FD86133AE4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{E8D8F587-BDBE-423A-95AF-6E9B76766DB8}"/>
   </bookViews>
   <sheets>
-    <sheet name="base" sheetId="3" r:id="rId1"/>
-    <sheet name="info" sheetId="6" r:id="rId2"/>
-    <sheet name="01" sheetId="1" r:id="rId3"/>
-    <sheet name="02" sheetId="2" r:id="rId4"/>
+    <sheet name="info" sheetId="6" r:id="rId1"/>
+    <sheet name="01" sheetId="1" r:id="rId2"/>
+    <sheet name="02" sheetId="2" r:id="rId3"/>
+    <sheet name="03" sheetId="7" r:id="rId4"/>
     <sheet name="04" sheetId="4" r:id="rId5"/>
     <sheet name="05" sheetId="5" r:id="rId6"/>
+    <sheet name="base" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="35">
   <si>
     <t>D</t>
   </si>
@@ -108,6 +109,45 @@
   <si>
     <t>11</t>
   </si>
+  <si>
+    <t>subpal</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>ccc</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>palcol</t>
+  </si>
+  <si>
+    <t>to code</t>
+  </si>
+  <si>
+    <t>VLOOKUP TABLES</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
 </sst>
 </file>
 
@@ -130,7 +170,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,12 +209,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -185,8 +219,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2A2F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFAFAF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="52">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -801,11 +847,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -918,9 +1020,54 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -930,66 +1077,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1002,7 +1089,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1011,16 +1098,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1029,19 +1116,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1059,10 +1146,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1071,10 +1158,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1134,21 +1221,130 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE2A2F4"/>
+      <color rgb="FFFFAFAF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1456,281 +1652,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95440412-A2B7-43E5-A6C1-1A36CF91A08F}">
-  <dimension ref="A1:O11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1B7977-7B33-4887-94B8-2677514B6F62}">
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="27"/>
-    <col min="2" max="15" width="3.5546875" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="13" max="14" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="28">
-        <v>0</v>
-      </c>
-      <c r="C1" s="28">
-        <v>1</v>
-      </c>
-      <c r="D1" s="28">
-        <v>2</v>
-      </c>
-      <c r="E1" s="28">
-        <v>3</v>
-      </c>
-      <c r="F1" s="28">
-        <v>4</v>
-      </c>
-      <c r="G1" s="28">
-        <v>5</v>
-      </c>
-      <c r="H1" s="28">
-        <v>6</v>
-      </c>
-      <c r="I1" s="28">
-        <v>7</v>
-      </c>
-      <c r="J1" s="28">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="28">
+      <c r="B1" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="6"/>
-    </row>
-    <row r="5" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="6"/>
-    </row>
-    <row r="11" spans="1:15" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="29">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1B7977-7B33-4887-94B8-2677514B6F62}">
-  <dimension ref="A1:I26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:I9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="113"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E1" s="108"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1738,15 +1686,22 @@
         <f>'01'!Q2</f>
         <v>27</v>
       </c>
-      <c r="D2" s="110">
+      <c r="D2" s="105">
         <f>SUM(B:B)</f>
-        <v>313</v>
-      </c>
-      <c r="E2" s="111" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" s="106" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H2" s="123" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="125"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1754,16 +1709,41 @@
         <f>'02'!Q2</f>
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H3" s="126"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="128"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <f>'03'!Q2</f>
+        <v>51</v>
+      </c>
+      <c r="H4" s="129" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="122" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="127"/>
+      <c r="K4" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="130" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1771,14 +1751,28 @@
         <f>'04'!Q2</f>
         <v>119</v>
       </c>
-      <c r="H5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="114" t="s">
+      <c r="H5" s="131" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="121" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="127"/>
+      <c r="K5" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="132" t="str">
+        <f>CONCATENATE(M5,N5)</f>
+        <v>000</v>
+      </c>
+      <c r="M5" s="109" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="109" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1786,77 +1780,158 @@
         <f>'05'!Q2</f>
         <v>59</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="114" t="s">
+      <c r="I6" s="121" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="127"/>
+      <c r="K6" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="132" t="str">
+        <f t="shared" ref="L6:L10" si="0">CONCATENATE(M6,N6)</f>
+        <v>001</v>
+      </c>
+      <c r="M6" s="109" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="109" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="114" t="s">
+      <c r="I7" s="121" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="127"/>
+      <c r="K7" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="132" t="str">
+        <f t="shared" si="0"/>
+        <v>010</v>
+      </c>
+      <c r="M7" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="109" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="H8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="114" t="s">
+      <c r="H8" s="131" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="121" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="127"/>
+      <c r="K8" s="120" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="132" t="str">
+        <f t="shared" si="0"/>
+        <v>011</v>
+      </c>
+      <c r="M8" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="109" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="H9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="114" t="s">
+      <c r="H9" s="131" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="121" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="127"/>
+      <c r="K9" s="120" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="132" t="str">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="M9" s="109" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="109" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="120" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="132" t="str">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="M10" s="109" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="109" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H11" s="133"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="134"/>
+      <c r="K11" s="135" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="136" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1917,15 +1992,18 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="I5:I9 M5:N10 L11" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BB428C-4651-4B9F-9821-E588F1484CFA}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14:P26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2062,22 +2140,22 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="26" t="s">
+      <c r="F5" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="111" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="111" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="112" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="113" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="113" t="s">
         <v>1</v>
       </c>
       <c r="L5" s="5"/>
@@ -2163,22 +2241,22 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="18" t="s">
+      <c r="F8" s="114" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="116" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="114" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="116" t="s">
         <v>4</v>
       </c>
       <c r="L8" s="5"/>
@@ -2274,6 +2352,9 @@
       <c r="G13" t="s">
         <v>13</v>
       </c>
+      <c r="P13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B14">
@@ -2291,11 +2372,11 @@
       <c r="F14" t="s">
         <v>4</v>
       </c>
-      <c r="G14">
-        <v>1</v>
+      <c r="G14" t="s">
+        <v>2</v>
       </c>
       <c r="P14" t="str">
-        <f>CONCATENATE(".db #$", C14, B14, ", #%", IF(E14="R", "0", "1"),  DEC2BIN(D14-1,2), VLOOKUP(F14, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G14,3))</f>
+        <f>CONCATENATE(".db #$", C14, B14, ", #%", IF(E14="R", "0", "1"),  DEC2BIN(D14-1,2), VLOOKUP(F14, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G14, info!$K$5:$L$10, 2, FALSE))</f>
         <v>.db #$61, #%00100001</v>
       </c>
     </row>
@@ -2315,11 +2396,11 @@
       <c r="F15" t="s">
         <v>4</v>
       </c>
-      <c r="G15">
-        <v>1</v>
+      <c r="G15" t="s">
+        <v>2</v>
       </c>
       <c r="P15" t="str">
-        <f>CONCATENATE(".db #$", C15, B15, ", #%", IF(E15="R", "0", "1"),  DEC2BIN(D15-1,2), VLOOKUP(F15, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G15,3))</f>
+        <f>CONCATENATE(".db #$", C15, B15, ", #%", IF(E15="R", "0", "1"),  DEC2BIN(D15-1,2), VLOOKUP(F15, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G15, info!$K$5:$L$10, 2, FALSE))</f>
         <v>.db #$52, #%01100001</v>
       </c>
     </row>
@@ -2339,12 +2420,12 @@
       <c r="F16" t="s">
         <v>4</v>
       </c>
-      <c r="G16">
-        <v>2</v>
+      <c r="G16" t="s">
+        <v>5</v>
       </c>
       <c r="P16" t="str">
-        <f>CONCATENATE(".db #$", C16, B16, ", #%", IF(E16="R", "0", "1"),  DEC2BIN(D16-1,2), VLOOKUP(F16, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G16,3))</f>
-        <v>.db #$43, #%01100010</v>
+        <f>CONCATENATE(".db #$", C16, B16, ", #%", IF(E16="R", "0", "1"),  DEC2BIN(D16-1,2), VLOOKUP(F16, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G16, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$43, #%01100101</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
@@ -2363,12 +2444,12 @@
       <c r="F17" t="s">
         <v>4</v>
       </c>
-      <c r="G17">
-        <v>2</v>
+      <c r="G17" t="s">
+        <v>5</v>
       </c>
       <c r="P17" t="str">
-        <f>CONCATENATE(".db #$", C17, B17, ", #%", IF(E17="R", "0", "1"),  DEC2BIN(D17-1,2), VLOOKUP(F17, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G17,3))</f>
-        <v>.db #$83, #%00000010</v>
+        <f>CONCATENATE(".db #$", C17, B17, ", #%", IF(E17="R", "0", "1"),  DEC2BIN(D17-1,2), VLOOKUP(F17, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G17, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$83, #%00000101</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
@@ -2387,12 +2468,12 @@
       <c r="F18" t="s">
         <v>1</v>
       </c>
-      <c r="G18">
-        <v>2</v>
+      <c r="G18" t="s">
+        <v>5</v>
       </c>
       <c r="P18" t="str">
-        <f>CONCATENATE(".db #$", C18, B18, ", #%", IF(E18="R", "0", "1"),  DEC2BIN(D18-1,2), VLOOKUP(F18, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G18,3))</f>
-        <v>.db #$93, #%00010010</v>
+        <f>CONCATENATE(".db #$", C18, B18, ", #%", IF(E18="R", "0", "1"),  DEC2BIN(D18-1,2), VLOOKUP(F18, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G18, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$93, #%00010101</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
@@ -2411,12 +2492,12 @@
       <c r="F19" t="s">
         <v>0</v>
       </c>
-      <c r="G19">
-        <v>0</v>
+      <c r="G19" t="s">
+        <v>17</v>
       </c>
       <c r="P19" t="str">
-        <f>CONCATENATE(".db #$", C19, B19, ", #%", IF(E19="R", "0", "1"),  DEC2BIN(D19-1,2), VLOOKUP(F19, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G19,3))</f>
-        <v>.db #$34, #%01111000</v>
+        <f>CONCATENATE(".db #$", C19, B19, ", #%", IF(E19="R", "0", "1"),  DEC2BIN(D19-1,2), VLOOKUP(F19, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G19, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$34, #%01111010</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
@@ -2435,12 +2516,12 @@
       <c r="F20" t="s">
         <v>0</v>
       </c>
-      <c r="G20">
-        <v>0</v>
+      <c r="G20" t="s">
+        <v>17</v>
       </c>
       <c r="P20" t="str">
-        <f>CONCATENATE(".db #$", C20, B20, ", #%", IF(E20="R", "0", "1"),  DEC2BIN(D20-1,2), VLOOKUP(F20, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G20,3))</f>
-        <v>.db #$74, #%01111000</v>
+        <f>CONCATENATE(".db #$", C20, B20, ", #%", IF(E20="R", "0", "1"),  DEC2BIN(D20-1,2), VLOOKUP(F20, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G20, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$74, #%01111010</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
@@ -2459,12 +2540,12 @@
       <c r="F21" t="s">
         <v>0</v>
       </c>
-      <c r="G21">
-        <v>0</v>
+      <c r="G21" t="s">
+        <v>17</v>
       </c>
       <c r="P21" t="str">
-        <f>CONCATENATE(".db #$", C21, B21, ", #%", IF(E21="R", "0", "1"),  DEC2BIN(D21-1,2), VLOOKUP(F21, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G21,3))</f>
-        <v>.db #$35, #%01111000</v>
+        <f>CONCATENATE(".db #$", C21, B21, ", #%", IF(E21="R", "0", "1"),  DEC2BIN(D21-1,2), VLOOKUP(F21, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G21, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$35, #%01111010</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
@@ -2483,12 +2564,12 @@
       <c r="F22" t="s">
         <v>0</v>
       </c>
-      <c r="G22">
-        <v>0</v>
+      <c r="G22" t="s">
+        <v>17</v>
       </c>
       <c r="P22" t="str">
-        <f>CONCATENATE(".db #$", C22, B22, ", #%", IF(E22="R", "0", "1"),  DEC2BIN(D22-1,2), VLOOKUP(F22, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G22,3))</f>
-        <v>.db #$75, #%01111000</v>
+        <f>CONCATENATE(".db #$", C22, B22, ", #%", IF(E22="R", "0", "1"),  DEC2BIN(D22-1,2), VLOOKUP(F22, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G22, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$75, #%01111010</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
@@ -2507,12 +2588,12 @@
       <c r="F23" t="s">
         <v>4</v>
       </c>
-      <c r="G23">
-        <v>2</v>
+      <c r="G23" t="s">
+        <v>5</v>
       </c>
       <c r="P23" t="str">
-        <f>CONCATENATE(".db #$", C23, B23, ", #%", IF(E23="R", "0", "1"),  DEC2BIN(D23-1,2), VLOOKUP(F23, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G23,3))</f>
-        <v>.db #$46, #%01100010</v>
+        <f>CONCATENATE(".db #$", C23, B23, ", #%", IF(E23="R", "0", "1"),  DEC2BIN(D23-1,2), VLOOKUP(F23, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G23, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$46, #%01100101</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
@@ -2531,12 +2612,12 @@
       <c r="F24" t="s">
         <v>4</v>
       </c>
-      <c r="G24">
-        <v>2</v>
+      <c r="G24" t="s">
+        <v>5</v>
       </c>
       <c r="P24" t="str">
-        <f>CONCATENATE(".db #$", C24, B24, ", #%", IF(E24="R", "0", "1"),  DEC2BIN(D24-1,2), VLOOKUP(F24, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G24,3))</f>
-        <v>.db #$86, #%00100010</v>
+        <f>CONCATENATE(".db #$", C24, B24, ", #%", IF(E24="R", "0", "1"),  DEC2BIN(D24-1,2), VLOOKUP(F24, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G24, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$86, #%00100101</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
@@ -2555,11 +2636,11 @@
       <c r="F25" t="s">
         <v>4</v>
       </c>
-      <c r="G25">
-        <v>1</v>
+      <c r="G25" t="s">
+        <v>2</v>
       </c>
       <c r="P25" t="str">
-        <f>CONCATENATE(".db #$", C25, B25, ", #%", IF(E25="R", "0", "1"),  DEC2BIN(D25-1,2), VLOOKUP(F25, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G25,3))</f>
+        <f>CONCATENATE(".db #$", C25, B25, ", #%", IF(E25="R", "0", "1"),  DEC2BIN(D25-1,2), VLOOKUP(F25, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G25, info!$K$5:$L$10, 2, FALSE))</f>
         <v>.db #$57, #%01100001</v>
       </c>
     </row>
@@ -2579,11 +2660,11 @@
       <c r="F26" t="s">
         <v>4</v>
       </c>
-      <c r="G26">
-        <v>1</v>
+      <c r="G26" t="s">
+        <v>2</v>
       </c>
       <c r="P26" t="str">
-        <f>CONCATENATE(".db #$", C26, B26, ", #%", IF(E26="R", "0", "1"),  DEC2BIN(D26-1,2), VLOOKUP(F26, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G26,3))</f>
+        <f>CONCATENATE(".db #$", C26, B26, ", #%", IF(E26="R", "0", "1"),  DEC2BIN(D26-1,2), VLOOKUP(F26, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G26, info!$K$5:$L$10, 2, FALSE))</f>
         <v>.db #$68, #%00100001</v>
       </c>
     </row>
@@ -2592,18 +2673,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8571E8-FA34-41DE-BC66-C61EF0B5623D}">
   <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14:P39"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="27"/>
     <col min="2" max="15" width="3.5546875" customWidth="1"/>
+    <col min="16" max="16" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2667,7 +2750,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="47" t="s">
+      <c r="N2" s="137" t="s">
         <v>5</v>
       </c>
       <c r="O2" s="3"/>
@@ -2683,40 +2766,40 @@
         <v>1</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="34" t="s">
+      <c r="D3" s="138" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="139" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="139" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="138" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="139" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="139" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="139" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="139" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="140" t="s">
         <v>4</v>
       </c>
       <c r="O3" s="6"/>
@@ -2780,7 +2863,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="38" t="s">
+      <c r="N5" s="113" t="s">
         <v>5</v>
       </c>
       <c r="O5" s="6"/>
@@ -2793,37 +2876,37 @@
       <c r="C6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="N6" s="41" t="s">
+      <c r="D6" s="114" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="116" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="114" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="116" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="116" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="6"/>
@@ -2895,7 +2978,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="138" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -2944,7 +3027,7 @@
       <c r="D10" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="39" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="35" t="s">
@@ -2953,25 +3036,25 @@
       <c r="G10" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="M10" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="N10" s="46" t="s">
+      <c r="H10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="42" t="s">
         <v>6</v>
       </c>
       <c r="O10" s="6"/>
@@ -3031,12 +3114,12 @@
       <c r="F14" t="s">
         <v>5</v>
       </c>
-      <c r="G14">
-        <v>1</v>
+      <c r="G14" t="s">
+        <v>17</v>
       </c>
       <c r="P14" t="str">
-        <f>CONCATENATE(".db #$", C14, B14, ", #%", IF(E14="R", "0", "1"),  DEC2BIN(D14-1,2), VLOOKUP(F14, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G14,3))</f>
-        <v>.db #$C0, #%00001001</v>
+        <f>CONCATENATE(".db #$", C14, B14, ", #%", IF(E14="R", "0", "1"),  DEC2BIN(D14-1,2), VLOOKUP(F14, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G14, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$C0, #%00001010</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
@@ -3055,12 +3138,12 @@
       <c r="F15" t="s">
         <v>1</v>
       </c>
-      <c r="G15">
-        <v>2</v>
+      <c r="G15" t="s">
+        <v>5</v>
       </c>
       <c r="P15" t="str">
-        <f>CONCATENATE(".db #$", C15, B15, ", #%", IF(E15="R", "0", "1"),  DEC2BIN(D15-1,2), VLOOKUP(F15, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G15,3))</f>
-        <v>.db #$11, #%00010010</v>
+        <f>CONCATENATE(".db #$", C15, B15, ", #%", IF(E15="R", "0", "1"),  DEC2BIN(D15-1,2), VLOOKUP(F15, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G15, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$11, #%00010101</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -3079,12 +3162,12 @@
       <c r="F16" t="s">
         <v>4</v>
       </c>
-      <c r="G16">
-        <v>1</v>
+      <c r="G16" t="s">
+        <v>17</v>
       </c>
       <c r="P16" t="str">
-        <f>CONCATENATE(".db #$", C16, B16, ", #%", IF(E16="R", "0", "1"),  DEC2BIN(D16-1,2), VLOOKUP(F16, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G16,3))</f>
-        <v>.db #$21, #%01100001</v>
+        <f>CONCATENATE(".db #$", C16, B16, ", #%", IF(E16="R", "0", "1"),  DEC2BIN(D16-1,2), VLOOKUP(F16, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G16, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$21, #%01100010</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
@@ -3103,12 +3186,12 @@
       <c r="F17" t="s">
         <v>4</v>
       </c>
-      <c r="G17">
-        <v>1</v>
+      <c r="G17" t="s">
+        <v>17</v>
       </c>
       <c r="P17" t="str">
-        <f>CONCATENATE(".db #$", C17, B17, ", #%", IF(E17="R", "0", "1"),  DEC2BIN(D17-1,2), VLOOKUP(F17, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G17,3))</f>
-        <v>.db #$61, #%01100001</v>
+        <f>CONCATENATE(".db #$", C17, B17, ", #%", IF(E17="R", "0", "1"),  DEC2BIN(D17-1,2), VLOOKUP(F17, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G17, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$61, #%01100010</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
@@ -3127,12 +3210,12 @@
       <c r="F18" t="s">
         <v>4</v>
       </c>
-      <c r="G18">
-        <v>1</v>
+      <c r="G18" t="s">
+        <v>17</v>
       </c>
       <c r="P18" t="str">
-        <f>CONCATENATE(".db #$", C18, B18, ", #%", IF(E18="R", "0", "1"),  DEC2BIN(D18-1,2), VLOOKUP(F18, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G18,3))</f>
-        <v>.db #$A1, #%01000001</v>
+        <f>CONCATENATE(".db #$", C18, B18, ", #%", IF(E18="R", "0", "1"),  DEC2BIN(D18-1,2), VLOOKUP(F18, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G18, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$A1, #%01000010</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
@@ -3151,11 +3234,11 @@
       <c r="F19" t="s">
         <v>6</v>
       </c>
-      <c r="G19">
-        <v>7</v>
+      <c r="G19" t="s">
+        <v>34</v>
       </c>
       <c r="P19" t="str">
-        <f>CONCATENATE(".db #$", C19, B19, ", #%", IF(E19="R", "0", "1"),  DEC2BIN(D19-1,2), VLOOKUP(F19, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G19,3))</f>
+        <f>CONCATENATE(".db #$", C19, B19, ", #%", IF(E19="R", "0", "1"),  DEC2BIN(D19-1,2), VLOOKUP(F19, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G19, info!$K$5:$L$11, 2, FALSE))</f>
         <v>.db #$12, #%01100111</v>
       </c>
     </row>
@@ -3175,11 +3258,11 @@
       <c r="F20" t="s">
         <v>6</v>
       </c>
-      <c r="G20">
-        <v>7</v>
+      <c r="G20" t="s">
+        <v>34</v>
       </c>
       <c r="P20" t="str">
-        <f>CONCATENATE(".db #$", C20, B20, ", #%", IF(E20="R", "0", "1"),  DEC2BIN(D20-1,2), VLOOKUP(F20, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G20,3))</f>
+        <f>CONCATENATE(".db #$", C20, B20, ", #%", IF(E20="R", "0", "1"),  DEC2BIN(D20-1,2), VLOOKUP(F20, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G20, info!$K$5:$L$11, 2, FALSE))</f>
         <v>.db #$52, #%01100111</v>
       </c>
     </row>
@@ -3199,11 +3282,11 @@
       <c r="F21" t="s">
         <v>6</v>
       </c>
-      <c r="G21">
-        <v>7</v>
+      <c r="G21" t="s">
+        <v>34</v>
       </c>
       <c r="P21" t="str">
-        <f>CONCATENATE(".db #$", C21, B21, ", #%", IF(E21="R", "0", "1"),  DEC2BIN(D21-1,2), VLOOKUP(F21, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G21,3))</f>
+        <f>CONCATENATE(".db #$", C21, B21, ", #%", IF(E21="R", "0", "1"),  DEC2BIN(D21-1,2), VLOOKUP(F21, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G21, info!$K$5:$L$11, 2, FALSE))</f>
         <v>.db #$92, #%01100111</v>
       </c>
     </row>
@@ -3223,12 +3306,12 @@
       <c r="F22" t="s">
         <v>5</v>
       </c>
-      <c r="G22">
-        <v>2</v>
+      <c r="G22" t="s">
+        <v>5</v>
       </c>
       <c r="P22" t="str">
-        <f>CONCATENATE(".db #$", C22, B22, ", #%", IF(E22="R", "0", "1"),  DEC2BIN(D22-1,2), VLOOKUP(F22, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G22,3))</f>
-        <v>.db #$C3, #%00001010</v>
+        <f>CONCATENATE(".db #$", C22, B22, ", #%", IF(E22="R", "0", "1"),  DEC2BIN(D22-1,2), VLOOKUP(F22, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G22, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$C3, #%00001101</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
@@ -3247,12 +3330,12 @@
       <c r="F23" t="s">
         <v>1</v>
       </c>
-      <c r="G23">
-        <v>3</v>
+      <c r="G23" t="s">
+        <v>2</v>
       </c>
       <c r="P23" t="str">
-        <f>CONCATENATE(".db #$", C23, B23, ", #%", IF(E23="R", "0", "1"),  DEC2BIN(D23-1,2), VLOOKUP(F23, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G23,3))</f>
-        <v>.db #$14, #%00010011</v>
+        <f>CONCATENATE(".db #$", C23, B23, ", #%", IF(E23="R", "0", "1"),  DEC2BIN(D23-1,2), VLOOKUP(F23, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G23, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$14, #%00010001</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
@@ -3271,12 +3354,12 @@
       <c r="F24" t="s">
         <v>4</v>
       </c>
-      <c r="G24">
-        <v>2</v>
+      <c r="G24" t="s">
+        <v>5</v>
       </c>
       <c r="P24" t="str">
-        <f>CONCATENATE(".db #$", C24, B24, ", #%", IF(E24="R", "0", "1"),  DEC2BIN(D24-1,2), VLOOKUP(F24, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G24,3))</f>
-        <v>.db #$24, #%01100010</v>
+        <f>CONCATENATE(".db #$", C24, B24, ", #%", IF(E24="R", "0", "1"),  DEC2BIN(D24-1,2), VLOOKUP(F24, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G24, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$24, #%01100101</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
@@ -3295,12 +3378,12 @@
       <c r="F25" t="s">
         <v>4</v>
       </c>
-      <c r="G25">
-        <v>2</v>
+      <c r="G25" t="s">
+        <v>5</v>
       </c>
       <c r="P25" t="str">
-        <f>CONCATENATE(".db #$", C25, B25, ", #%", IF(E25="R", "0", "1"),  DEC2BIN(D25-1,2), VLOOKUP(F25, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G25,3))</f>
-        <v>.db #$64, #%01100010</v>
+        <f>CONCATENATE(".db #$", C25, B25, ", #%", IF(E25="R", "0", "1"),  DEC2BIN(D25-1,2), VLOOKUP(F25, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G25, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$64, #%01100101</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
@@ -3319,12 +3402,12 @@
       <c r="F26" t="s">
         <v>4</v>
       </c>
-      <c r="G26">
-        <v>2</v>
+      <c r="G26" t="s">
+        <v>5</v>
       </c>
       <c r="P26" t="str">
-        <f>CONCATENATE(".db #$", C26, B26, ", #%", IF(E26="R", "0", "1"),  DEC2BIN(D26-1,2), VLOOKUP(F26, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G26,3))</f>
-        <v>.db #$A4, #%01000010</v>
+        <f>CONCATENATE(".db #$", C26, B26, ", #%", IF(E26="R", "0", "1"),  DEC2BIN(D26-1,2), VLOOKUP(F26, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G26, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$A4, #%01000101</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
@@ -3343,11 +3426,11 @@
       <c r="F27" t="s">
         <v>6</v>
       </c>
-      <c r="G27">
-        <v>7</v>
+      <c r="G27" t="s">
+        <v>34</v>
       </c>
       <c r="P27" t="str">
-        <f>CONCATENATE(".db #$", C27, B27, ", #%", IF(E27="R", "0", "1"),  DEC2BIN(D27-1,2), VLOOKUP(F27, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G27,3))</f>
+        <f>CONCATENATE(".db #$", C27, B27, ", #%", IF(E27="R", "0", "1"),  DEC2BIN(D27-1,2), VLOOKUP(F27, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G27, info!$K$5:$L$11, 2, FALSE))</f>
         <v>.db #$15, #%01100111</v>
       </c>
     </row>
@@ -3367,11 +3450,11 @@
       <c r="F28" t="s">
         <v>6</v>
       </c>
-      <c r="G28">
-        <v>7</v>
+      <c r="G28" t="s">
+        <v>34</v>
       </c>
       <c r="P28" t="str">
-        <f>CONCATENATE(".db #$", C28, B28, ", #%", IF(E28="R", "0", "1"),  DEC2BIN(D28-1,2), VLOOKUP(F28, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G28,3))</f>
+        <f>CONCATENATE(".db #$", C28, B28, ", #%", IF(E28="R", "0", "1"),  DEC2BIN(D28-1,2), VLOOKUP(F28, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G28, info!$K$5:$L$11, 2, FALSE))</f>
         <v>.db #$55, #%01100111</v>
       </c>
     </row>
@@ -3391,11 +3474,11 @@
       <c r="F29" t="s">
         <v>6</v>
       </c>
-      <c r="G29">
-        <v>7</v>
+      <c r="G29" t="s">
+        <v>34</v>
       </c>
       <c r="P29" t="str">
-        <f>CONCATENATE(".db #$", C29, B29, ", #%", IF(E29="R", "0", "1"),  DEC2BIN(D29-1,2), VLOOKUP(F29, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G29,3))</f>
+        <f>CONCATENATE(".db #$", C29, B29, ", #%", IF(E29="R", "0", "1"),  DEC2BIN(D29-1,2), VLOOKUP(F29, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G29, info!$K$5:$L$11, 2, FALSE))</f>
         <v>.db #$95, #%01100111</v>
       </c>
     </row>
@@ -3415,12 +3498,12 @@
       <c r="F30" t="s">
         <v>1</v>
       </c>
-      <c r="G30">
-        <v>1</v>
+      <c r="G30" t="s">
+        <v>17</v>
       </c>
       <c r="P30" t="str">
-        <f>CONCATENATE(".db #$", C30, B30, ", #%", IF(E30="R", "0", "1"),  DEC2BIN(D30-1,2), VLOOKUP(F30, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G30,3))</f>
-        <v>.db #$17, #%00010001</v>
+        <f>CONCATENATE(".db #$", C30, B30, ", #%", IF(E30="R", "0", "1"),  DEC2BIN(D30-1,2), VLOOKUP(F30, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G30, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$17, #%00010010</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
@@ -3439,12 +3522,12 @@
       <c r="F31" t="s">
         <v>4</v>
       </c>
-      <c r="G31">
-        <v>3</v>
+      <c r="G31" t="s">
+        <v>2</v>
       </c>
       <c r="P31" t="str">
-        <f>CONCATENATE(".db #$", C31, B31, ", #%", IF(E31="R", "0", "1"),  DEC2BIN(D31-1,2), VLOOKUP(F31, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G31,3))</f>
-        <v>.db #$27, #%01100011</v>
+        <f>CONCATENATE(".db #$", C31, B31, ", #%", IF(E31="R", "0", "1"),  DEC2BIN(D31-1,2), VLOOKUP(F31, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G31, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$27, #%01100001</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
@@ -3463,12 +3546,12 @@
       <c r="F32" t="s">
         <v>4</v>
       </c>
-      <c r="G32">
-        <v>3</v>
+      <c r="G32" t="s">
+        <v>2</v>
       </c>
       <c r="P32" t="str">
-        <f>CONCATENATE(".db #$", C32, B32, ", #%", IF(E32="R", "0", "1"),  DEC2BIN(D32-1,2), VLOOKUP(F32, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G32,3))</f>
-        <v>.db #$67, #%01100011</v>
+        <f>CONCATENATE(".db #$", C32, B32, ", #%", IF(E32="R", "0", "1"),  DEC2BIN(D32-1,2), VLOOKUP(F32, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G32, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$67, #%01100001</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
@@ -3487,12 +3570,12 @@
       <c r="F33" t="s">
         <v>4</v>
       </c>
-      <c r="G33">
-        <v>3</v>
+      <c r="G33" t="s">
+        <v>2</v>
       </c>
       <c r="P33" t="str">
-        <f>CONCATENATE(".db #$", C33, B33, ", #%", IF(E33="R", "0", "1"),  DEC2BIN(D33-1,2), VLOOKUP(F33, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G33,3))</f>
-        <v>.db #$A7, #%01000011</v>
+        <f>CONCATENATE(".db #$", C33, B33, ", #%", IF(E33="R", "0", "1"),  DEC2BIN(D33-1,2), VLOOKUP(F33, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G33, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$A7, #%01000001</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
@@ -3511,12 +3594,12 @@
       <c r="F34" t="s">
         <v>0</v>
       </c>
-      <c r="G34">
-        <v>0</v>
+      <c r="G34" t="s">
+        <v>17</v>
       </c>
       <c r="P34" t="str">
-        <f>CONCATENATE(".db #$", C34, B34, ", #%", IF(E34="R", "0", "1"),  DEC2BIN(D34-1,2), VLOOKUP(F34, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G34,3))</f>
-        <v>.db #$38, #%01111000</v>
+        <f>CONCATENATE(".db #$", C34, B34, ", #%", IF(E34="R", "0", "1"),  DEC2BIN(D34-1,2), VLOOKUP(F34, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G34, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$38, #%01111010</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
@@ -3535,12 +3618,12 @@
       <c r="F35" t="s">
         <v>0</v>
       </c>
-      <c r="G35">
-        <v>0</v>
+      <c r="G35" t="s">
+        <v>17</v>
       </c>
       <c r="P35" t="str">
-        <f>CONCATENATE(".db #$", C35, B35, ", #%", IF(E35="R", "0", "1"),  DEC2BIN(D35-1,2), VLOOKUP(F35, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G35,3))</f>
-        <v>.db #$98, #%01011000</v>
+        <f>CONCATENATE(".db #$", C35, B35, ", #%", IF(E35="R", "0", "1"),  DEC2BIN(D35-1,2), VLOOKUP(F35, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G35, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$98, #%01011010</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
@@ -3559,11 +3642,11 @@
       <c r="F36" t="s">
         <v>6</v>
       </c>
-      <c r="G36">
-        <v>7</v>
+      <c r="G36" t="s">
+        <v>34</v>
       </c>
       <c r="P36" t="str">
-        <f>CONCATENATE(".db #$", C36, B36, ", #%", IF(E36="R", "0", "1"),  DEC2BIN(D36-1,2), VLOOKUP(F36, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G36,3))</f>
+        <f>CONCATENATE(".db #$", C36, B36, ", #%", IF(E36="R", "0", "1"),  DEC2BIN(D36-1,2), VLOOKUP(F36, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G36, info!$K$5:$L$11, 2, FALSE))</f>
         <v>.db #$18, #%00100111</v>
       </c>
     </row>
@@ -3583,11 +3666,11 @@
       <c r="F37" t="s">
         <v>6</v>
       </c>
-      <c r="G37">
-        <v>7</v>
+      <c r="G37" t="s">
+        <v>34</v>
       </c>
       <c r="P37" t="str">
-        <f>CONCATENATE(".db #$", C37, B37, ", #%", IF(E37="R", "0", "1"),  DEC2BIN(D37-1,2), VLOOKUP(F37, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G37,3))</f>
+        <f>CONCATENATE(".db #$", C37, B37, ", #%", IF(E37="R", "0", "1"),  DEC2BIN(D37-1,2), VLOOKUP(F37, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G37, info!$K$5:$L$11, 2, FALSE))</f>
         <v>.db #$48, #%00100111</v>
       </c>
     </row>
@@ -3607,11 +3690,11 @@
       <c r="F38" t="s">
         <v>6</v>
       </c>
-      <c r="G38">
-        <v>7</v>
+      <c r="G38" t="s">
+        <v>34</v>
       </c>
       <c r="P38" t="str">
-        <f>CONCATENATE(".db #$", C38, B38, ", #%", IF(E38="R", "0", "1"),  DEC2BIN(D38-1,2), VLOOKUP(F38, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G38,3))</f>
+        <f>CONCATENATE(".db #$", C38, B38, ", #%", IF(E38="R", "0", "1"),  DEC2BIN(D38-1,2), VLOOKUP(F38, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G38, info!$K$5:$L$11, 2, FALSE))</f>
         <v>.db #$78, #%00100111</v>
       </c>
     </row>
@@ -3631,12 +3714,1029 @@
       <c r="F39" t="s">
         <v>6</v>
       </c>
-      <c r="G39">
+      <c r="G39" t="s">
+        <v>34</v>
+      </c>
+      <c r="P39" t="str">
+        <f>CONCATENATE(".db #$", C39, B39, ", #%", IF(E39="R", "0", "1"),  DEC2BIN(D39-1,2), VLOOKUP(F39, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G39, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$C8, #%00000111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E35EF46-67B8-499F-B9E0-27377CC93102}">
+  <dimension ref="A1:R38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="27"/>
+    <col min="2" max="15" width="3.5546875" customWidth="1"/>
+    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="28">
+        <v>0</v>
+      </c>
+      <c r="C1" s="28">
+        <v>1</v>
+      </c>
+      <c r="D1" s="28">
+        <v>2</v>
+      </c>
+      <c r="E1" s="28">
+        <v>3</v>
+      </c>
+      <c r="F1" s="28">
+        <v>4</v>
+      </c>
+      <c r="G1" s="28">
+        <v>5</v>
+      </c>
+      <c r="H1" s="28">
+        <v>6</v>
+      </c>
+      <c r="I1" s="28">
         <v>7</v>
       </c>
-      <c r="P39" t="str">
-        <f>CONCATENATE(".db #$", C39, B39, ", #%", IF(E39="R", "0", "1"),  DEC2BIN(D39-1,2), VLOOKUP(F39, info!$H$5:$I$9, 2, FALSE), DEC2BIN(G39,3))</f>
-        <v>.db #$C8, #%00000111</v>
+      <c r="J1" s="28">
+        <v>8</v>
+      </c>
+      <c r="K1" s="28">
+        <v>9</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29">
+        <v>0</v>
+      </c>
+      <c r="B2" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="146" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="145" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="146" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="145" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="146" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="145" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="146" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="145" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="146" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="145" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="146" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="145" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="152" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="142">
+        <v>51</v>
+      </c>
+      <c r="R2" s="141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="147" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="143"/>
+      <c r="E3" s="149" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="143"/>
+      <c r="G3" s="149" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="143"/>
+      <c r="I3" s="149" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="143"/>
+      <c r="K3" s="149" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="143"/>
+      <c r="M3" s="149" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="143"/>
+      <c r="O3" s="153" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="147" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="143"/>
+      <c r="G4" s="149" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="143"/>
+      <c r="I4" s="147" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="143"/>
+      <c r="K4" s="149" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="143"/>
+      <c r="M4" s="147" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="143"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="148" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="147" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="143"/>
+      <c r="I5" s="148" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="143"/>
+      <c r="K5" s="147" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="143"/>
+      <c r="M5" s="143"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="154" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="149" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="143"/>
+      <c r="E6" s="148" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="147" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="148" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="143"/>
+      <c r="O6" s="155" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="149" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="143"/>
+      <c r="E7" s="149" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="143"/>
+      <c r="G7" s="151" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="151" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="143"/>
+      <c r="M7" s="149" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="143"/>
+      <c r="O7" s="155" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="147" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="143"/>
+      <c r="E8" s="147" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="143"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="148" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="143"/>
+      <c r="K8" s="143"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="147" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="143"/>
+      <c r="O8" s="153" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="148" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="143"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="148" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="143"/>
+      <c r="I9" s="149" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="143"/>
+      <c r="K9" s="148" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="143"/>
+      <c r="M9" s="143"/>
+      <c r="N9" s="143"/>
+      <c r="O9" s="154" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="149" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="143"/>
+      <c r="E10" s="148" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="143"/>
+      <c r="G10" s="149" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="143"/>
+      <c r="I10" s="149" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="143"/>
+      <c r="K10" s="149" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="143"/>
+      <c r="M10" s="148" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="143"/>
+      <c r="O10" s="155" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="29">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="150" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="150" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="150" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="150" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="150" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="150" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="8"/>
+      <c r="O11" s="156" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="118" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="117"/>
+      <c r="B13" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="118" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="118" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="118" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="118" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="118" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" s="118" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" t="str">
+        <f>CONCATENATE(".db #$", C14, B14, ", #%", IF(E14="R", "0", "1"),  DEC2BIN(D14-1,2), VLOOKUP(F14, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G14, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$00, #%01111010</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" t="str">
+        <f>CONCATENATE(".db #$", C15, B15, ", #%", IF(E15="R", "0", "1"),  DEC2BIN(D15-1,2), VLOOKUP(F15, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G15, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$40, #%01111010</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" t="str">
+        <f>CONCATENATE(".db #$", C16, B16, ", #%", IF(E16="R", "0", "1"),  DEC2BIN(D16-1,2), VLOOKUP(F16, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G16, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$80, #%01111010</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" t="str">
+        <f>CONCATENATE(".db #$", C17, B17, ", #%", IF(E17="R", "0", "1"),  DEC2BIN(D17-1,2), VLOOKUP(F17, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G17, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$C0, #%00011010</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" t="str">
+        <f>CONCATENATE(".db #$", C18, B18, ", #%", IF(E18="R", "0", "1"),  DEC2BIN(D18-1,2), VLOOKUP(F18, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G18, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$10, #%10100001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" t="str">
+        <f>CONCATENATE(".db #$", C19, B19, ", #%", IF(E19="R", "0", "1"),  DEC2BIN(D19-1,2), VLOOKUP(F19, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G19, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$13, #%11100001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" t="str">
+        <f>CONCATENATE(".db #$", C20, B20, ", #%", IF(E20="R", "0", "1"),  DEC2BIN(D20-1,2), VLOOKUP(F20, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G20, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$17, #%11000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" t="str">
+        <f>CONCATENATE(".db #$", C21, B21, ", #%", IF(E21="R", "0", "1"),  DEC2BIN(D21-1,2), VLOOKUP(F21, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G21, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$30, #%11000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2</v>
+      </c>
+      <c r="P22" t="str">
+        <f>CONCATENATE(".db #$", C22, B22, ", #%", IF(E22="R", "0", "1"),  DEC2BIN(D22-1,2), VLOOKUP(F22, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G22, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$34, #%11000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2</v>
+      </c>
+      <c r="P23" t="str">
+        <f>CONCATENATE(".db #$", C23, B23, ", #%", IF(E23="R", "0", "1"),  DEC2BIN(D23-1,2), VLOOKUP(F23, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G23, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$38, #%10100001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2</v>
+      </c>
+      <c r="P24" t="str">
+        <f>CONCATENATE(".db #$", C24, B24, ", #%", IF(E24="R", "0", "1"),  DEC2BIN(D24-1,2), VLOOKUP(F24, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G24, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$50, #%11100001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2</v>
+      </c>
+      <c r="P25" t="str">
+        <f>CONCATENATE(".db #$", C25, B25, ", #%", IF(E25="R", "0", "1"),  DEC2BIN(D25-1,2), VLOOKUP(F25, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G25, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$55, #%10000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2</v>
+      </c>
+      <c r="P26" t="str">
+        <f>CONCATENATE(".db #$", C26, B26, ", #%", IF(E26="R", "0", "1"),  DEC2BIN(D26-1,2), VLOOKUP(F26, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G26, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$57, #%11000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2</v>
+      </c>
+      <c r="P27" t="str">
+        <f>CONCATENATE(".db #$", C27, B27, ", #%", IF(E27="R", "0", "1"),  DEC2BIN(D27-1,2), VLOOKUP(F27, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G27, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$70, #%11000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>2</v>
+      </c>
+      <c r="P28" t="str">
+        <f>CONCATENATE(".db #$", C28, B28, ", #%", IF(E28="R", "0", "1"),  DEC2BIN(D28-1,2), VLOOKUP(F28, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G28, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$73, #%10100001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2</v>
+      </c>
+      <c r="P29" t="str">
+        <f>CONCATENATE(".db #$", C29, B29, ", #%", IF(E29="R", "0", "1"),  DEC2BIN(D29-1,2), VLOOKUP(F29, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G29, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$76, #%11100001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>2</v>
+      </c>
+      <c r="P30" t="str">
+        <f>CONCATENATE(".db #$", C30, B30, ", #%", IF(E30="R", "0", "1"),  DEC2BIN(D30-1,2), VLOOKUP(F30, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G30, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$90, #%11100001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2</v>
+      </c>
+      <c r="P31" t="str">
+        <f>CONCATENATE(".db #$", C31, B31, ", #%", IF(E31="R", "0", "1"),  DEC2BIN(D31-1,2), VLOOKUP(F31, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G31, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$95, #%10000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>2</v>
+      </c>
+      <c r="P32" t="str">
+        <f>CONCATENATE(".db #$", C32, B32, ", #%", IF(E32="R", "0", "1"),  DEC2BIN(D32-1,2), VLOOKUP(F32, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G32, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$97, #%11000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>2</v>
+      </c>
+      <c r="P33" t="str">
+        <f>CONCATENATE(".db #$", C33, B33, ", #%", IF(E33="R", "0", "1"),  DEC2BIN(D33-1,2), VLOOKUP(F33, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G33, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$B0, #%11000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>2</v>
+      </c>
+      <c r="P34" t="str">
+        <f>CONCATENATE(".db #$", C34, B34, ", #%", IF(E34="R", "0", "1"),  DEC2BIN(D34-1,2), VLOOKUP(F34, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G34, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$B4, #%11000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>2</v>
+      </c>
+      <c r="P35" t="str">
+        <f>CONCATENATE(".db #$", C35, B35, ", #%", IF(E35="R", "0", "1"),  DEC2BIN(D35-1,2), VLOOKUP(F35, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G35, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$B8, #%10100001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>2</v>
+      </c>
+      <c r="P36" t="str">
+        <f>CONCATENATE(".db #$", C36, B36, ", #%", IF(E36="R", "0", "1"),  DEC2BIN(D36-1,2), VLOOKUP(F36, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G36, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$D0, #%10100001</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>2</v>
+      </c>
+      <c r="P37" t="str">
+        <f>CONCATENATE(".db #$", C37, B37, ", #%", IF(E37="R", "0", "1"),  DEC2BIN(D37-1,2), VLOOKUP(F37, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G37, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$D3, #%11100001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>2</v>
+      </c>
+      <c r="P38" t="str">
+        <f>CONCATENATE(".db #$", C38, B38, ", #%", IF(E38="R", "0", "1"),  DEC2BIN(D38-1,2), VLOOKUP(F38, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G38, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$D7, #%11000001</v>
       </c>
     </row>
   </sheetData>
@@ -3706,20 +4806,20 @@
       <c r="A2" s="29">
         <v>0</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="71"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="66"/>
       <c r="Q2">
         <v>119</v>
       </c>
@@ -3731,172 +4831,172 @@
       <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="56"/>
       <c r="J3" s="26"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="61"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="56"/>
       <c r="N3" s="16"/>
-      <c r="O3" s="73"/>
+      <c r="O3" s="68"/>
     </row>
     <row r="4" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29">
         <v>2</v>
       </c>
-      <c r="B4" s="74"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="75"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="70"/>
     </row>
     <row r="5" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29">
         <v>3</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="48"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="43"/>
       <c r="N5" s="26"/>
-      <c r="O5" s="76"/>
+      <c r="O5" s="71"/>
     </row>
     <row r="6" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29">
         <v>4</v>
       </c>
-      <c r="B6" s="74"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="17"/>
       <c r="D6" s="21"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="53"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48"/>
       <c r="J6" s="17"/>
       <c r="K6" s="25"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="77"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="72"/>
     </row>
     <row r="7" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29">
         <v>5</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="61"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="58"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="25"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="77"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="72"/>
     </row>
     <row r="8" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29">
         <v>6</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="54"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="49"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="52"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="47"/>
       <c r="H8" s="26"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="55"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="50"/>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
       <c r="N8" s="18"/>
-      <c r="O8" s="79"/>
+      <c r="O8" s="74"/>
     </row>
     <row r="9" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29">
         <v>7</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="57"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="52"/>
       <c r="N9" s="26"/>
-      <c r="O9" s="81"/>
+      <c r="O9" s="76"/>
     </row>
     <row r="10" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29">
         <v>8</v>
       </c>
-      <c r="B10" s="82"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="18"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="47"/>
       <c r="I10" s="20"/>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="83"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="78"/>
     </row>
     <row r="11" spans="1:18" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="29">
         <v>9</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="90"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="85"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3969,24 +5069,24 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="95" t="s">
+      <c r="F2" s="90" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="103" t="s">
+      <c r="I2" s="98" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="106" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="107" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="108" t="s">
+      <c r="M2" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="103" t="s">
         <v>4</v>
       </c>
       <c r="Q2">
@@ -4004,7 +5104,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="92" t="s">
+      <c r="F3" s="87" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="5"/>
@@ -4019,7 +5119,7 @@
       <c r="N3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="73" t="s">
+      <c r="O3" s="68" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4033,7 +5133,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="93" t="s">
+      <c r="F4" s="88" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="25" t="s">
@@ -4050,7 +5150,7 @@
       <c r="N4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="109" t="s">
+      <c r="O4" s="104" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4058,7 +5158,7 @@
       <c r="A5" s="29">
         <v>3</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="91" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="37" t="s">
@@ -4089,13 +5189,13 @@
       <c r="L5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" s="104" t="s">
-        <v>6</v>
-      </c>
-      <c r="O5" s="105" t="s">
+      <c r="M5" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="100" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4122,7 +5222,7 @@
       <c r="A7" s="29">
         <v>5</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="92" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="5"/>
@@ -4161,11 +5261,11 @@
       <c r="A8" s="29">
         <v>6</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="73" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="46" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="5"/>
@@ -4194,7 +5294,7 @@
       <c r="A9" s="29">
         <v>7</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="73" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="5"/>
@@ -4204,27 +5304,27 @@
       <c r="E9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="47" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="47" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="52" t="s">
+      <c r="J9" s="47" t="s">
         <v>4</v>
       </c>
       <c r="K9" s="5"/>
-      <c r="L9" s="94" t="s">
+      <c r="L9" s="89" t="s">
         <v>4</v>
       </c>
       <c r="M9" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="62" t="s">
+      <c r="N9" s="57" t="s">
         <v>4</v>
       </c>
       <c r="O9" s="6"/>
@@ -4233,29 +5333,29 @@
       <c r="A10" s="29">
         <v>8</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="75" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="47" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="52" t="s">
+      <c r="H10" s="47" t="s">
         <v>4</v>
       </c>
       <c r="I10" s="5"/>
-      <c r="J10" s="52" t="s">
+      <c r="J10" s="47" t="s">
         <v>4</v>
       </c>
       <c r="K10" s="5"/>
-      <c r="L10" s="94" t="s">
+      <c r="L10" s="89" t="s">
         <v>4</v>
       </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="52" t="s">
+      <c r="N10" s="47" t="s">
         <v>4</v>
       </c>
       <c r="O10" s="6"/>
@@ -4264,36 +5364,339 @@
       <c r="A11" s="29">
         <v>9</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="93" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="87" t="s">
+      <c r="F11" s="82" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="87" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="87" t="s">
+      <c r="H11" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="82" t="s">
         <v>4</v>
       </c>
       <c r="K11" s="8"/>
-      <c r="L11" s="100" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11" s="101" t="s">
-        <v>4</v>
-      </c>
-      <c r="N11" s="102" t="s">
+      <c r="L11" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="97" t="s">
         <v>4</v>
       </c>
       <c r="O11" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95440412-A2B7-43E5-A6C1-1A36CF91A08F}">
+  <dimension ref="A1:P14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="27"/>
+    <col min="2" max="15" width="3.5546875" customWidth="1"/>
+    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="28">
+        <v>0</v>
+      </c>
+      <c r="C1" s="28">
+        <v>1</v>
+      </c>
+      <c r="D1" s="28">
+        <v>2</v>
+      </c>
+      <c r="E1" s="28">
+        <v>3</v>
+      </c>
+      <c r="F1" s="28">
+        <v>4</v>
+      </c>
+      <c r="G1" s="28">
+        <v>5</v>
+      </c>
+      <c r="H1" s="28">
+        <v>6</v>
+      </c>
+      <c r="I1" s="28">
+        <v>7</v>
+      </c>
+      <c r="J1" s="28">
+        <v>8</v>
+      </c>
+      <c r="K1" s="28">
+        <v>9</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:16" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="29">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="13" spans="1:16" s="118" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="117"/>
+      <c r="B13" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="118" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="118" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="118" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="118" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="118" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" s="118" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" t="str">
+        <f>CONCATENATE(".db #$", C14, B14, ", #%", IF(E14="R", "0", "1"),  DEC2BIN(D14-1,2), VLOOKUP(F14, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G14, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$61, #%00100001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ext_assets/LevelDesign.xlsx
+++ b/ext_assets/LevelDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nesdev\repos\crillion-nes\crillion-nes\ext_assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736B76B2-AC8B-458A-B0E2-55E393042DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB2C7B5-51A8-48A4-8950-7C24D0BCE732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="9" xr2:uid="{E8D8F587-BDBE-423A-95AF-6E9B76766DB8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{E8D8F587-BDBE-423A-95AF-6E9B76766DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="6" r:id="rId1"/>
@@ -2590,9 +2590,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA34367-0DD3-496D-9AFB-6A1C26D7B547}">
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P14" sqref="P14:P46"/>
+      <selection pane="bottomLeft" activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20237,9 +20237,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E74543B-0EF5-4872-B40B-688829014A48}">
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P45" sqref="P14:P45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="13" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20666,11 +20666,11 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="P15" t="str">
         <f>CONCATENATE(".db #$", C15, B15, ", #%", IF(E15="R", "0", "1"),  DEC2BIN(D15-1,2), VLOOKUP(F15, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G15, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$01, #%11111100</v>
+        <v>.db #$01, #%11111010</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -20690,11 +20690,11 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="P16" t="str">
         <f>CONCATENATE(".db #$", C16, B16, ", #%", IF(E16="R", "0", "1"),  DEC2BIN(D16-1,2), VLOOKUP(F16, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G16, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$12, #%10111100</v>
+        <v>.db #$12, #%10111010</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
@@ -20714,11 +20714,11 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="P17" t="str">
         <f>CONCATENATE(".db #$", C17, B17, ", #%", IF(E17="R", "0", "1"),  DEC2BIN(D17-1,2), VLOOKUP(F17, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G17, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$23, #%11011100</v>
+        <v>.db #$23, #%11011010</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
@@ -20738,11 +20738,11 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="P18" t="str">
         <f>CONCATENATE(".db #$", C18, B18, ", #%", IF(E18="R", "0", "1"),  DEC2BIN(D18-1,2), VLOOKUP(F18, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G18, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$34, #%11111100</v>
+        <v>.db #$34, #%11111010</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
@@ -20762,11 +20762,11 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="P19" t="str">
         <f>CONCATENATE(".db #$", C19, B19, ", #%", IF(E19="R", "0", "1"),  DEC2BIN(D19-1,2), VLOOKUP(F19, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G19, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$05, #%11011100</v>
+        <v>.db #$05, #%11011010</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
@@ -20786,11 +20786,11 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="P20" t="str">
         <f>CONCATENATE(".db #$", C20, B20, ", #%", IF(E20="R", "0", "1"),  DEC2BIN(D20-1,2), VLOOKUP(F20, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G20, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$15, #%11111100</v>
+        <v>.db #$15, #%11111010</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
@@ -20810,11 +20810,11 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="P21" t="str">
         <f>CONCATENATE(".db #$", C21, B21, ", #%", IF(E21="R", "0", "1"),  DEC2BIN(D21-1,2), VLOOKUP(F21, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G21, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$45, #%10111100</v>
+        <v>.db #$45, #%10111010</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
@@ -20834,11 +20834,11 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="P22" t="str">
         <f>CONCATENATE(".db #$", C22, B22, ", #%", IF(E22="R", "0", "1"),  DEC2BIN(D22-1,2), VLOOKUP(F22, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G22, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$56, #%11011100</v>
+        <v>.db #$56, #%11011010</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
@@ -20858,11 +20858,11 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="P23" t="str">
         <f>CONCATENATE(".db #$", C23, B23, ", #%", IF(E23="R", "0", "1"),  DEC2BIN(D23-1,2), VLOOKUP(F23, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G23, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$27, #%10111100</v>
+        <v>.db #$27, #%10111010</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
@@ -20882,11 +20882,11 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="P24" t="str">
         <f>CONCATENATE(".db #$", C24, B24, ", #%", IF(E24="R", "0", "1"),  DEC2BIN(D24-1,2), VLOOKUP(F24, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G24, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$67, #%11011100</v>
+        <v>.db #$67, #%11011010</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
@@ -20906,11 +20906,11 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="P25" t="str">
         <f>CONCATENATE(".db #$", C25, B25, ", #%", IF(E25="R", "0", "1"),  DEC2BIN(D25-1,2), VLOOKUP(F25, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G25, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$38, #%00111100</v>
+        <v>.db #$38, #%00111010</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
@@ -20930,11 +20930,11 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="P26" t="str">
         <f>CONCATENATE(".db #$", C26, B26, ", #%", IF(E26="R", "0", "1"),  DEC2BIN(D26-1,2), VLOOKUP(F26, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G26, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$78, #%10111100</v>
+        <v>.db #$78, #%10111010</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
@@ -20954,11 +20954,11 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="P27" t="str">
         <f>CONCATENATE(".db #$", C27, B27, ", #%", IF(E27="R", "0", "1"),  DEC2BIN(D27-1,2), VLOOKUP(F27, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G27, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$09, #%00111100</v>
+        <v>.db #$09, #%00111010</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
@@ -20978,11 +20978,11 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="P28" t="str">
         <f>CONCATENATE(".db #$", C28, B28, ", #%", IF(E28="R", "0", "1"),  DEC2BIN(D28-1,2), VLOOKUP(F28, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G28, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$39, #%00111100</v>
+        <v>.db #$39, #%00111010</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
@@ -21002,11 +21002,11 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="P29" t="str">
         <f>CONCATENATE(".db #$", C29, B29, ", #%", IF(E29="R", "0", "1"),  DEC2BIN(D29-1,2), VLOOKUP(F29, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G29, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$89, #%00011100</v>
+        <v>.db #$89, #%00011010</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">

--- a/ext_assets/LevelDesign.xlsx
+++ b/ext_assets/LevelDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nesdev\repos\crillion-nes\crillion-nes\ext_assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7745CDAD-3D77-4A3A-9743-16395CBAC4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07D23FE-588E-4181-B004-3E36EB34B67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="15936" windowHeight="10140" firstSheet="13" activeTab="25" xr2:uid="{E8D8F587-BDBE-423A-95AF-6E9B76766DB8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="11" xr2:uid="{E8D8F587-BDBE-423A-95AF-6E9B76766DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="6" r:id="rId1"/>
@@ -5113,9 +5113,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF527098-673A-4A1B-8A76-8C4E7A5D0D04}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P54" sqref="P14:P54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="13" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P51" sqref="P51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6490,11 +6490,11 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="P51" t="str">
         <f>CONCATENATE(".db #$", C51, B51, ", #%", IF(E51="R", "0", "1"),  DEC2BIN(D51-1,2), VLOOKUP(F51, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G51, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$96, #%01011100</v>
+        <v>.db #$96, #%01011010</v>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.3">
@@ -24437,7 +24437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA7A603-CC48-437E-96AE-32348CDF5D91}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P36" sqref="P36"/>
     </sheetView>

--- a/ext_assets/LevelDesign.xlsx
+++ b/ext_assets/LevelDesign.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nesdev\repos\crillion-nes\crillion-nes\ext_assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07D23FE-588E-4181-B004-3E36EB34B67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F7E052-480A-42DE-8979-80A816C1ACBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="11" xr2:uid="{E8D8F587-BDBE-423A-95AF-6E9B76766DB8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="15" xr2:uid="{E8D8F587-BDBE-423A-95AF-6E9B76766DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="6" r:id="rId1"/>
@@ -322,7 +322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="63">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -1078,11 +1078,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="394">
+  <cellXfs count="395">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2213,6 +2228,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2561,10 +2579,10 @@
       <c r="B1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="392" t="s">
+      <c r="D1" s="393" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="393"/>
+      <c r="E1" s="394"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2">
@@ -5113,7 +5131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF527098-673A-4A1B-8A76-8C4E7A5D0D04}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P51" sqref="P51"/>
     </sheetView>
@@ -10783,9 +10801,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E412488F-3473-4AB3-985F-ED3230803FB7}">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10898,15 +10916,14 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="202" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="202" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="202" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="202" t="s">
+        <v>4</v>
+      </c>
       <c r="I3" s="5"/>
       <c r="J3" s="202" t="s">
         <v>4</v>
@@ -11298,7 +11315,7 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -11314,7 +11331,7 @@
       </c>
       <c r="P18" t="str">
         <f>CONCATENATE(".db #$", C18, B18, ", #%", IF(E18="R", "0", "1"),  DEC2BIN(D18-1,2), VLOOKUP(F18, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G18, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$31, #%00000100</v>
+        <v>.db #$41, #%00000100</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
@@ -11322,7 +11339,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -11338,7 +11355,7 @@
       </c>
       <c r="P19" t="str">
         <f>CONCATENATE(".db #$", C19, B19, ", #%", IF(E19="R", "0", "1"),  DEC2BIN(D19-1,2), VLOOKUP(F19, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G19, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$51, #%00000100</v>
+        <v>.db #$61, #%00000100</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
@@ -27744,8 +27761,8 @@
   <dimension ref="A1:R69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P32" sqref="P32"/>
+      <pane ySplit="13" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28153,11 +28170,11 @@
       <c r="F9" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>5</v>
+      <c r="G9" s="392" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>4</v>
       </c>
       <c r="I9" s="37" t="s">
         <v>4</v>
@@ -29345,7 +29362,7 @@
         <v>5</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" t="s">
         <v>17</v>
@@ -29358,7 +29375,7 @@
       </c>
       <c r="P57" t="str">
         <f>CONCATENATE(".db #$", C57, B57, ", #%", IF(E57="R", "0", "1"),  DEC2BIN(D57-1,2), VLOOKUP(F57, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G57, info!$K$5:$L$10, 2, FALSE))</f>
-        <v>.db #$57, #%00000001</v>
+        <v>.db #$57, #%00100001</v>
       </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.3">
@@ -29651,6 +29668,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ext_assets/LevelDesign.xlsx
+++ b/ext_assets/LevelDesign.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nesdev\repos\crillion-nes\crillion-nes\ext_assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F7E052-480A-42DE-8979-80A816C1ACBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7208396-E2D2-4671-8B7A-54B3B64F866F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="15" xr2:uid="{E8D8F587-BDBE-423A-95AF-6E9B76766DB8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="18" xr2:uid="{E8D8F587-BDBE-423A-95AF-6E9B76766DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="6" r:id="rId1"/>
@@ -10801,7 +10801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E412488F-3473-4AB3-985F-ED3230803FB7}">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
@@ -15088,9 +15088,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF61D7D-E693-4D23-BB90-9B3E366E6A80}">
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="13" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16413,11 +16413,11 @@
         <v>4</v>
       </c>
       <c r="G50" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="P50" t="str">
         <f>CONCATENATE(".db #$", C50, B50, ", #%", IF(E50="R", "0", "1"),  DEC2BIN(D50-1,2), VLOOKUP(F50, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G50, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$88, #%10100011</v>
+        <v>.db #$88, #%10100000</v>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">

--- a/ext_assets/LevelDesign.xlsx
+++ b/ext_assets/LevelDesign.xlsx
@@ -1,45 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nesdev\repos\crillion-nes\crillion-nes\ext_assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7208396-E2D2-4671-8B7A-54B3B64F866F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27711D9-CD72-475E-AFCF-14AB2E166E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="18" xr2:uid="{E8D8F587-BDBE-423A-95AF-6E9B76766DB8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E8D8F587-BDBE-423A-95AF-6E9B76766DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="6" r:id="rId1"/>
-    <sheet name="01" sheetId="1" r:id="rId2"/>
-    <sheet name="02" sheetId="2" r:id="rId3"/>
-    <sheet name="03" sheetId="7" r:id="rId4"/>
-    <sheet name="04" sheetId="4" r:id="rId5"/>
-    <sheet name="05" sheetId="5" r:id="rId6"/>
-    <sheet name="06" sheetId="8" r:id="rId7"/>
-    <sheet name="07" sheetId="9" r:id="rId8"/>
-    <sheet name="08" sheetId="10" r:id="rId9"/>
-    <sheet name="09" sheetId="27" r:id="rId10"/>
-    <sheet name="10" sheetId="11" r:id="rId11"/>
-    <sheet name="11" sheetId="12" r:id="rId12"/>
-    <sheet name="12" sheetId="13" r:id="rId13"/>
-    <sheet name="13" sheetId="14" r:id="rId14"/>
-    <sheet name="14" sheetId="15" r:id="rId15"/>
-    <sheet name="15" sheetId="16" r:id="rId16"/>
-    <sheet name="16" sheetId="17" r:id="rId17"/>
-    <sheet name="17" sheetId="18" r:id="rId18"/>
-    <sheet name="18" sheetId="19" r:id="rId19"/>
-    <sheet name="19" sheetId="20" r:id="rId20"/>
-    <sheet name="20" sheetId="21" r:id="rId21"/>
-    <sheet name="21" sheetId="22" r:id="rId22"/>
-    <sheet name="22" sheetId="23" r:id="rId23"/>
-    <sheet name="23" sheetId="24" r:id="rId24"/>
-    <sheet name="24" sheetId="26" r:id="rId25"/>
-    <sheet name="25" sheetId="25" r:id="rId26"/>
-    <sheet name="base" sheetId="3" r:id="rId27"/>
+    <sheet name="(test)" sheetId="28" r:id="rId2"/>
+    <sheet name="01" sheetId="1" r:id="rId3"/>
+    <sheet name="02" sheetId="2" r:id="rId4"/>
+    <sheet name="03" sheetId="7" r:id="rId5"/>
+    <sheet name="04" sheetId="4" r:id="rId6"/>
+    <sheet name="05" sheetId="5" r:id="rId7"/>
+    <sheet name="06" sheetId="8" r:id="rId8"/>
+    <sheet name="07" sheetId="9" r:id="rId9"/>
+    <sheet name="08" sheetId="10" r:id="rId10"/>
+    <sheet name="09" sheetId="27" r:id="rId11"/>
+    <sheet name="10" sheetId="11" r:id="rId12"/>
+    <sheet name="11" sheetId="12" r:id="rId13"/>
+    <sheet name="12" sheetId="13" r:id="rId14"/>
+    <sheet name="13" sheetId="14" r:id="rId15"/>
+    <sheet name="14" sheetId="15" r:id="rId16"/>
+    <sheet name="15" sheetId="16" r:id="rId17"/>
+    <sheet name="16" sheetId="17" r:id="rId18"/>
+    <sheet name="17" sheetId="18" r:id="rId19"/>
+    <sheet name="18" sheetId="19" r:id="rId20"/>
+    <sheet name="19" sheetId="20" r:id="rId21"/>
+    <sheet name="20" sheetId="21" r:id="rId22"/>
+    <sheet name="21" sheetId="22" r:id="rId23"/>
+    <sheet name="22" sheetId="23" r:id="rId24"/>
+    <sheet name="23" sheetId="24" r:id="rId25"/>
+    <sheet name="24" sheetId="26" r:id="rId26"/>
+    <sheet name="25" sheetId="25" r:id="rId27"/>
+    <sheet name="base" sheetId="3" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5140" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5157" uniqueCount="36">
   <si>
     <t>D</t>
   </si>
@@ -1097,7 +1098,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="395">
+  <cellXfs count="397">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2238,6 +2239,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2974,6 +2981,1057 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B8D1FD-3DF4-4DF8-93C7-D5B3E4AB11C5}">
+  <dimension ref="A1:R40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="26"/>
+    <col min="2" max="15" width="3.5546875" customWidth="1"/>
+    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="27">
+        <v>0</v>
+      </c>
+      <c r="C1" s="27">
+        <v>1</v>
+      </c>
+      <c r="D1" s="27">
+        <v>2</v>
+      </c>
+      <c r="E1" s="27">
+        <v>3</v>
+      </c>
+      <c r="F1" s="27">
+        <v>4</v>
+      </c>
+      <c r="G1" s="27">
+        <v>5</v>
+      </c>
+      <c r="H1" s="27">
+        <v>6</v>
+      </c>
+      <c r="I1" s="27">
+        <v>7</v>
+      </c>
+      <c r="J1" s="27">
+        <v>8</v>
+      </c>
+      <c r="K1" s="27">
+        <v>9</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="208" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="188" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="188" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="209" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <v>55</v>
+      </c>
+      <c r="R2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="152" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="198" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="189" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="189" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="210" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="193" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="195" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="196" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="196" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="197" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="189" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="203" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="210" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="193" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="192" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="192" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="203" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="205" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="211" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="194" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="193" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="193" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="206" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="189" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="190" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28">
+        <v>5</v>
+      </c>
+      <c r="B7" s="212" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="194" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="193" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="206" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="189" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="213" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="194" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="207" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="203" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="187" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28">
+        <v>7</v>
+      </c>
+      <c r="B9" s="214" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="200" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="200" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="201" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="189" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="190" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="189" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="206" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="215" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="28">
+        <v>9</v>
+      </c>
+      <c r="B11" s="216" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="217" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="149" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="191" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="218" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="185" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="98" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="97"/>
+      <c r="B13" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="98" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" s="98" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" t="str">
+        <f>CONCATENATE(".db #$", C14, B14, ", #%", IF(E14="R", "0", "1"),  DEC2BIN(D14-1,2), VLOOKUP(F14, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G14, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$40, #%10110101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" t="str">
+        <f>CONCATENATE(".db #$", C15, B15, ", #%", IF(E15="R", "0", "1"),  DEC2BIN(D15-1,2), VLOOKUP(F15, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G15, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$31, #%00001101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P16" t="str">
+        <f>CONCATENATE(".db #$", C16, B16, ", #%", IF(E16="R", "0", "1"),  DEC2BIN(D16-1,2), VLOOKUP(F16, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G16, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$61, #%00010000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" t="str">
+        <f>CONCATENATE(".db #$", C17, B17, ", #%", IF(E17="R", "0", "1"),  DEC2BIN(D17-1,2), VLOOKUP(F17, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G17, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$42, #%11000111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" t="str">
+        <f>CONCATENATE(".db #$", C18, B18, ", #%", IF(E18="R", "0", "1"),  DEC2BIN(D18-1,2), VLOOKUP(F18, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G18, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$52, #%01100111</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" t="str">
+        <f>CONCATENATE(".db #$", C19, B19, ", #%", IF(E19="R", "0", "1"),  DEC2BIN(D19-1,2), VLOOKUP(F19, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G19, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$63, #%11000111</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+      <c r="P20" t="str">
+        <f>CONCATENATE(".db #$", C20, B20, ", #%", IF(E20="R", "0", "1"),  DEC2BIN(D20-1,2), VLOOKUP(F20, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G20, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$83, #%11100111</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" t="str">
+        <f>CONCATENATE(".db #$", C21, B21, ", #%", IF(E21="R", "0", "1"),  DEC2BIN(D21-1,2), VLOOKUP(F21, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G21, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$05, #%00000111</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" t="str">
+        <f>CONCATENATE(".db #$", C22, B22, ", #%", IF(E22="R", "0", "1"),  DEC2BIN(D22-1,2), VLOOKUP(F22, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G22, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$15, #%00111010</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>25</v>
+      </c>
+      <c r="P23" t="str">
+        <f>CONCATENATE(".db #$", C23, B23, ", #%", IF(E23="R", "0", "1"),  DEC2BIN(D23-1,2), VLOOKUP(F23, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G23, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$07, #%01100011</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24" t="str">
+        <f>CONCATENATE(".db #$", C24, B24, ", #%", IF(E24="R", "0", "1"),  DEC2BIN(D24-1,2), VLOOKUP(F24, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G24, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$27, #%00010011</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="P25" t="str">
+        <f>CONCATENATE(".db #$", C25, B25, ", #%", IF(E25="R", "0", "1"),  DEC2BIN(D25-1,2), VLOOKUP(F25, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G25, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$38, #%10100101</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="P26" t="str">
+        <f>CONCATENATE(".db #$", C26, B26, ", #%", IF(E26="R", "0", "1"),  DEC2BIN(D26-1,2), VLOOKUP(F26, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G26, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$09, #%00010100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" t="str">
+        <f>CONCATENATE(".db #$", C27, B27, ", #%", IF(E27="R", "0", "1"),  DEC2BIN(D27-1,2), VLOOKUP(F27, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G27, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$19, #%00000101</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>4</v>
+      </c>
+      <c r="P28" t="str">
+        <f>CONCATENATE(".db #$", C28, B28, ", #%", IF(E28="R", "0", "1"),  DEC2BIN(D28-1,2), VLOOKUP(F28, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G28, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$D0, #%11100000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" t="str">
+        <f>CONCATENATE(".db #$", C29, B29, ", #%", IF(E29="R", "0", "1"),  DEC2BIN(D29-1,2), VLOOKUP(F29, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G29, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$C2, #%10100000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>4</v>
+      </c>
+      <c r="P30" t="str">
+        <f>CONCATENATE(".db #$", C30, B30, ", #%", IF(E30="R", "0", "1"),  DEC2BIN(D30-1,2), VLOOKUP(F30, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G30, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$B3, #%11100000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>4</v>
+      </c>
+      <c r="P31" t="str">
+        <f>CONCATENATE(".db #$", C31, B31, ", #%", IF(E31="R", "0", "1"),  DEC2BIN(D31-1,2), VLOOKUP(F31, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G31, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$D5, #%11100000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" t="str">
+        <f>CONCATENATE(".db #$", C32, B32, ", #%", IF(E32="R", "0", "1"),  DEC2BIN(D32-1,2), VLOOKUP(F32, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G32, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$C6, #%11100000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="P33" t="str">
+        <f>CONCATENATE(".db #$", C33, B33, ", #%", IF(E33="R", "0", "1"),  DEC2BIN(D33-1,2), VLOOKUP(F33, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G33, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$B0, #%11000100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="P34" t="str">
+        <f>CONCATENATE(".db #$", C34, B34, ", #%", IF(E34="R", "0", "1"),  DEC2BIN(D34-1,2), VLOOKUP(F34, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G34, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$C0, #%10100100</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="P35" t="str">
+        <f>CONCATENATE(".db #$", C35, B35, ", #%", IF(E35="R", "0", "1"),  DEC2BIN(D35-1,2), VLOOKUP(F35, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G35, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$D1, #%10100100</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>26</v>
+      </c>
+      <c r="P36" t="str">
+        <f>CONCATENATE(".db #$", C36, B36, ", #%", IF(E36="R", "0", "1"),  DEC2BIN(D36-1,2), VLOOKUP(F36, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G36, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$C4, #%00100100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="P37" t="str">
+        <f>CONCATENATE(".db #$", C37, B37, ", #%", IF(E37="R", "0", "1"),  DEC2BIN(D37-1,2), VLOOKUP(F37, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G37, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$C5, #%00000100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
+      <c r="P38" t="str">
+        <f>CONCATENATE(".db #$", C38, B38, ", #%", IF(E38="R", "0", "1"),  DEC2BIN(D38-1,2), VLOOKUP(F38, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G38, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$B7, #%01000100</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>26</v>
+      </c>
+      <c r="P39" t="str">
+        <f>CONCATENATE(".db #$", C39, B39, ", #%", IF(E39="R", "0", "1"),  DEC2BIN(D39-1,2), VLOOKUP(F39, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G39, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$B8, #%10100100</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>5</v>
+      </c>
+      <c r="P40" t="str">
+        <f>CONCATENATE(".db #$", C40, B40, ", #%", IF(E40="R", "0", "1"),  DEC2BIN(D40-1,2), VLOOKUP(F40, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G40, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$D9, #%00000101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA34367-0DD3-496D-9AFB-6A1C26D7B547}">
   <dimension ref="A1:R46"/>
   <sheetViews>
@@ -4160,7 +5218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95607103-04BF-4784-BA75-2F96C59BA088}">
   <dimension ref="A1:R36"/>
   <sheetViews>
@@ -5127,7 +6185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF527098-673A-4A1B-8A76-8C4E7A5D0D04}">
   <dimension ref="A1:R54"/>
   <sheetViews>
@@ -6592,7 +7650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D6449E-BDD8-47F1-8C6B-F5B8184718A5}">
   <dimension ref="A1:R34"/>
   <sheetViews>
@@ -7469,7 +8527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958BE4A9-309E-4C7D-91FC-23C963ACB11E}">
   <dimension ref="A1:R54"/>
   <sheetViews>
@@ -8910,7 +9968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34A01F3-D7DC-4E34-A82A-23F73A154FCC}">
   <dimension ref="A1:R72"/>
   <sheetViews>
@@ -10797,7 +11855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E412488F-3473-4AB3-985F-ED3230803FB7}">
   <dimension ref="A1:R37"/>
   <sheetViews>
@@ -11795,13 +12853,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D47B194-58CD-4B74-8F93-691E4DF25EA3}">
   <dimension ref="A1:R55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
+      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13326,7 +14384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEC0477-6F56-4B92-B5AE-3EF26F62000D}">
   <dimension ref="A1:R64"/>
   <sheetViews>
@@ -15084,1473 +16142,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF61D7D-E693-4D23-BB90-9B3E366E6A80}">
-  <dimension ref="A1:R55"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA56FFEF-F7C8-4860-BE54-456CF04E33C0}">
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P53" sqref="P53"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="26"/>
-    <col min="2" max="15" width="3.5546875" customWidth="1"/>
-    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="27">
-        <v>0</v>
-      </c>
-      <c r="C1" s="27">
-        <v>1</v>
-      </c>
-      <c r="D1" s="27">
-        <v>2</v>
-      </c>
-      <c r="E1" s="27">
-        <v>3</v>
-      </c>
-      <c r="F1" s="27">
-        <v>4</v>
-      </c>
-      <c r="G1" s="27">
-        <v>5</v>
-      </c>
-      <c r="H1" s="27">
-        <v>6</v>
-      </c>
-      <c r="I1" s="27">
-        <v>7</v>
-      </c>
-      <c r="J1" s="27">
-        <v>8</v>
-      </c>
-      <c r="K1" s="27">
-        <v>9</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28">
-        <v>0</v>
-      </c>
-      <c r="B2" s="219" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="270"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="139" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="338" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="139" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="262" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="339" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>85</v>
-      </c>
-      <c r="R2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28">
-        <v>1</v>
-      </c>
-      <c r="B3" s="340" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="287" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="6"/>
-    </row>
-    <row r="5" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28">
-        <v>3</v>
-      </c>
-      <c r="B5" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="152" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="140" t="s">
-        <v>5</v>
-      </c>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28">
-        <v>5</v>
-      </c>
-      <c r="B7" s="308" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28">
-        <v>6</v>
-      </c>
-      <c r="B8" s="247" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="334" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="335" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="334" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="335" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="341" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28">
-        <v>7</v>
-      </c>
-      <c r="B9" s="342" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="224" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="199" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="201" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="335" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="203" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="335" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="232" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="234" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="335" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="335" t="s">
-        <v>6</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="243" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28">
-        <v>8</v>
-      </c>
-      <c r="B10" s="343" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="336" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="158" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="252" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="224" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="204" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="336" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="186" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="203" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="224" t="s">
-        <v>6</v>
-      </c>
-      <c r="L10" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="336" t="s">
-        <v>6</v>
-      </c>
-      <c r="N10" s="189" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="344" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="28">
-        <v>9</v>
-      </c>
-      <c r="B11" s="345" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="346" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="347" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="348" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="268" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="265" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="349" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="266" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="218" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="268" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11" s="350" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11" s="351" t="s">
-        <v>4</v>
-      </c>
-      <c r="N11" s="352" t="s">
-        <v>4</v>
-      </c>
-      <c r="O11" s="353" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="97"/>
-      <c r="B13" s="98" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="98" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="98" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="98" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="98" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="98" t="s">
-        <v>13</v>
-      </c>
-      <c r="P13" s="98" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="120" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="P14" t="str">
-        <f>CONCATENATE(".db #$", C14, B14, ", #%", IF(E14="R", "0", "1"),  DEC2BIN(D14-1,2), VLOOKUP(F14, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G14, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$00, #%00010010</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="P15" t="str">
-        <f>CONCATENATE(".db #$", C15, B15, ", #%", IF(E15="R", "0", "1"),  DEC2BIN(D15-1,2), VLOOKUP(F15, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G15, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$40, #%00011010</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>2</v>
-      </c>
-      <c r="P16" t="str">
-        <f>CONCATENATE(".db #$", C16, B16, ", #%", IF(E16="R", "0", "1"),  DEC2BIN(D16-1,2), VLOOKUP(F16, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G16, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$50, #%00010001</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>7</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-      <c r="P17" t="str">
-        <f>CONCATENATE(".db #$", C17, B17, ", #%", IF(E17="R", "0", "1"),  DEC2BIN(D17-1,2), VLOOKUP(F17, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G17, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$70, #%00011010</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>8</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" t="str">
-        <f>CONCATENATE(".db #$", C18, B18, ", #%", IF(E18="R", "0", "1"),  DEC2BIN(D18-1,2), VLOOKUP(F18, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G18, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$80, #%00010000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P19" t="str">
-        <f>CONCATENATE(".db #$", C19, B19, ", #%", IF(E19="R", "0", "1"),  DEC2BIN(D19-1,2), VLOOKUP(F19, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G19, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$D0, #%00010011</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" t="str">
-        <f>CONCATENATE(".db #$", C20, B20, ", #%", IF(E20="R", "0", "1"),  DEC2BIN(D20-1,2), VLOOKUP(F20, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G20, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$01, #%00011010</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" t="str">
-        <f>CONCATENATE(".db #$", C21, B21, ", #%", IF(E21="R", "0", "1"),  DEC2BIN(D21-1,2), VLOOKUP(F21, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G21, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$22, #%00010101</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
-      <c r="P22" t="str">
-        <f>CONCATENATE(".db #$", C22, B22, ", #%", IF(E22="R", "0", "1"),  DEC2BIN(D22-1,2), VLOOKUP(F22, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G22, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$A2, #%00011010</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G23" t="s">
-        <v>26</v>
-      </c>
-      <c r="P23" t="str">
-        <f>CONCATENATE(".db #$", C23, B23, ", #%", IF(E23="R", "0", "1"),  DEC2BIN(D23-1,2), VLOOKUP(F23, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G23, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$B2, #%00010100</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-      <c r="E24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" t="s">
-        <v>34</v>
-      </c>
-      <c r="P24" t="str">
-        <f>CONCATENATE(".db #$", C24, B24, ", #%", IF(E24="R", "0", "1"),  DEC2BIN(D24-1,2), VLOOKUP(F24, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G24, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$03, #%01100111</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" t="s">
-        <v>34</v>
-      </c>
-      <c r="P25" t="str">
-        <f>CONCATENATE(".db #$", C25, B25, ", #%", IF(E25="R", "0", "1"),  DEC2BIN(D25-1,2), VLOOKUP(F25, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G25, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$43, #%01100111</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>8</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" t="s">
-        <v>34</v>
-      </c>
-      <c r="P26" t="str">
-        <f>CONCATENATE(".db #$", C26, B26, ", #%", IF(E26="R", "0", "1"),  DEC2BIN(D26-1,2), VLOOKUP(F26, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G26, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$83, #%01100111</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" t="s">
-        <v>2</v>
-      </c>
-      <c r="P27" t="str">
-        <f>CONCATENATE(".db #$", C27, B27, ", #%", IF(E27="R", "0", "1"),  DEC2BIN(D27-1,2), VLOOKUP(F27, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G27, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$24, #%00001001</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="C28">
-        <v>7</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" t="s">
-        <v>5</v>
-      </c>
-      <c r="P28" t="str">
-        <f>CONCATENATE(".db #$", C28, B28, ", #%", IF(E28="R", "0", "1"),  DEC2BIN(D28-1,2), VLOOKUP(F28, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G28, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$74, #%00001101</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" t="s">
-        <v>17</v>
-      </c>
-      <c r="P29" t="str">
-        <f>CONCATENATE(".db #$", C29, B29, ", #%", IF(E29="R", "0", "1"),  DEC2BIN(D29-1,2), VLOOKUP(F29, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G29, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$C4, #%00001010</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30">
-        <v>5</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" t="s">
-        <v>34</v>
-      </c>
-      <c r="P30" t="str">
-        <f>CONCATENATE(".db #$", C30, B30, ", #%", IF(E30="R", "0", "1"),  DEC2BIN(D30-1,2), VLOOKUP(F30, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G30, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$05, #%10100111</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31">
-        <v>5</v>
-      </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" t="s">
-        <v>34</v>
-      </c>
-      <c r="P31" t="str">
-        <f>CONCATENATE(".db #$", C31, B31, ", #%", IF(E31="R", "0", "1"),  DEC2BIN(D31-1,2), VLOOKUP(F31, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G31, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$45, #%00100111</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32">
-        <v>5</v>
-      </c>
-      <c r="C32">
-        <v>9</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" t="s">
-        <v>34</v>
-      </c>
-      <c r="P32" t="str">
-        <f>CONCATENATE(".db #$", C32, B32, ", #%", IF(E32="R", "0", "1"),  DEC2BIN(D32-1,2), VLOOKUP(F32, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G32, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$95, #%00100111</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B33">
-        <v>6</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="E33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" t="s">
-        <v>34</v>
-      </c>
-      <c r="P33" t="str">
-        <f>CONCATENATE(".db #$", C33, B33, ", #%", IF(E33="R", "0", "1"),  DEC2BIN(D33-1,2), VLOOKUP(F33, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G33, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$16, #%11000111</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34">
-        <v>6</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34">
-        <v>4</v>
-      </c>
-      <c r="E34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" t="s">
-        <v>34</v>
-      </c>
-      <c r="P34" t="str">
-        <f>CONCATENATE(".db #$", C34, B34, ", #%", IF(E34="R", "0", "1"),  DEC2BIN(D34-1,2), VLOOKUP(F34, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G34, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$36, #%01100111</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B35">
-        <v>6</v>
-      </c>
-      <c r="C35">
-        <v>8</v>
-      </c>
-      <c r="D35">
-        <v>4</v>
-      </c>
-      <c r="E35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" t="s">
-        <v>34</v>
-      </c>
-      <c r="P35" t="str">
-        <f>CONCATENATE(".db #$", C35, B35, ", #%", IF(E35="R", "0", "1"),  DEC2BIN(D35-1,2), VLOOKUP(F35, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G35, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$86, #%01100111</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B36">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" t="s">
-        <v>34</v>
-      </c>
-      <c r="P36" t="str">
-        <f>CONCATENATE(".db #$", C36, B36, ", #%", IF(E36="R", "0", "1"),  DEC2BIN(D36-1,2), VLOOKUP(F36, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G36, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$D6, #%00000111</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B37">
-        <v>7</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" t="s">
-        <v>25</v>
-      </c>
-      <c r="P37" t="str">
-        <f>CONCATENATE(".db #$", C37, B37, ", #%", IF(E37="R", "0", "1"),  DEC2BIN(D37-1,2), VLOOKUP(F37, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G37, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$07, #%10100011</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B38">
-        <v>7</v>
-      </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" t="s">
-        <v>25</v>
-      </c>
-      <c r="P38" t="str">
-        <f>CONCATENATE(".db #$", C38, B38, ", #%", IF(E38="R", "0", "1"),  DEC2BIN(D38-1,2), VLOOKUP(F38, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G38, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$27, #%00100011</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B39">
-        <v>7</v>
-      </c>
-      <c r="C39">
-        <v>4</v>
-      </c>
-      <c r="D39">
-        <v>3</v>
-      </c>
-      <c r="E39" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" t="s">
-        <v>34</v>
-      </c>
-      <c r="P39" t="str">
-        <f>CONCATENATE(".db #$", C39, B39, ", #%", IF(E39="R", "0", "1"),  DEC2BIN(D39-1,2), VLOOKUP(F39, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G39, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$47, #%11000111</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B40">
-        <v>7</v>
-      </c>
-      <c r="C40">
-        <v>5</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" t="s">
-        <v>4</v>
-      </c>
-      <c r="G40" t="s">
-        <v>4</v>
-      </c>
-      <c r="P40" t="str">
-        <f>CONCATENATE(".db #$", C40, B40, ", #%", IF(E40="R", "0", "1"),  DEC2BIN(D40-1,2), VLOOKUP(F40, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G40, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$57, #%10100000</v>
-      </c>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B41">
-        <v>7</v>
-      </c>
-      <c r="C41">
-        <v>6</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41" t="s">
-        <v>34</v>
-      </c>
-      <c r="P41" t="str">
-        <f>CONCATENATE(".db #$", C41, B41, ", #%", IF(E41="R", "0", "1"),  DEC2BIN(D41-1,2), VLOOKUP(F41, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G41, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$67, #%10100111</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B42">
-        <v>7</v>
-      </c>
-      <c r="C42">
-        <v>7</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" t="s">
-        <v>4</v>
-      </c>
-      <c r="P42" t="str">
-        <f>CONCATENATE(".db #$", C42, B42, ", #%", IF(E42="R", "0", "1"),  DEC2BIN(D42-1,2), VLOOKUP(F42, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G42, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$77, #%00100000</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B43">
-        <v>7</v>
-      </c>
-      <c r="C43">
-        <v>9</v>
-      </c>
-      <c r="D43">
-        <v>3</v>
-      </c>
-      <c r="E43" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G43" t="s">
-        <v>34</v>
-      </c>
-      <c r="P43" t="str">
-        <f>CONCATENATE(".db #$", C43, B43, ", #%", IF(E43="R", "0", "1"),  DEC2BIN(D43-1,2), VLOOKUP(F43, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G43, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$97, #%11000111</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B44">
-        <v>7</v>
-      </c>
-      <c r="C44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" t="s">
-        <v>26</v>
-      </c>
-      <c r="P44" t="str">
-        <f>CONCATENATE(".db #$", C44, B44, ", #%", IF(E44="R", "0", "1"),  DEC2BIN(D44-1,2), VLOOKUP(F44, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G44, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$A7, #%10100100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B45">
-        <v>7</v>
-      </c>
-      <c r="C45" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" t="s">
-        <v>6</v>
-      </c>
-      <c r="G45" t="s">
-        <v>34</v>
-      </c>
-      <c r="P45" t="str">
-        <f>CONCATENATE(".db #$", C45, B45, ", #%", IF(E45="R", "0", "1"),  DEC2BIN(D45-1,2), VLOOKUP(F45, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G45, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$B7, #%10100111</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B46">
-        <v>7</v>
-      </c>
-      <c r="C46" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" t="s">
-        <v>26</v>
-      </c>
-      <c r="P46" t="str">
-        <f>CONCATENATE(".db #$", C46, B46, ", #%", IF(E46="R", "0", "1"),  DEC2BIN(D46-1,2), VLOOKUP(F46, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G46, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$C7, #%00100100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B47">
-        <v>8</v>
-      </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" t="s">
-        <v>25</v>
-      </c>
-      <c r="P47" t="str">
-        <f>CONCATENATE(".db #$", C47, B47, ", #%", IF(E47="R", "0", "1"),  DEC2BIN(D47-1,2), VLOOKUP(F47, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G47, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$28, #%00001011</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B48">
-        <v>8</v>
-      </c>
-      <c r="C48">
-        <v>3</v>
-      </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-      <c r="E48" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" t="s">
-        <v>25</v>
-      </c>
-      <c r="P48" t="str">
-        <f>CONCATENATE(".db #$", C48, B48, ", #%", IF(E48="R", "0", "1"),  DEC2BIN(D48-1,2), VLOOKUP(F48, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G48, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$38, #%10100011</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B49">
-        <v>8</v>
-      </c>
-      <c r="C49">
-        <v>7</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" t="s">
-        <v>4</v>
-      </c>
-      <c r="P49" t="str">
-        <f>CONCATENATE(".db #$", C49, B49, ", #%", IF(E49="R", "0", "1"),  DEC2BIN(D49-1,2), VLOOKUP(F49, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G49, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$78, #%00001000</v>
-      </c>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B50">
-        <v>8</v>
-      </c>
-      <c r="C50">
-        <v>8</v>
-      </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-      <c r="E50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" t="s">
-        <v>4</v>
-      </c>
-      <c r="G50" t="s">
-        <v>4</v>
-      </c>
-      <c r="P50" t="str">
-        <f>CONCATENATE(".db #$", C50, B50, ", #%", IF(E50="R", "0", "1"),  DEC2BIN(D50-1,2), VLOOKUP(F50, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G50, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$88, #%10100000</v>
-      </c>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B51">
-        <v>8</v>
-      </c>
-      <c r="C51" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" t="s">
-        <v>5</v>
-      </c>
-      <c r="G51" t="s">
-        <v>26</v>
-      </c>
-      <c r="P51" t="str">
-        <f>CONCATENATE(".db #$", C51, B51, ", #%", IF(E51="R", "0", "1"),  DEC2BIN(D51-1,2), VLOOKUP(F51, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G51, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$C8, #%00001100</v>
-      </c>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B52">
-        <v>8</v>
-      </c>
-      <c r="C52" t="s">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
-      <c r="E52" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" t="s">
-        <v>26</v>
-      </c>
-      <c r="P52" t="str">
-        <f>CONCATENATE(".db #$", C52, B52, ", #%", IF(E52="R", "0", "1"),  DEC2BIN(D52-1,2), VLOOKUP(F52, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G52, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$D8, #%10100100</v>
-      </c>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B53">
-        <v>9</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>3</v>
-      </c>
-      <c r="E53" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" t="s">
-        <v>4</v>
-      </c>
-      <c r="G53" t="s">
-        <v>25</v>
-      </c>
-      <c r="P53" t="str">
-        <f>CONCATENATE(".db #$", C53, B53, ", #%", IF(E53="R", "0", "1"),  DEC2BIN(D53-1,2), VLOOKUP(F53, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G53, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$09, #%01000011</v>
-      </c>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B54">
-        <v>9</v>
-      </c>
-      <c r="C54">
-        <v>5</v>
-      </c>
-      <c r="D54">
-        <v>3</v>
-      </c>
-      <c r="E54" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54" t="s">
-        <v>4</v>
-      </c>
-      <c r="G54" t="s">
-        <v>4</v>
-      </c>
-      <c r="P54" t="str">
-        <f>CONCATENATE(".db #$", C54, B54, ", #%", IF(E54="R", "0", "1"),  DEC2BIN(D54-1,2), VLOOKUP(F54, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G54, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$59, #%01000000</v>
-      </c>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B55">
-        <v>9</v>
-      </c>
-      <c r="C55" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55">
-        <v>3</v>
-      </c>
-      <c r="E55" t="s">
-        <v>17</v>
-      </c>
-      <c r="F55" t="s">
-        <v>4</v>
-      </c>
-      <c r="G55" t="s">
-        <v>26</v>
-      </c>
-      <c r="P55" t="str">
-        <f>CONCATENATE(".db #$", C55, B55, ", #%", IF(E55="R", "0", "1"),  DEC2BIN(D55-1,2), VLOOKUP(F55, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G55, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$A9, #%01000100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BB428C-4651-4B9F-9821-E588F1484CFA}">
-  <dimension ref="A1:R26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16635,20 +16232,16 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="D3" s="395"/>
+      <c r="E3" s="395"/>
+      <c r="F3" s="395"/>
+      <c r="G3" s="395"/>
+      <c r="H3" s="395"/>
+      <c r="I3" s="395"/>
+      <c r="J3" s="395"/>
+      <c r="K3" s="395"/>
+      <c r="L3" s="395"/>
+      <c r="M3" s="395"/>
       <c r="N3" s="5"/>
       <c r="O3" s="6"/>
     </row>
@@ -16658,24 +16251,18 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="D4" s="395"/>
+      <c r="E4" s="395"/>
+      <c r="F4" s="395"/>
+      <c r="G4" s="395"/>
+      <c r="H4" s="395"/>
+      <c r="I4" s="395"/>
+      <c r="J4" s="395"/>
+      <c r="K4" s="396" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="395"/>
+      <c r="M4" s="395"/>
       <c r="N4" s="5"/>
       <c r="O4" s="6"/>
     </row>
@@ -16685,28 +16272,16 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="90" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="93" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="D5" s="395"/>
+      <c r="E5" s="395"/>
+      <c r="F5" s="395"/>
+      <c r="G5" s="395"/>
+      <c r="H5" s="395"/>
+      <c r="I5" s="395"/>
+      <c r="J5" s="395"/>
+      <c r="K5" s="395"/>
+      <c r="L5" s="395"/>
+      <c r="M5" s="395"/>
       <c r="N5" s="5"/>
       <c r="O5" s="6"/>
     </row>
@@ -16716,32 +16291,18 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5"/>
+      <c r="D6" s="395"/>
+      <c r="E6" s="395"/>
+      <c r="F6" s="395"/>
+      <c r="G6" s="395"/>
+      <c r="H6" s="129" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="395"/>
+      <c r="J6" s="395"/>
+      <c r="K6" s="395"/>
+      <c r="L6" s="395"/>
+      <c r="M6" s="395"/>
       <c r="N6" s="5"/>
       <c r="O6" s="6"/>
     </row>
@@ -16751,32 +16312,16 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5"/>
+      <c r="D7" s="395"/>
+      <c r="E7" s="395"/>
+      <c r="F7" s="395"/>
+      <c r="G7" s="395"/>
+      <c r="H7" s="395"/>
+      <c r="I7" s="395"/>
+      <c r="J7" s="395"/>
+      <c r="K7" s="395"/>
+      <c r="L7" s="395"/>
+      <c r="M7" s="395"/>
       <c r="N7" s="5"/>
       <c r="O7" s="6"/>
     </row>
@@ -16786,28 +16331,16 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="94" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="95" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="95" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="96" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="94" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="96" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="D8" s="395"/>
+      <c r="E8" s="395"/>
+      <c r="F8" s="395"/>
+      <c r="G8" s="395"/>
+      <c r="H8" s="395"/>
+      <c r="I8" s="395"/>
+      <c r="J8" s="395"/>
+      <c r="K8" s="395"/>
+      <c r="L8" s="395"/>
+      <c r="M8" s="395"/>
       <c r="N8" s="5"/>
       <c r="O8" s="6"/>
     </row>
@@ -16817,24 +16350,16 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="D9" s="395"/>
+      <c r="E9" s="395"/>
+      <c r="F9" s="395"/>
+      <c r="G9" s="395"/>
+      <c r="H9" s="395"/>
+      <c r="I9" s="395"/>
+      <c r="J9" s="395"/>
+      <c r="K9" s="395"/>
+      <c r="L9" s="395"/>
+      <c r="M9" s="395"/>
       <c r="N9" s="5"/>
       <c r="O9" s="6"/>
     </row>
@@ -16844,20 +16369,16 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="D10" s="395"/>
+      <c r="E10" s="395"/>
+      <c r="F10" s="395"/>
+      <c r="G10" s="395"/>
+      <c r="H10" s="395"/>
+      <c r="I10" s="395"/>
+      <c r="J10" s="395"/>
+      <c r="K10" s="395"/>
+      <c r="L10" s="395"/>
+      <c r="M10" s="395"/>
       <c r="N10" s="5"/>
       <c r="O10" s="6"/>
     </row>
@@ -16905,13 +16426,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>6</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
@@ -16924,295 +16445,7 @@
       </c>
       <c r="P14" t="str">
         <f>CONCATENATE(".db #$", C14, B14, ", #%", IF(E14="R", "0", "1"),  DEC2BIN(D14-1,2), VLOOKUP(F14, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G14, info!$K$5:$L$10, 2, FALSE))</f>
-        <v>.db #$61, #%00100001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" t="s">
-        <v>2</v>
-      </c>
-      <c r="P15" t="str">
-        <f>CONCATENATE(".db #$", C15, B15, ", #%", IF(E15="R", "0", "1"),  DEC2BIN(D15-1,2), VLOOKUP(F15, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G15, info!$K$5:$L$10, 2, FALSE))</f>
-        <v>.db #$52, #%01100001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" t="s">
-        <v>5</v>
-      </c>
-      <c r="P16" t="str">
-        <f>CONCATENATE(".db #$", C16, B16, ", #%", IF(E16="R", "0", "1"),  DEC2BIN(D16-1,2), VLOOKUP(F16, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G16, info!$K$5:$L$10, 2, FALSE))</f>
-        <v>.db #$43, #%01100101</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" t="str">
-        <f>CONCATENATE(".db #$", C17, B17, ", #%", IF(E17="R", "0", "1"),  DEC2BIN(D17-1,2), VLOOKUP(F17, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G17, info!$K$5:$L$10, 2, FALSE))</f>
-        <v>.db #$83, #%00000101</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>9</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" t="str">
-        <f>CONCATENATE(".db #$", C18, B18, ", #%", IF(E18="R", "0", "1"),  DEC2BIN(D18-1,2), VLOOKUP(F18, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G18, info!$K$5:$L$10, 2, FALSE))</f>
-        <v>.db #$93, #%00010101</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
-        <v>17</v>
-      </c>
-      <c r="P19" t="str">
-        <f>CONCATENATE(".db #$", C19, B19, ", #%", IF(E19="R", "0", "1"),  DEC2BIN(D19-1,2), VLOOKUP(F19, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G19, info!$K$5:$L$10, 2, FALSE))</f>
-        <v>.db #$34, #%01111010</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" t="str">
-        <f>CONCATENATE(".db #$", C20, B20, ", #%", IF(E20="R", "0", "1"),  DEC2BIN(D20-1,2), VLOOKUP(F20, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G20, info!$K$5:$L$10, 2, FALSE))</f>
-        <v>.db #$74, #%01111010</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>17</v>
-      </c>
-      <c r="P21" t="str">
-        <f>CONCATENATE(".db #$", C21, B21, ", #%", IF(E21="R", "0", "1"),  DEC2BIN(D21-1,2), VLOOKUP(F21, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G21, info!$K$5:$L$10, 2, FALSE))</f>
-        <v>.db #$35, #%01111010</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>7</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
-      <c r="P22" t="str">
-        <f>CONCATENATE(".db #$", C22, B22, ", #%", IF(E22="R", "0", "1"),  DEC2BIN(D22-1,2), VLOOKUP(F22, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G22, info!$K$5:$L$10, 2, FALSE))</f>
-        <v>.db #$75, #%01111010</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23">
-        <v>4</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" t="str">
-        <f>CONCATENATE(".db #$", C23, B23, ", #%", IF(E23="R", "0", "1"),  DEC2BIN(D23-1,2), VLOOKUP(F23, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G23, info!$K$5:$L$10, 2, FALSE))</f>
-        <v>.db #$46, #%01100101</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <v>8</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" t="str">
-        <f>CONCATENATE(".db #$", C24, B24, ", #%", IF(E24="R", "0", "1"),  DEC2BIN(D24-1,2), VLOOKUP(F24, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G24, info!$K$5:$L$10, 2, FALSE))</f>
-        <v>.db #$86, #%00100101</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25">
-        <v>7</v>
-      </c>
-      <c r="C25">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" t="s">
-        <v>2</v>
-      </c>
-      <c r="P25" t="str">
-        <f>CONCATENATE(".db #$", C25, B25, ", #%", IF(E25="R", "0", "1"),  DEC2BIN(D25-1,2), VLOOKUP(F25, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G25, info!$K$5:$L$10, 2, FALSE))</f>
-        <v>.db #$57, #%01100001</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>8</v>
-      </c>
-      <c r="C26">
-        <v>6</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" t="s">
-        <v>2</v>
-      </c>
-      <c r="P26" t="str">
-        <f>CONCATENATE(".db #$", C26, B26, ", #%", IF(E26="R", "0", "1"),  DEC2BIN(D26-1,2), VLOOKUP(F26, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G26, info!$K$5:$L$10, 2, FALSE))</f>
-        <v>.db #$68, #%00100001</v>
+        <v>.db #$64, #%00000001</v>
       </c>
     </row>
   </sheetData>
@@ -17221,6 +16454,1467 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF61D7D-E693-4D23-BB90-9B3E366E6A80}">
+  <dimension ref="A1:R55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="13" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P53" sqref="P53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="26"/>
+    <col min="2" max="15" width="3.5546875" customWidth="1"/>
+    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="27">
+        <v>0</v>
+      </c>
+      <c r="C1" s="27">
+        <v>1</v>
+      </c>
+      <c r="D1" s="27">
+        <v>2</v>
+      </c>
+      <c r="E1" s="27">
+        <v>3</v>
+      </c>
+      <c r="F1" s="27">
+        <v>4</v>
+      </c>
+      <c r="G1" s="27">
+        <v>5</v>
+      </c>
+      <c r="H1" s="27">
+        <v>6</v>
+      </c>
+      <c r="I1" s="27">
+        <v>7</v>
+      </c>
+      <c r="J1" s="27">
+        <v>8</v>
+      </c>
+      <c r="K1" s="27">
+        <v>9</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28">
+        <v>0</v>
+      </c>
+      <c r="B2" s="219" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="270"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="338" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="262" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="339" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>85</v>
+      </c>
+      <c r="R2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28">
+        <v>1</v>
+      </c>
+      <c r="B3" s="340" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="287" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28">
+        <v>3</v>
+      </c>
+      <c r="B5" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="152" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="140" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28">
+        <v>5</v>
+      </c>
+      <c r="B7" s="308" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28">
+        <v>6</v>
+      </c>
+      <c r="B8" s="247" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="334" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="335" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="334" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="335" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="341" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28">
+        <v>7</v>
+      </c>
+      <c r="B9" s="342" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="224" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="199" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="201" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="335" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="203" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="335" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="232" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="234" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="335" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="335" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="243" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28">
+        <v>8</v>
+      </c>
+      <c r="B10" s="343" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="336" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="158" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="252" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="224" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="204" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="336" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="186" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="203" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="224" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="336" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="189" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="344" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="28">
+        <v>9</v>
+      </c>
+      <c r="B11" s="345" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="346" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="347" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="348" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="268" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="265" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="349" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="266" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="218" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="268" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="350" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="351" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="352" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="353" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="98" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="97"/>
+      <c r="B13" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="98" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" s="98" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" t="str">
+        <f>CONCATENATE(".db #$", C14, B14, ", #%", IF(E14="R", "0", "1"),  DEC2BIN(D14-1,2), VLOOKUP(F14, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G14, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$00, #%00010010</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="120" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" t="str">
+        <f>CONCATENATE(".db #$", C15, B15, ", #%", IF(E15="R", "0", "1"),  DEC2BIN(D15-1,2), VLOOKUP(F15, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G15, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$40, #%00011010</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" t="str">
+        <f>CONCATENATE(".db #$", C16, B16, ", #%", IF(E16="R", "0", "1"),  DEC2BIN(D16-1,2), VLOOKUP(F16, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G16, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$50, #%00010001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" t="str">
+        <f>CONCATENATE(".db #$", C17, B17, ", #%", IF(E17="R", "0", "1"),  DEC2BIN(D17-1,2), VLOOKUP(F17, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G17, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$70, #%00011010</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" t="str">
+        <f>CONCATENATE(".db #$", C18, B18, ", #%", IF(E18="R", "0", "1"),  DEC2BIN(D18-1,2), VLOOKUP(F18, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G18, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$80, #%00010000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" t="str">
+        <f>CONCATENATE(".db #$", C19, B19, ", #%", IF(E19="R", "0", "1"),  DEC2BIN(D19-1,2), VLOOKUP(F19, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G19, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$D0, #%00010011</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="P20" t="str">
+        <f>CONCATENATE(".db #$", C20, B20, ", #%", IF(E20="R", "0", "1"),  DEC2BIN(D20-1,2), VLOOKUP(F20, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G20, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$01, #%00011010</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" t="str">
+        <f>CONCATENATE(".db #$", C21, B21, ", #%", IF(E21="R", "0", "1"),  DEC2BIN(D21-1,2), VLOOKUP(F21, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G21, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$22, #%00010101</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" t="str">
+        <f>CONCATENATE(".db #$", C22, B22, ", #%", IF(E22="R", "0", "1"),  DEC2BIN(D22-1,2), VLOOKUP(F22, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G22, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$A2, #%00011010</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23" t="str">
+        <f>CONCATENATE(".db #$", C23, B23, ", #%", IF(E23="R", "0", "1"),  DEC2BIN(D23-1,2), VLOOKUP(F23, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G23, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$B2, #%00010100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+      <c r="P24" t="str">
+        <f>CONCATENATE(".db #$", C24, B24, ", #%", IF(E24="R", "0", "1"),  DEC2BIN(D24-1,2), VLOOKUP(F24, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G24, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$03, #%01100111</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+      <c r="P25" t="str">
+        <f>CONCATENATE(".db #$", C25, B25, ", #%", IF(E25="R", "0", "1"),  DEC2BIN(D25-1,2), VLOOKUP(F25, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G25, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$43, #%01100111</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" t="s">
+        <v>34</v>
+      </c>
+      <c r="P26" t="str">
+        <f>CONCATENATE(".db #$", C26, B26, ", #%", IF(E26="R", "0", "1"),  DEC2BIN(D26-1,2), VLOOKUP(F26, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G26, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$83, #%01100111</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2</v>
+      </c>
+      <c r="P27" t="str">
+        <f>CONCATENATE(".db #$", C27, B27, ", #%", IF(E27="R", "0", "1"),  DEC2BIN(D27-1,2), VLOOKUP(F27, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G27, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$24, #%00001001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>5</v>
+      </c>
+      <c r="P28" t="str">
+        <f>CONCATENATE(".db #$", C28, B28, ", #%", IF(E28="R", "0", "1"),  DEC2BIN(D28-1,2), VLOOKUP(F28, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G28, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$74, #%00001101</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="P29" t="str">
+        <f>CONCATENATE(".db #$", C29, B29, ", #%", IF(E29="R", "0", "1"),  DEC2BIN(D29-1,2), VLOOKUP(F29, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G29, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$C4, #%00001010</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30" t="str">
+        <f>CONCATENATE(".db #$", C30, B30, ", #%", IF(E30="R", "0", "1"),  DEC2BIN(D30-1,2), VLOOKUP(F30, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G30, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$05, #%10100111</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>34</v>
+      </c>
+      <c r="P31" t="str">
+        <f>CONCATENATE(".db #$", C31, B31, ", #%", IF(E31="R", "0", "1"),  DEC2BIN(D31-1,2), VLOOKUP(F31, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G31, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$45, #%00100111</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
+        <v>34</v>
+      </c>
+      <c r="P32" t="str">
+        <f>CONCATENATE(".db #$", C32, B32, ", #%", IF(E32="R", "0", "1"),  DEC2BIN(D32-1,2), VLOOKUP(F32, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G32, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$95, #%00100111</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>34</v>
+      </c>
+      <c r="P33" t="str">
+        <f>CONCATENATE(".db #$", C33, B33, ", #%", IF(E33="R", "0", "1"),  DEC2BIN(D33-1,2), VLOOKUP(F33, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G33, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$16, #%11000111</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>34</v>
+      </c>
+      <c r="P34" t="str">
+        <f>CONCATENATE(".db #$", C34, B34, ", #%", IF(E34="R", "0", "1"),  DEC2BIN(D34-1,2), VLOOKUP(F34, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G34, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$36, #%01100111</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" t="s">
+        <v>34</v>
+      </c>
+      <c r="P35" t="str">
+        <f>CONCATENATE(".db #$", C35, B35, ", #%", IF(E35="R", "0", "1"),  DEC2BIN(D35-1,2), VLOOKUP(F35, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G35, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$86, #%01100111</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" t="s">
+        <v>34</v>
+      </c>
+      <c r="P36" t="str">
+        <f>CONCATENATE(".db #$", C36, B36, ", #%", IF(E36="R", "0", "1"),  DEC2BIN(D36-1,2), VLOOKUP(F36, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G36, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$D6, #%00000111</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>25</v>
+      </c>
+      <c r="P37" t="str">
+        <f>CONCATENATE(".db #$", C37, B37, ", #%", IF(E37="R", "0", "1"),  DEC2BIN(D37-1,2), VLOOKUP(F37, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G37, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$07, #%10100011</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>25</v>
+      </c>
+      <c r="P38" t="str">
+        <f>CONCATENATE(".db #$", C38, B38, ", #%", IF(E38="R", "0", "1"),  DEC2BIN(D38-1,2), VLOOKUP(F38, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G38, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$27, #%00100011</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" t="s">
+        <v>34</v>
+      </c>
+      <c r="P39" t="str">
+        <f>CONCATENATE(".db #$", C39, B39, ", #%", IF(E39="R", "0", "1"),  DEC2BIN(D39-1,2), VLOOKUP(F39, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G39, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$47, #%11000111</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>4</v>
+      </c>
+      <c r="P40" t="str">
+        <f>CONCATENATE(".db #$", C40, B40, ", #%", IF(E40="R", "0", "1"),  DEC2BIN(D40-1,2), VLOOKUP(F40, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G40, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$57, #%10100000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" t="s">
+        <v>34</v>
+      </c>
+      <c r="P41" t="str">
+        <f>CONCATENATE(".db #$", C41, B41, ", #%", IF(E41="R", "0", "1"),  DEC2BIN(D41-1,2), VLOOKUP(F41, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G41, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$67, #%10100111</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" t="s">
+        <v>4</v>
+      </c>
+      <c r="P42" t="str">
+        <f>CONCATENATE(".db #$", C42, B42, ", #%", IF(E42="R", "0", "1"),  DEC2BIN(D42-1,2), VLOOKUP(F42, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G42, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$77, #%00100000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>34</v>
+      </c>
+      <c r="P43" t="str">
+        <f>CONCATENATE(".db #$", C43, B43, ", #%", IF(E43="R", "0", "1"),  DEC2BIN(D43-1,2), VLOOKUP(F43, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G43, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$97, #%11000111</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" t="s">
+        <v>26</v>
+      </c>
+      <c r="P44" t="str">
+        <f>CONCATENATE(".db #$", C44, B44, ", #%", IF(E44="R", "0", "1"),  DEC2BIN(D44-1,2), VLOOKUP(F44, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G44, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$A7, #%10100100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>34</v>
+      </c>
+      <c r="P45" t="str">
+        <f>CONCATENATE(".db #$", C45, B45, ", #%", IF(E45="R", "0", "1"),  DEC2BIN(D45-1,2), VLOOKUP(F45, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G45, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$B7, #%10100111</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+      <c r="P46" t="str">
+        <f>CONCATENATE(".db #$", C46, B46, ", #%", IF(E46="R", "0", "1"),  DEC2BIN(D46-1,2), VLOOKUP(F46, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G46, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$C7, #%00100100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>25</v>
+      </c>
+      <c r="P47" t="str">
+        <f>CONCATENATE(".db #$", C47, B47, ", #%", IF(E47="R", "0", "1"),  DEC2BIN(D47-1,2), VLOOKUP(F47, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G47, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$28, #%00001011</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" t="s">
+        <v>25</v>
+      </c>
+      <c r="P48" t="str">
+        <f>CONCATENATE(".db #$", C48, B48, ", #%", IF(E48="R", "0", "1"),  DEC2BIN(D48-1,2), VLOOKUP(F48, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G48, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$38, #%10100011</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" t="str">
+        <f>CONCATENATE(".db #$", C49, B49, ", #%", IF(E49="R", "0", "1"),  DEC2BIN(D49-1,2), VLOOKUP(F49, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G49, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$78, #%00001000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>8</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" t="s">
+        <v>4</v>
+      </c>
+      <c r="P50" t="str">
+        <f>CONCATENATE(".db #$", C50, B50, ", #%", IF(E50="R", "0", "1"),  DEC2BIN(D50-1,2), VLOOKUP(F50, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G50, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$88, #%10100000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>26</v>
+      </c>
+      <c r="P51" t="str">
+        <f>CONCATENATE(".db #$", C51, B51, ", #%", IF(E51="R", "0", "1"),  DEC2BIN(D51-1,2), VLOOKUP(F51, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G51, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$C8, #%00001100</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" t="s">
+        <v>26</v>
+      </c>
+      <c r="P52" t="str">
+        <f>CONCATENATE(".db #$", C52, B52, ", #%", IF(E52="R", "0", "1"),  DEC2BIN(D52-1,2), VLOOKUP(F52, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G52, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$D8, #%10100100</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53" t="s">
+        <v>25</v>
+      </c>
+      <c r="P53" t="str">
+        <f>CONCATENATE(".db #$", C53, B53, ", #%", IF(E53="R", "0", "1"),  DEC2BIN(D53-1,2), VLOOKUP(F53, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G53, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$09, #%01000011</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" t="s">
+        <v>4</v>
+      </c>
+      <c r="P54" t="str">
+        <f>CONCATENATE(".db #$", C54, B54, ", #%", IF(E54="R", "0", "1"),  DEC2BIN(D54-1,2), VLOOKUP(F54, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G54, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$59, #%01000000</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" t="s">
+        <v>26</v>
+      </c>
+      <c r="P55" t="str">
+        <f>CONCATENATE(".db #$", C55, B55, ", #%", IF(E55="R", "0", "1"),  DEC2BIN(D55-1,2), VLOOKUP(F55, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G55, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$A9, #%01000100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C584C17-5D85-4A42-8289-140BE6429751}">
   <dimension ref="A1:R44"/>
   <sheetViews>
@@ -18405,7 +19099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954F8C7E-D2C9-42C9-982A-F434FE05BA10}">
   <dimension ref="A1:R50"/>
   <sheetViews>
@@ -19738,7 +20432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB95A08-C8AC-4FCE-9CBF-7EAEE5C051C6}">
   <dimension ref="A1:R43"/>
   <sheetViews>
@@ -20917,7 +21611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5339609B-E397-403B-9964-51D2C8EDAB57}">
   <dimension ref="A1:R35"/>
   <sheetViews>
@@ -21820,7 +22514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C514E0-2A7A-4C59-9D16-0A9764F0577F}">
   <dimension ref="A1:R50"/>
   <sheetViews>
@@ -23221,7 +23915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35F5C92-4DA4-4EF6-8D87-E3F20A791828}">
   <dimension ref="A1:R47"/>
   <sheetViews>
@@ -24450,7 +25144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA7A603-CC48-437E-96AE-32348CDF5D91}">
   <dimension ref="A1:R36"/>
   <sheetViews>
@@ -25397,7 +26091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95440412-A2B7-43E5-A6C1-1A36CF91A08F}">
   <dimension ref="A1:R14"/>
   <sheetViews>
@@ -25686,6 +26380,681 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BB428C-4651-4B9F-9821-E588F1484CFA}">
+  <dimension ref="A1:R26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="26"/>
+    <col min="2" max="15" width="3.5546875" customWidth="1"/>
+    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="27">
+        <v>0</v>
+      </c>
+      <c r="C1" s="27">
+        <v>1</v>
+      </c>
+      <c r="D1" s="27">
+        <v>2</v>
+      </c>
+      <c r="E1" s="27">
+        <v>3</v>
+      </c>
+      <c r="F1" s="27">
+        <v>4</v>
+      </c>
+      <c r="G1" s="27">
+        <v>5</v>
+      </c>
+      <c r="H1" s="27">
+        <v>6</v>
+      </c>
+      <c r="I1" s="27">
+        <v>7</v>
+      </c>
+      <c r="J1" s="27">
+        <v>8</v>
+      </c>
+      <c r="K1" s="27">
+        <v>9</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="3"/>
+      <c r="Q2">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:18" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="28">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" t="str">
+        <f>CONCATENATE(".db #$", C14, B14, ", #%", IF(E14="R", "0", "1"),  DEC2BIN(D14-1,2), VLOOKUP(F14, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G14, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$61, #%00100001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" t="str">
+        <f>CONCATENATE(".db #$", C15, B15, ", #%", IF(E15="R", "0", "1"),  DEC2BIN(D15-1,2), VLOOKUP(F15, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G15, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$52, #%01100001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16" t="str">
+        <f>CONCATENATE(".db #$", C16, B16, ", #%", IF(E16="R", "0", "1"),  DEC2BIN(D16-1,2), VLOOKUP(F16, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G16, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$43, #%01100101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" t="str">
+        <f>CONCATENATE(".db #$", C17, B17, ", #%", IF(E17="R", "0", "1"),  DEC2BIN(D17-1,2), VLOOKUP(F17, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G17, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$83, #%00000101</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" t="str">
+        <f>CONCATENATE(".db #$", C18, B18, ", #%", IF(E18="R", "0", "1"),  DEC2BIN(D18-1,2), VLOOKUP(F18, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G18, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$93, #%00010101</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" t="str">
+        <f>CONCATENATE(".db #$", C19, B19, ", #%", IF(E19="R", "0", "1"),  DEC2BIN(D19-1,2), VLOOKUP(F19, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G19, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$34, #%01111010</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="P20" t="str">
+        <f>CONCATENATE(".db #$", C20, B20, ", #%", IF(E20="R", "0", "1"),  DEC2BIN(D20-1,2), VLOOKUP(F20, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G20, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$74, #%01111010</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P21" t="str">
+        <f>CONCATENATE(".db #$", C21, B21, ", #%", IF(E21="R", "0", "1"),  DEC2BIN(D21-1,2), VLOOKUP(F21, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G21, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$35, #%01111010</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" t="str">
+        <f>CONCATENATE(".db #$", C22, B22, ", #%", IF(E22="R", "0", "1"),  DEC2BIN(D22-1,2), VLOOKUP(F22, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G22, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$75, #%01111010</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" t="str">
+        <f>CONCATENATE(".db #$", C23, B23, ", #%", IF(E23="R", "0", "1"),  DEC2BIN(D23-1,2), VLOOKUP(F23, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G23, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$46, #%01100101</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" t="str">
+        <f>CONCATENATE(".db #$", C24, B24, ", #%", IF(E24="R", "0", "1"),  DEC2BIN(D24-1,2), VLOOKUP(F24, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G24, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$86, #%00100101</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2</v>
+      </c>
+      <c r="P25" t="str">
+        <f>CONCATENATE(".db #$", C25, B25, ", #%", IF(E25="R", "0", "1"),  DEC2BIN(D25-1,2), VLOOKUP(F25, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G25, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$57, #%01100001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2</v>
+      </c>
+      <c r="P26" t="str">
+        <f>CONCATENATE(".db #$", C26, B26, ", #%", IF(E26="R", "0", "1"),  DEC2BIN(D26-1,2), VLOOKUP(F26, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G26, info!$K$5:$L$10, 2, FALSE))</f>
+        <v>.db #$68, #%00100001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8571E8-FA34-41DE-BC66-C61EF0B5623D}">
   <dimension ref="A1:R39"/>
   <sheetViews>
@@ -26739,7 +28108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E35EF46-67B8-499F-B9E0-27377CC93102}">
   <dimension ref="A1:R38"/>
   <sheetViews>
@@ -27756,7 +29125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56001BB1-134F-4FB8-9820-264E03445175}">
   <dimension ref="A1:R69"/>
   <sheetViews>
@@ -29672,7 +31041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40473695-A78C-4DC7-A5B4-10BE21732FF8}">
   <dimension ref="A1:R42"/>
   <sheetViews>
@@ -30799,7 +32168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F870BE-8F28-4174-82BA-CDACBB3B788B}">
   <dimension ref="A1:R81"/>
   <sheetViews>
@@ -32866,7 +34235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E74543B-0EF5-4872-B40B-688829014A48}">
   <dimension ref="A1:R45"/>
   <sheetViews>
@@ -34029,1055 +35398,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B8D1FD-3DF4-4DF8-93C7-D5B3E4AB11C5}">
-  <dimension ref="A1:R40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="26"/>
-    <col min="2" max="15" width="3.5546875" customWidth="1"/>
-    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="27">
-        <v>0</v>
-      </c>
-      <c r="C1" s="27">
-        <v>1</v>
-      </c>
-      <c r="D1" s="27">
-        <v>2</v>
-      </c>
-      <c r="E1" s="27">
-        <v>3</v>
-      </c>
-      <c r="F1" s="27">
-        <v>4</v>
-      </c>
-      <c r="G1" s="27">
-        <v>5</v>
-      </c>
-      <c r="H1" s="27">
-        <v>6</v>
-      </c>
-      <c r="I1" s="27">
-        <v>7</v>
-      </c>
-      <c r="J1" s="27">
-        <v>8</v>
-      </c>
-      <c r="K1" s="27">
-        <v>9</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="208" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="188" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="188" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="209" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q2">
-        <v>55</v>
-      </c>
-      <c r="R2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="152" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="198" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="189" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="189" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" s="210" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="193" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="195" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="196" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="196" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="197" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="189" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" s="203" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" s="210" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="193" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="192" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="192" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="203" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" s="205" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="211" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="194" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="193" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="193" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="206" t="s">
-        <v>4</v>
-      </c>
-      <c r="N6" s="189" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6" s="190" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28">
-        <v>5</v>
-      </c>
-      <c r="B7" s="212" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="194" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="193" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="206" t="s">
-        <v>4</v>
-      </c>
-      <c r="N7" s="189" t="s">
-        <v>4</v>
-      </c>
-      <c r="O7" s="213" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="194" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="207" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="203" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="187" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28">
-        <v>7</v>
-      </c>
-      <c r="B9" s="214" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="200" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="200" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="201" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="189" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="190" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="93" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="189" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="206" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="215" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="28">
-        <v>9</v>
-      </c>
-      <c r="B11" s="216" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="217" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="149" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="191" t="s">
-        <v>4</v>
-      </c>
-      <c r="N11" s="218" t="s">
-        <v>4</v>
-      </c>
-      <c r="O11" s="185" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="97"/>
-      <c r="B13" s="98" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="98" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="98" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="98" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="98" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="98" t="s">
-        <v>13</v>
-      </c>
-      <c r="P13" s="98" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" t="str">
-        <f>CONCATENATE(".db #$", C14, B14, ", #%", IF(E14="R", "0", "1"),  DEC2BIN(D14-1,2), VLOOKUP(F14, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G14, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$40, #%10110101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" t="str">
-        <f>CONCATENATE(".db #$", C15, B15, ", #%", IF(E15="R", "0", "1"),  DEC2BIN(D15-1,2), VLOOKUP(F15, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G15, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$31, #%00001101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>6</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>4</v>
-      </c>
-      <c r="P16" t="str">
-        <f>CONCATENATE(".db #$", C16, B16, ", #%", IF(E16="R", "0", "1"),  DEC2BIN(D16-1,2), VLOOKUP(F16, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G16, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$61, #%00010000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
-      <c r="P17" t="str">
-        <f>CONCATENATE(".db #$", C17, B17, ", #%", IF(E17="R", "0", "1"),  DEC2BIN(D17-1,2), VLOOKUP(F17, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G17, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$42, #%11000111</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
-      <c r="P18" t="str">
-        <f>CONCATENATE(".db #$", C18, B18, ", #%", IF(E18="R", "0", "1"),  DEC2BIN(D18-1,2), VLOOKUP(F18, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G18, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$52, #%01100111</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>6</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
-      <c r="P19" t="str">
-        <f>CONCATENATE(".db #$", C19, B19, ", #%", IF(E19="R", "0", "1"),  DEC2BIN(D19-1,2), VLOOKUP(F19, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G19, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$63, #%11000111</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>8</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" t="s">
-        <v>34</v>
-      </c>
-      <c r="P20" t="str">
-        <f>CONCATENATE(".db #$", C20, B20, ", #%", IF(E20="R", "0", "1"),  DEC2BIN(D20-1,2), VLOOKUP(F20, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G20, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$83, #%11100111</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" t="s">
-        <v>34</v>
-      </c>
-      <c r="P21" t="str">
-        <f>CONCATENATE(".db #$", C21, B21, ", #%", IF(E21="R", "0", "1"),  DEC2BIN(D21-1,2), VLOOKUP(F21, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G21, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$05, #%00000111</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
-      <c r="P22" t="str">
-        <f>CONCATENATE(".db #$", C22, B22, ", #%", IF(E22="R", "0", "1"),  DEC2BIN(D22-1,2), VLOOKUP(F22, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G22, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$15, #%00111010</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23">
-        <v>7</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" t="s">
-        <v>25</v>
-      </c>
-      <c r="P23" t="str">
-        <f>CONCATENATE(".db #$", C23, B23, ", #%", IF(E23="R", "0", "1"),  DEC2BIN(D23-1,2), VLOOKUP(F23, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G23, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$07, #%01100011</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24">
-        <v>7</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24" t="s">
-        <v>25</v>
-      </c>
-      <c r="P24" t="str">
-        <f>CONCATENATE(".db #$", C24, B24, ", #%", IF(E24="R", "0", "1"),  DEC2BIN(D24-1,2), VLOOKUP(F24, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G24, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$27, #%00010011</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25">
-        <v>8</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" t="s">
-        <v>5</v>
-      </c>
-      <c r="P25" t="str">
-        <f>CONCATENATE(".db #$", C25, B25, ", #%", IF(E25="R", "0", "1"),  DEC2BIN(D25-1,2), VLOOKUP(F25, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G25, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$38, #%10100101</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>9</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26" t="s">
-        <v>26</v>
-      </c>
-      <c r="P26" t="str">
-        <f>CONCATENATE(".db #$", C26, B26, ", #%", IF(E26="R", "0", "1"),  DEC2BIN(D26-1,2), VLOOKUP(F26, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G26, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$09, #%00010100</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27">
-        <v>9</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P27" t="str">
-        <f>CONCATENATE(".db #$", C27, B27, ", #%", IF(E27="R", "0", "1"),  DEC2BIN(D27-1,2), VLOOKUP(F27, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G27, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$19, #%00000101</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" t="s">
-        <v>4</v>
-      </c>
-      <c r="P28" t="str">
-        <f>CONCATENATE(".db #$", C28, B28, ", #%", IF(E28="R", "0", "1"),  DEC2BIN(D28-1,2), VLOOKUP(F28, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G28, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$D0, #%11100000</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" t="s">
-        <v>4</v>
-      </c>
-      <c r="P29" t="str">
-        <f>CONCATENATE(".db #$", C29, B29, ", #%", IF(E29="R", "0", "1"),  DEC2BIN(D29-1,2), VLOOKUP(F29, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G29, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$C2, #%10100000</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <v>4</v>
-      </c>
-      <c r="E30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P30" t="str">
-        <f>CONCATENATE(".db #$", C30, B30, ", #%", IF(E30="R", "0", "1"),  DEC2BIN(D30-1,2), VLOOKUP(F30, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G30, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$B3, #%11100000</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31">
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
-      <c r="E31" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" t="s">
-        <v>4</v>
-      </c>
-      <c r="P31" t="str">
-        <f>CONCATENATE(".db #$", C31, B31, ", #%", IF(E31="R", "0", "1"),  DEC2BIN(D31-1,2), VLOOKUP(F31, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G31, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$D5, #%11100000</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32">
-        <v>4</v>
-      </c>
-      <c r="E32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" t="str">
-        <f>CONCATENATE(".db #$", C32, B32, ", #%", IF(E32="R", "0", "1"),  DEC2BIN(D32-1,2), VLOOKUP(F32, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G32, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$C6, #%11100000</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="E33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" t="s">
-        <v>26</v>
-      </c>
-      <c r="P33" t="str">
-        <f>CONCATENATE(".db #$", C33, B33, ", #%", IF(E33="R", "0", "1"),  DEC2BIN(D33-1,2), VLOOKUP(F33, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G33, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$B0, #%11000100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" t="s">
-        <v>26</v>
-      </c>
-      <c r="P34" t="str">
-        <f>CONCATENATE(".db #$", C34, B34, ", #%", IF(E34="R", "0", "1"),  DEC2BIN(D34-1,2), VLOOKUP(F34, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G34, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$C0, #%10100100</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" t="s">
-        <v>26</v>
-      </c>
-      <c r="P35" t="str">
-        <f>CONCATENATE(".db #$", C35, B35, ", #%", IF(E35="R", "0", "1"),  DEC2BIN(D35-1,2), VLOOKUP(F35, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G35, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$D1, #%10100100</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B36">
-        <v>4</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" t="s">
-        <v>26</v>
-      </c>
-      <c r="P36" t="str">
-        <f>CONCATENATE(".db #$", C36, B36, ", #%", IF(E36="R", "0", "1"),  DEC2BIN(D36-1,2), VLOOKUP(F36, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G36, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$C4, #%00100100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B37">
-        <v>5</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" t="s">
-        <v>26</v>
-      </c>
-      <c r="P37" t="str">
-        <f>CONCATENATE(".db #$", C37, B37, ", #%", IF(E37="R", "0", "1"),  DEC2BIN(D37-1,2), VLOOKUP(F37, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G37, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$C5, #%00000100</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B38">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
-      <c r="E38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" t="s">
-        <v>26</v>
-      </c>
-      <c r="P38" t="str">
-        <f>CONCATENATE(".db #$", C38, B38, ", #%", IF(E38="R", "0", "1"),  DEC2BIN(D38-1,2), VLOOKUP(F38, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G38, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$B7, #%01000100</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B39">
-        <v>8</v>
-      </c>
-      <c r="C39" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" t="s">
-        <v>4</v>
-      </c>
-      <c r="G39" t="s">
-        <v>26</v>
-      </c>
-      <c r="P39" t="str">
-        <f>CONCATENATE(".db #$", C39, B39, ", #%", IF(E39="R", "0", "1"),  DEC2BIN(D39-1,2), VLOOKUP(F39, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G39, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$B8, #%10100100</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B40">
-        <v>9</v>
-      </c>
-      <c r="C40" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" t="s">
-        <v>4</v>
-      </c>
-      <c r="G40" t="s">
-        <v>5</v>
-      </c>
-      <c r="P40" t="str">
-        <f>CONCATENATE(".db #$", C40, B40, ", #%", IF(E40="R", "0", "1"),  DEC2BIN(D40-1,2), VLOOKUP(F40, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G40, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$D9, #%00000101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ext_assets/LevelDesign.xlsx
+++ b/ext_assets/LevelDesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nesdev\repos\crillion-nes\crillion-nes\ext_assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27711D9-CD72-475E-AFCF-14AB2E166E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB1F136-E5E6-4297-825C-76217B5628EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E8D8F587-BDBE-423A-95AF-6E9B76766DB8}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5157" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5193" uniqueCount="36">
   <si>
     <t>D</t>
   </si>
@@ -243,7 +243,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,6 +319,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2234,16 +2240,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2586,10 +2592,10 @@
       <c r="B1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="393" t="s">
+      <c r="D1" s="394" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="394"/>
+      <c r="E1" s="395"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2">
@@ -16144,10 +16150,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA56FFEF-F7C8-4860-BE54-456CF04E33C0}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="P14" sqref="P14:P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16231,18 +16237,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="395"/>
-      <c r="E3" s="395"/>
-      <c r="F3" s="395"/>
-      <c r="G3" s="395"/>
-      <c r="H3" s="395"/>
-      <c r="I3" s="395"/>
-      <c r="J3" s="395"/>
-      <c r="K3" s="395"/>
-      <c r="L3" s="395"/>
-      <c r="M3" s="395"/>
-      <c r="N3" s="5"/>
+      <c r="C3" s="129" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="396" t="s">
+        <v>1</v>
+      </c>
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -16251,18 +16261,18 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="395"/>
-      <c r="E4" s="395"/>
-      <c r="F4" s="395"/>
-      <c r="G4" s="395"/>
-      <c r="H4" s="395"/>
-      <c r="I4" s="395"/>
-      <c r="J4" s="395"/>
-      <c r="K4" s="396" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="393" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="395"/>
-      <c r="M4" s="395"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="6"/>
     </row>
@@ -16271,17 +16281,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="395"/>
-      <c r="E5" s="395"/>
-      <c r="F5" s="395"/>
-      <c r="G5" s="395"/>
-      <c r="H5" s="395"/>
-      <c r="I5" s="395"/>
-      <c r="J5" s="395"/>
-      <c r="K5" s="395"/>
-      <c r="L5" s="395"/>
-      <c r="M5" s="395"/>
+      <c r="C5" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="6"/>
     </row>
@@ -16290,19 +16302,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="395"/>
-      <c r="E6" s="395"/>
-      <c r="F6" s="395"/>
-      <c r="G6" s="395"/>
+      <c r="C6" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="395"/>
-      <c r="J6" s="395"/>
-      <c r="K6" s="395"/>
-      <c r="L6" s="395"/>
-      <c r="M6" s="395"/>
+      <c r="I6" s="277" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="6"/>
     </row>
@@ -16311,17 +16326,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="395"/>
-      <c r="E7" s="395"/>
-      <c r="F7" s="395"/>
-      <c r="G7" s="395"/>
-      <c r="H7" s="395"/>
-      <c r="I7" s="395"/>
-      <c r="J7" s="395"/>
-      <c r="K7" s="395"/>
-      <c r="L7" s="395"/>
-      <c r="M7" s="395"/>
+      <c r="C7" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="6"/>
     </row>
@@ -16330,17 +16347,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="395"/>
-      <c r="E8" s="395"/>
-      <c r="F8" s="395"/>
-      <c r="G8" s="395"/>
-      <c r="H8" s="395"/>
-      <c r="I8" s="395"/>
-      <c r="J8" s="395"/>
-      <c r="K8" s="395"/>
-      <c r="L8" s="395"/>
-      <c r="M8" s="395"/>
+      <c r="C8" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="6"/>
     </row>
@@ -16350,16 +16369,16 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="395"/>
-      <c r="E9" s="395"/>
-      <c r="F9" s="395"/>
-      <c r="G9" s="395"/>
-      <c r="H9" s="395"/>
-      <c r="I9" s="395"/>
-      <c r="J9" s="395"/>
-      <c r="K9" s="395"/>
-      <c r="L9" s="395"/>
-      <c r="M9" s="395"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="6"/>
     </row>
@@ -16368,18 +16387,30 @@
         <v>8</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="395"/>
-      <c r="E10" s="395"/>
-      <c r="F10" s="395"/>
-      <c r="G10" s="395"/>
-      <c r="H10" s="395"/>
-      <c r="I10" s="395"/>
-      <c r="J10" s="395"/>
-      <c r="K10" s="395"/>
-      <c r="L10" s="395"/>
-      <c r="M10" s="395"/>
-      <c r="N10" s="5"/>
+      <c r="C10" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="396" t="s">
+        <v>5</v>
+      </c>
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:18" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -16432,20 +16463,188 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="P14" t="str">
-        <f>CONCATENATE(".db #$", C14, B14, ", #%", IF(E14="R", "0", "1"),  DEC2BIN(D14-1,2), VLOOKUP(F14, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G14, info!$K$5:$L$10, 2, FALSE))</f>
+        <f>CONCATENATE(".db #$", C14, B14, ", #%", IF(E14="R", "0", "1"),  DEC2BIN(D14-1,2), VLOOKUP(F14, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G14, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$64, #%00100111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" t="str">
+        <f>CONCATENATE(".db #$", C15, B15, ", #%", IF(E15="R", "0", "1"),  DEC2BIN(D15-1,2), VLOOKUP(F15, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G15, info!$K$5:$L$11, 2, FALSE))</f>
         <v>.db #$64, #%00000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" t="str">
+        <f>CONCATENATE(".db #$", C16, B16, ", #%", IF(E16="R", "0", "1"),  DEC2BIN(D16-1,2), VLOOKUP(F16, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G16, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$11, #%00010001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" t="str">
+        <f>CONCATENATE(".db #$", C17, B17, ", #%", IF(E17="R", "0", "1"),  DEC2BIN(D17-1,2), VLOOKUP(F17, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G17, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$C1, #%00010011</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" t="str">
+        <f>CONCATENATE(".db #$", C18, B18, ", #%", IF(E18="R", "0", "1"),  DEC2BIN(D18-1,2), VLOOKUP(F18, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G18, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$18, #%00011010</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" t="str">
+        <f>CONCATENATE(".db #$", C19, B19, ", #%", IF(E19="R", "0", "1"),  DEC2BIN(D19-1,2), VLOOKUP(F19, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G19, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$C8, #%00001011</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+      <c r="P20" t="str">
+        <f>CONCATENATE(".db #$", C20, B20, ", #%", IF(E20="R", "0", "1"),  DEC2BIN(D20-1,2), VLOOKUP(F20, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G20, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$13, #%11100111</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" t="str">
+        <f>CONCATENATE(".db #$", C21, B21, ", #%", IF(E21="R", "0", "1"),  DEC2BIN(D21-1,2), VLOOKUP(F21, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G21, info!$K$5:$L$11, 2, FALSE))</f>
+        <v>.db #$58, #%01100111</v>
       </c>
     </row>
   </sheetData>
@@ -26383,7 +26582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BB428C-4651-4B9F-9821-E588F1484CFA}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
@@ -27060,7 +27259,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomLeft" activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34240,7 +34439,7 @@
   <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="13" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P45" sqref="P14:P45"/>
     </sheetView>
   </sheetViews>

--- a/ext_assets/LevelDesign.xlsx
+++ b/ext_assets/LevelDesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nesdev\repos\crillion-nes\crillion-nes\ext_assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB1F136-E5E6-4297-825C-76217B5628EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E5538E-E7AC-4396-9101-14D6E6F1E8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E8D8F587-BDBE-423A-95AF-6E9B76766DB8}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5193" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5194" uniqueCount="36">
   <si>
     <t>D</t>
   </si>
@@ -2243,14 +2243,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2592,10 +2592,10 @@
       <c r="B1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="394" t="s">
+      <c r="D1" s="395" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="395"/>
+      <c r="E1" s="396"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2">
@@ -16250,7 +16250,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="396" t="s">
+      <c r="N3" s="394" t="s">
         <v>1</v>
       </c>
       <c r="O3" s="6"/>
@@ -16314,6 +16314,9 @@
       </c>
       <c r="I6" s="277" t="s">
         <v>6</v>
+      </c>
+      <c r="J6" s="129" t="s">
+        <v>4</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -16408,7 +16411,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="396" t="s">
+      <c r="N10" s="394" t="s">
         <v>5</v>
       </c>
       <c r="O10" s="6"/>
@@ -16463,20 +16466,20 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="P14" t="str">
         <f>CONCATENATE(".db #$", C14, B14, ", #%", IF(E14="R", "0", "1"),  DEC2BIN(D14-1,2), VLOOKUP(F14, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G14, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$64, #%00100111</v>
+        <v>.db #$64, #%01000001</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
@@ -16484,7 +16487,7 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -16493,14 +16496,14 @@
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="P15" t="str">
         <f>CONCATENATE(".db #$", C15, B15, ", #%", IF(E15="R", "0", "1"),  DEC2BIN(D15-1,2), VLOOKUP(F15, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G15, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$64, #%00000001</v>
+        <v>.db #$74, #%00000111</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">

--- a/ext_assets/LevelDesign.xlsx
+++ b/ext_assets/LevelDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nesdev\repos\crillion-nes\crillion-nes\ext_assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E5538E-E7AC-4396-9101-14D6E6F1E8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD03B2F-A3C7-4D0E-BD22-08E8DBC3E08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E8D8F587-BDBE-423A-95AF-6E9B76766DB8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="16" xr2:uid="{E8D8F587-BDBE-423A-95AF-6E9B76766DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="6" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5194" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5188" uniqueCount="36">
   <si>
     <t>D</t>
   </si>
@@ -1104,7 +1104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="397">
+  <cellXfs count="400">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1781,9 +1781,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2251,6 +2248,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2592,10 +2601,10 @@
       <c r="B1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="395" t="s">
+      <c r="D1" s="394" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="396"/>
+      <c r="E1" s="395"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2">
@@ -2607,7 +2616,7 @@
       </c>
       <c r="D2" s="87">
         <f>SUM(B:B)</f>
-        <v>1805</v>
+        <v>1801</v>
       </c>
       <c r="E2" s="88" t="s">
         <v>7</v>
@@ -2881,7 +2890,7 @@
       </c>
       <c r="B16">
         <f>'15'!Q$2</f>
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -4134,14 +4143,14 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="271" t="s">
+      <c r="J3" s="270" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="278" t="s">
+      <c r="O3" s="277" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4152,7 +4161,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="272" t="s">
+      <c r="E4" s="271" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="5"/>
@@ -4161,14 +4170,14 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="272" t="s">
+      <c r="L4" s="271" t="s">
         <v>4</v>
       </c>
       <c r="M4" s="5"/>
-      <c r="N4" s="274" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" s="279" t="s">
+      <c r="N4" s="273" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="278" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4177,31 +4186,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="274" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="275" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="273" t="s">
+      <c r="C5" s="273" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="274" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="272" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="271" t="s">
+      <c r="G5" s="270" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="273" t="s">
+      <c r="L5" s="272" t="s">
         <v>4</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="246" t="s">
+      <c r="O5" s="245" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4212,7 +4221,7 @@
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="273" t="s">
+      <c r="E6" s="272" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="5"/>
@@ -4221,7 +4230,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="273" t="s">
+      <c r="L6" s="272" t="s">
         <v>4</v>
       </c>
       <c r="M6" s="5"/>
@@ -4233,43 +4242,43 @@
         <v>5</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="274" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="276" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="276" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="275" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="274" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="276" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="276" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="275" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="274" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" s="276" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="276" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="275" t="s">
-        <v>5</v>
-      </c>
-      <c r="O7" s="280" t="s">
+      <c r="C7" s="273" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="275" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="275" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="274" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="273" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="275" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="275" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="274" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="273" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="275" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="275" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="274" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="279" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4327,7 +4336,7 @@
       <c r="A10" s="28">
         <v>8</v>
       </c>
-      <c r="B10" s="281" t="s">
+      <c r="B10" s="280" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="5"/>
@@ -4351,7 +4360,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="273" t="s">
+      <c r="N10" s="272" t="s">
         <v>1</v>
       </c>
       <c r="O10" s="6"/>
@@ -4360,46 +4369,46 @@
       <c r="A11" s="28">
         <v>9</v>
       </c>
-      <c r="B11" s="249" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="282" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="283" t="s">
+      <c r="B11" s="248" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="281" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="282" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="268" t="s">
+      <c r="F11" s="267" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="268" t="s">
+      <c r="H11" s="267" t="s">
         <v>6</v>
       </c>
       <c r="I11" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="268" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="284" t="s">
-        <v>4</v>
-      </c>
-      <c r="L11" s="268" t="s">
-        <v>6</v>
-      </c>
-      <c r="M11" s="264" t="s">
-        <v>4</v>
-      </c>
-      <c r="N11" s="268" t="s">
-        <v>6</v>
-      </c>
-      <c r="O11" s="285" t="s">
+      <c r="J11" s="267" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="283" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="267" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="263" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="267" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="284" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6197,7 +6206,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P51" sqref="P51"/>
+      <selection pane="bottomLeft" activeCell="P14" sqref="P14:P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6273,11 +6282,11 @@
       <c r="G2" s="239" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="240" t="s">
+      <c r="H2" s="237" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="241" t="s">
+      <c r="J2" s="240" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="227" t="s">
@@ -6298,7 +6307,7 @@
       <c r="Q2">
         <v>83</v>
       </c>
-      <c r="R2" s="251" t="s">
+      <c r="R2" s="250" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6343,7 +6352,7 @@
       <c r="N3" s="200" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="242" t="s">
+      <c r="O3" s="241" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6360,13 +6369,13 @@
       <c r="D4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="17" t="s">
+      <c r="E4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="36" t="s">
@@ -6388,7 +6397,7 @@
       <c r="N4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="243" t="s">
+      <c r="O4" s="242" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6396,7 +6405,7 @@
       <c r="A5" s="28">
         <v>3</v>
       </c>
-      <c r="B5" s="244" t="s">
+      <c r="B5" s="243" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="233" t="s">
@@ -6414,13 +6423,9 @@
       <c r="G5" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="46" t="s">
-        <v>4</v>
-      </c>
+      <c r="H5" s="396"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="141" t="s">
-        <v>4</v>
-      </c>
+      <c r="J5" s="396"/>
       <c r="K5" s="198" t="s">
         <v>4</v>
       </c>
@@ -6433,7 +6438,7 @@
       <c r="N5" s="233" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="245" t="s">
+      <c r="O5" s="244" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6450,23 +6455,23 @@
       <c r="D6" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="47" t="s">
+      <c r="E6" s="314" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="397" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="373" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="235" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="5"/>
-      <c r="J6" s="167" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="140" t="s">
+      <c r="J6" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="167" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="117" t="s">
@@ -6504,7 +6509,7 @@
       <c r="G7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="35" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="140" t="s">
@@ -6525,7 +6530,7 @@
       <c r="N7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="246" t="s">
+      <c r="O7" s="245" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6578,7 +6583,7 @@
       <c r="A9" s="28">
         <v>7</v>
       </c>
-      <c r="B9" s="247" t="s">
+      <c r="B9" s="246" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="5"/>
@@ -6593,7 +6598,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
-      <c r="O9" s="248" t="s">
+      <c r="O9" s="247" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6601,7 +6606,7 @@
       <c r="A10" s="28">
         <v>8</v>
       </c>
-      <c r="B10" s="247" t="s">
+      <c r="B10" s="246" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="5"/>
@@ -6616,7 +6621,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="248" t="s">
+      <c r="O10" s="247" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6624,7 +6629,7 @@
       <c r="A11" s="28">
         <v>9</v>
       </c>
-      <c r="B11" s="249" t="s">
+      <c r="B11" s="248" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="8"/>
@@ -6639,7 +6644,7 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
-      <c r="O11" s="250" t="s">
+      <c r="O11" s="249" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7077,13 +7082,13 @@
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31">
         <v>6</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
@@ -7096,18 +7101,18 @@
       </c>
       <c r="P31" t="str">
         <f>CONCATENATE(".db #$", C31, B31, ", #%", IF(E31="R", "0", "1"),  DEC2BIN(D31-1,2), VLOOKUP(F31, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G31, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$63, #%10100001</v>
+        <v>.db #$64, #%10000001</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32">
         <v>8</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -7120,7 +7125,7 @@
       </c>
       <c r="P32" t="str">
         <f>CONCATENATE(".db #$", C32, B32, ", #%", IF(E32="R", "0", "1"),  DEC2BIN(D32-1,2), VLOOKUP(F32, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G32, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$83, #%10100010</v>
+        <v>.db #$84, #%10000010</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
@@ -7720,19 +7725,19 @@
       <c r="A2" s="28">
         <v>0</v>
       </c>
-      <c r="B2" s="260" t="s">
+      <c r="B2" s="259" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="261" t="s">
+      <c r="G2" s="260" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="262" t="s">
+      <c r="J2" s="261" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="2"/>
@@ -7830,7 +7835,7 @@
       <c r="A6" s="28">
         <v>4</v>
       </c>
-      <c r="B6" s="263" t="s">
+      <c r="B6" s="262" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="5"/>
@@ -7865,7 +7870,7 @@
       <c r="C7" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="259" t="s">
+      <c r="D7" s="258" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="5"/>
@@ -7980,20 +7985,20 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="264" t="s">
+      <c r="G11" s="263" t="s">
         <v>4</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="265" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="266" t="s">
+      <c r="J11" s="264" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="265" t="s">
         <v>4</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="267" t="s">
+      <c r="N11" s="266" t="s">
         <v>4</v>
       </c>
       <c r="O11" s="222" t="s">
@@ -8598,38 +8603,38 @@
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="261" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="261" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="293" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="294" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="295" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="296" t="s">
+      <c r="C2" s="260" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="260" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="292" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="293" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="294" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="295" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="294" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="295" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="295" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="296" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="297" t="s">
+      <c r="J2" s="293" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="294" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="294" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="295" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="296" t="s">
         <v>4</v>
       </c>
       <c r="O2" s="209" t="s">
@@ -8653,7 +8658,7 @@
       <c r="D3" s="206" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="289" t="s">
+      <c r="E3" s="288" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="232" t="s">
@@ -8674,14 +8679,14 @@
       <c r="K3" s="233" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="259" t="s">
+      <c r="L3" s="258" t="s">
         <v>4</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="206" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="298" t="s">
+      <c r="O3" s="297" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8700,29 +8705,29 @@
         <v>4</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="288" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="291" t="s">
+      <c r="G4" s="287" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="290" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="292" t="s">
+      <c r="J4" s="291" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="5"/>
-      <c r="L4" s="288" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="259" t="s">
+      <c r="L4" s="287" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="258" t="s">
         <v>4</v>
       </c>
       <c r="N4" s="206" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="298" t="s">
+      <c r="O4" s="297" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8791,10 +8796,10 @@
       <c r="G6" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="290" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="290" t="s">
+      <c r="H6" s="289" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="289" t="s">
         <v>1</v>
       </c>
       <c r="J6" s="43" t="s">
@@ -8803,16 +8808,16 @@
       <c r="K6" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="290" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" s="290" t="s">
+      <c r="L6" s="289" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="289" t="s">
         <v>1</v>
       </c>
       <c r="N6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="299" t="s">
+      <c r="O6" s="298" t="s">
         <v>1</v>
       </c>
     </row>
@@ -8839,7 +8844,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="300" t="s">
+      <c r="O7" s="299" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8878,7 +8883,7 @@
       <c r="A9" s="28">
         <v>7</v>
       </c>
-      <c r="B9" s="263" t="s">
+      <c r="B9" s="262" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="5"/>
@@ -8899,7 +8904,7 @@
         <v>5</v>
       </c>
       <c r="N9" s="5"/>
-      <c r="O9" s="310" t="s">
+      <c r="O9" s="309" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8957,7 +8962,7 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
-      <c r="O11" s="301" t="s">
+      <c r="O11" s="300" t="s">
         <v>5</v>
       </c>
     </row>
@@ -10038,7 +10043,7 @@
       <c r="A2" s="28">
         <v>0</v>
       </c>
-      <c r="B2" s="302" t="s">
+      <c r="B2" s="301" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="239" t="s">
@@ -10047,37 +10052,37 @@
       <c r="D2" s="239" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="303" t="s">
+      <c r="E2" s="302" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="239" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="303" t="s">
+      <c r="G2" s="302" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="239" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="303" t="s">
+      <c r="I2" s="302" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="239" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="303" t="s">
+      <c r="K2" s="302" t="s">
         <v>6</v>
       </c>
       <c r="L2" s="239" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="303" t="s">
+      <c r="M2" s="302" t="s">
         <v>6</v>
       </c>
       <c r="N2" s="239" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="304" t="s">
+      <c r="O2" s="303" t="s">
         <v>6</v>
       </c>
       <c r="Q2">
@@ -10091,7 +10096,7 @@
       <c r="A3" s="28">
         <v>1</v>
       </c>
-      <c r="B3" s="306" t="s">
+      <c r="B3" s="305" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="31" t="s">
@@ -10118,7 +10123,7 @@
         <v>6</v>
       </c>
       <c r="N3" s="5"/>
-      <c r="O3" s="307" t="s">
+      <c r="O3" s="306" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10126,7 +10131,7 @@
       <c r="A4" s="28">
         <v>2</v>
       </c>
-      <c r="B4" s="308" t="s">
+      <c r="B4" s="307" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="5"/>
@@ -10172,7 +10177,7 @@
       <c r="B5" s="223" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="277" t="s">
+      <c r="C5" s="276" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="5"/>
@@ -10196,7 +10201,7 @@
         <v>6</v>
       </c>
       <c r="N5" s="5"/>
-      <c r="O5" s="277" t="s">
+      <c r="O5" s="276" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10204,7 +10209,7 @@
       <c r="A6" s="28">
         <v>4</v>
       </c>
-      <c r="B6" s="247" t="s">
+      <c r="B6" s="246" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5"/>
@@ -10237,34 +10242,34 @@
       <c r="A7" s="28">
         <v>5</v>
       </c>
-      <c r="B7" s="309" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="277" t="s">
+      <c r="B7" s="308" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="276" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="277" t="s">
+      <c r="E7" s="276" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="277" t="s">
+      <c r="G7" s="276" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="277" t="s">
+      <c r="I7" s="276" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="277" t="s">
+      <c r="K7" s="276" t="s">
         <v>6</v>
       </c>
       <c r="L7" s="5"/>
-      <c r="M7" s="277" t="s">
+      <c r="M7" s="276" t="s">
         <v>6</v>
       </c>
       <c r="N7" s="5"/>
-      <c r="O7" s="277" t="s">
+      <c r="O7" s="276" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10272,7 +10277,7 @@
       <c r="A8" s="28">
         <v>6</v>
       </c>
-      <c r="B8" s="308" t="s">
+      <c r="B8" s="307" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="5"/>
@@ -10295,7 +10300,7 @@
       <c r="L8" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="287" t="s">
+      <c r="M8" s="286" t="s">
         <v>35</v>
       </c>
       <c r="N8" s="189" t="s">
@@ -10307,7 +10312,7 @@
       <c r="A9" s="28">
         <v>7</v>
       </c>
-      <c r="B9" s="247" t="s">
+      <c r="B9" s="246" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="224" t="s">
@@ -10342,7 +10347,7 @@
       <c r="A10" s="28">
         <v>8</v>
       </c>
-      <c r="B10" s="247" t="s">
+      <c r="B10" s="246" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="5"/>
@@ -10385,30 +10390,30 @@
       <c r="A11" s="28">
         <v>9</v>
       </c>
-      <c r="B11" s="249" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="268" t="s">
+      <c r="B11" s="248" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="267" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="305" t="s">
+      <c r="E11" s="304" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="305" t="s">
+      <c r="G11" s="304" t="s">
         <v>6</v>
       </c>
       <c r="H11" s="8"/>
-      <c r="I11" s="305" t="s">
+      <c r="I11" s="304" t="s">
         <v>6</v>
       </c>
       <c r="J11" s="8"/>
-      <c r="K11" s="305" t="s">
+      <c r="K11" s="304" t="s">
         <v>6</v>
       </c>
       <c r="L11" s="8"/>
-      <c r="M11" s="305" t="s">
+      <c r="M11" s="304" t="s">
         <v>6</v>
       </c>
       <c r="N11" s="8"/>
@@ -11863,11 +11868,11 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E412488F-3473-4AB3-985F-ED3230803FB7}">
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="13" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11925,7 +11930,7 @@
       <c r="A2" s="28">
         <v>0</v>
       </c>
-      <c r="B2" s="320" t="s">
+      <c r="B2" s="319" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="136" t="s">
@@ -11934,31 +11939,31 @@
       <c r="D2" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="321" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="135" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="321" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="135" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="321" t="s">
+      <c r="E2" s="320" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="398" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="268" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="268" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="399" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="398" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="268" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="268" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="320" t="s">
         <v>0</v>
       </c>
       <c r="N2" s="135" t="s">
@@ -11968,7 +11973,7 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="R2" t="s">
         <v>7</v>
@@ -11981,19 +11986,25 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="202" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="202" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="202" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="202" t="s">
+      <c r="F3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="18" t="s">
         <v>4</v>
       </c>
       <c r="M3" s="5"/>
@@ -12011,10 +12022,10 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="287" t="s">
+      <c r="I4" s="286" t="s">
         <v>35</v>
       </c>
+      <c r="J4" s="286"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
@@ -12102,7 +12113,7 @@
       <c r="N7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="322" t="s">
+      <c r="O7" s="321" t="s">
         <v>4</v>
       </c>
     </row>
@@ -12192,7 +12203,7 @@
       <c r="A10" s="28">
         <v>8</v>
       </c>
-      <c r="B10" s="323" t="s">
+      <c r="B10" s="322" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="44" t="s">
@@ -12201,7 +12212,7 @@
       <c r="D10" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="290" t="s">
+      <c r="E10" s="289" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="43" t="s">
@@ -12210,10 +12221,10 @@
       <c r="G10" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="290" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="290" t="s">
+      <c r="H10" s="289" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="289" t="s">
         <v>4</v>
       </c>
       <c r="J10" s="43" t="s">
@@ -12225,7 +12236,7 @@
       <c r="L10" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="290" t="s">
+      <c r="M10" s="289" t="s">
         <v>4</v>
       </c>
       <c r="N10" s="18" t="s">
@@ -12382,7 +12393,7 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18" t="s">
         <v>17</v>
@@ -12395,7 +12406,7 @@
       </c>
       <c r="P18" t="str">
         <f>CONCATENATE(".db #$", C18, B18, ", #%", IF(E18="R", "0", "1"),  DEC2BIN(D18-1,2), VLOOKUP(F18, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G18, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$41, #%00000100</v>
+        <v>.db #$41, #%01100100</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
@@ -12403,10 +12414,10 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19" t="s">
         <v>17</v>
@@ -12419,21 +12430,21 @@
       </c>
       <c r="P19" t="str">
         <f>CONCATENATE(".db #$", C19, B19, ", #%", IF(E19="R", "0", "1"),  DEC2BIN(D19-1,2), VLOOKUP(F19, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G19, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$61, #%00000100</v>
+        <v>.db #$81, #%01000100</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
         <v>4</v>
@@ -12443,18 +12454,18 @@
       </c>
       <c r="P20" t="str">
         <f>CONCATENATE(".db #$", C20, B20, ", #%", IF(E20="R", "0", "1"),  DEC2BIN(D20-1,2), VLOOKUP(F20, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G20, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$81, #%00000100</v>
+        <v>.db #$05, #%11100100</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E21" t="s">
         <v>17</v>
@@ -12467,7 +12478,7 @@
       </c>
       <c r="P21" t="str">
         <f>CONCATENATE(".db #$", C21, B21, ", #%", IF(E21="R", "0", "1"),  DEC2BIN(D21-1,2), VLOOKUP(F21, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G21, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$A1, #%00000100</v>
+        <v>.db #$15, #%01100100</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
@@ -12475,13 +12486,13 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D22">
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F22" t="s">
         <v>4</v>
@@ -12491,7 +12502,7 @@
       </c>
       <c r="P22" t="str">
         <f>CONCATENATE(".db #$", C22, B22, ", #%", IF(E22="R", "0", "1"),  DEC2BIN(D22-1,2), VLOOKUP(F22, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G22, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$05, #%11100100</v>
+        <v>.db #$55, #%01100100</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
@@ -12499,7 +12510,7 @@
         <v>5</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D23">
         <v>4</v>
@@ -12515,21 +12526,21 @@
       </c>
       <c r="P23" t="str">
         <f>CONCATENATE(".db #$", C23, B23, ", #%", IF(E23="R", "0", "1"),  DEC2BIN(D23-1,2), VLOOKUP(F23, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G23, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$15, #%01100100</v>
+        <v>.db #$95, #%01100100</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="C24">
-        <v>5</v>
+      <c r="C24" t="s">
+        <v>0</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
         <v>4</v>
@@ -12539,18 +12550,18 @@
       </c>
       <c r="P24" t="str">
         <f>CONCATENATE(".db #$", C24, B24, ", #%", IF(E24="R", "0", "1"),  DEC2BIN(D24-1,2), VLOOKUP(F24, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G24, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$55, #%01100100</v>
+        <v>.db #$D5, #%11100100</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
         <v>17</v>
@@ -12563,21 +12574,21 @@
       </c>
       <c r="P25" t="str">
         <f>CONCATENATE(".db #$", C25, B25, ", #%", IF(E25="R", "0", "1"),  DEC2BIN(D25-1,2), VLOOKUP(F25, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G25, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$95, #%01100100</v>
+        <v>.db #$26, #%00000100</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F26" t="s">
         <v>4</v>
@@ -12587,7 +12598,7 @@
       </c>
       <c r="P26" t="str">
         <f>CONCATENATE(".db #$", C26, B26, ", #%", IF(E26="R", "0", "1"),  DEC2BIN(D26-1,2), VLOOKUP(F26, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G26, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$D5, #%11100100</v>
+        <v>.db #$46, #%01000100</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
@@ -12595,10 +12606,10 @@
         <v>6</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E27" t="s">
         <v>17</v>
@@ -12611,18 +12622,18 @@
       </c>
       <c r="P27" t="str">
         <f>CONCATENATE(".db #$", C27, B27, ", #%", IF(E27="R", "0", "1"),  DEC2BIN(D27-1,2), VLOOKUP(F27, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G27, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$26, #%00000100</v>
+        <v>.db #$76, #%01100100</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>6</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
         <v>17</v>
@@ -12635,18 +12646,18 @@
       </c>
       <c r="P28" t="str">
         <f>CONCATENATE(".db #$", C28, B28, ", #%", IF(E28="R", "0", "1"),  DEC2BIN(D28-1,2), VLOOKUP(F28, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G28, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$46, #%01000100</v>
+        <v>.db #$C6, #%00000100</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
         <v>17</v>
@@ -12659,18 +12670,18 @@
       </c>
       <c r="P29" t="str">
         <f>CONCATENATE(".db #$", C29, B29, ", #%", IF(E29="R", "0", "1"),  DEC2BIN(D29-1,2), VLOOKUP(F29, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G29, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$76, #%01100100</v>
+        <v>.db #$17, #%00000100</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E30" t="s">
         <v>17</v>
@@ -12683,7 +12694,7 @@
       </c>
       <c r="P30" t="str">
         <f>CONCATENATE(".db #$", C30, B30, ", #%", IF(E30="R", "0", "1"),  DEC2BIN(D30-1,2), VLOOKUP(F30, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G30, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$C6, #%00000100</v>
+        <v>.db #$37, #%01100100</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
@@ -12691,10 +12702,10 @@
         <v>7</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31" t="s">
         <v>17</v>
@@ -12707,18 +12718,18 @@
       </c>
       <c r="P31" t="str">
         <f>CONCATENATE(".db #$", C31, B31, ", #%", IF(E31="R", "0", "1"),  DEC2BIN(D31-1,2), VLOOKUP(F31, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G31, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$17, #%00000100</v>
+        <v>.db #$77, #%01000100</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>7</v>
       </c>
-      <c r="C32">
-        <v>3</v>
+      <c r="C32" t="s">
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
         <v>17</v>
@@ -12731,18 +12742,18 @@
       </c>
       <c r="P32" t="str">
         <f>CONCATENATE(".db #$", C32, B32, ", #%", IF(E32="R", "0", "1"),  DEC2BIN(D32-1,2), VLOOKUP(F32, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G32, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$37, #%01100100</v>
+        <v>.db #$B7, #%00000100</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E33" t="s">
         <v>17</v>
@@ -12755,18 +12766,18 @@
       </c>
       <c r="P33" t="str">
         <f>CONCATENATE(".db #$", C33, B33, ", #%", IF(E33="R", "0", "1"),  DEC2BIN(D33-1,2), VLOOKUP(F33, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G33, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$77, #%01000100</v>
+        <v>.db #$18, #%01100100</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E34" t="s">
         <v>17</v>
@@ -12779,7 +12790,7 @@
       </c>
       <c r="P34" t="str">
         <f>CONCATENATE(".db #$", C34, B34, ", #%", IF(E34="R", "0", "1"),  DEC2BIN(D34-1,2), VLOOKUP(F34, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G34, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$B7, #%00000100</v>
+        <v>.db #$58, #%01100100</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
@@ -12787,7 +12798,7 @@
         <v>8</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D35">
         <v>4</v>
@@ -12803,54 +12814,6 @@
       </c>
       <c r="P35" t="str">
         <f>CONCATENATE(".db #$", C35, B35, ", #%", IF(E35="R", "0", "1"),  DEC2BIN(D35-1,2), VLOOKUP(F35, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G35, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$18, #%01100100</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B36">
-        <v>8</v>
-      </c>
-      <c r="C36">
-        <v>5</v>
-      </c>
-      <c r="D36">
-        <v>4</v>
-      </c>
-      <c r="E36" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" t="s">
-        <v>26</v>
-      </c>
-      <c r="P36" t="str">
-        <f>CONCATENATE(".db #$", C36, B36, ", #%", IF(E36="R", "0", "1"),  DEC2BIN(D36-1,2), VLOOKUP(F36, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G36, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$58, #%01100100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B37">
-        <v>8</v>
-      </c>
-      <c r="C37">
-        <v>9</v>
-      </c>
-      <c r="D37">
-        <v>4</v>
-      </c>
-      <c r="E37" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" t="s">
-        <v>26</v>
-      </c>
-      <c r="P37" t="str">
-        <f>CONCATENATE(".db #$", C37, B37, ", #%", IF(E37="R", "0", "1"),  DEC2BIN(D37-1,2), VLOOKUP(F37, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G37, info!$K$5:$L$11, 2, FALSE))</f>
         <v>.db #$98, #%01100100</v>
       </c>
     </row>
@@ -12927,7 +12890,7 @@
       <c r="C2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="269" t="s">
+      <c r="D2" s="268" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="55" t="s">
@@ -12954,13 +12917,13 @@
       <c r="L2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="317" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="317" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="318" t="s">
+      <c r="M2" s="316" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="316" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="317" t="s">
         <v>4</v>
       </c>
       <c r="Q2">
@@ -13044,7 +13007,7 @@
       <c r="J4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="314" t="s">
+      <c r="K4" s="313" t="s">
         <v>4</v>
       </c>
       <c r="L4" s="46" t="s">
@@ -13089,7 +13052,7 @@
       <c r="J5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="315" t="s">
+      <c r="K5" s="314" t="s">
         <v>4</v>
       </c>
       <c r="L5" s="42" t="s">
@@ -13281,7 +13244,7 @@
       <c r="N9" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="307" t="s">
+      <c r="O9" s="306" t="s">
         <v>6</v>
       </c>
     </row>
@@ -13302,7 +13265,7 @@
       <c r="F10" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="312" t="s">
+      <c r="G10" s="311" t="s">
         <v>4</v>
       </c>
       <c r="H10" s="49" t="s">
@@ -13326,7 +13289,7 @@
       <c r="N10" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="319" t="s">
+      <c r="O10" s="318" t="s">
         <v>1</v>
       </c>
     </row>
@@ -13339,7 +13302,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="284" t="s">
+      <c r="G11" s="283" t="s">
         <v>5</v>
       </c>
       <c r="H11" s="8"/>
@@ -13349,7 +13312,7 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
-      <c r="O11" s="311" t="s">
+      <c r="O11" s="310" t="s">
         <v>35</v>
       </c>
     </row>
@@ -14470,7 +14433,7 @@
       <c r="G2" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="321" t="s">
+      <c r="H2" s="320" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="139" t="s">
@@ -14485,7 +14448,7 @@
       <c r="L2" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="321" t="s">
+      <c r="M2" s="320" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="2"/>
@@ -14510,23 +14473,23 @@
       <c r="D3" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="313" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="313" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="313" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="324" t="s">
+      <c r="E3" s="312" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="312" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="312" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="323" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="324" t="s">
+      <c r="K3" s="323" t="s">
         <v>5</v>
       </c>
       <c r="L3" s="140" t="s">
@@ -14536,7 +14499,7 @@
       <c r="N3" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="325" t="s">
+      <c r="O3" s="324" t="s">
         <v>5</v>
       </c>
     </row>
@@ -14553,7 +14516,7 @@
       <c r="D4" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="324" t="s">
+      <c r="E4" s="323" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="117" t="s">
@@ -14581,7 +14544,7 @@
       <c r="N4" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="326" t="s">
+      <c r="O4" s="325" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14605,7 +14568,7 @@
       <c r="G5" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="354" t="s">
+      <c r="H5" s="353" t="s">
         <v>35</v>
       </c>
       <c r="I5" s="140" t="s">
@@ -14626,7 +14589,7 @@
       <c r="N5" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="327" t="s">
+      <c r="O5" s="326" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14634,7 +14597,7 @@
       <c r="A6" s="28">
         <v>4</v>
       </c>
-      <c r="B6" s="328" t="s">
+      <c r="B6" s="327" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="141" t="s">
@@ -14671,7 +14634,7 @@
       <c r="N6" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="327" t="s">
+      <c r="O6" s="326" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14716,7 +14679,7 @@
       <c r="N7" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="329" t="s">
+      <c r="O7" s="328" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14774,7 +14737,7 @@
       <c r="D9" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="324" t="s">
+      <c r="E9" s="323" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="165" t="s">
@@ -14789,16 +14752,16 @@
       <c r="I9" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="324" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="316" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="313" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="324" t="s">
+      <c r="J9" s="323" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="315" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="312" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="323" t="s">
         <v>5</v>
       </c>
       <c r="N9" s="5"/>
@@ -14824,10 +14787,10 @@
         <v>4</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="316" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="313" t="s">
+      <c r="H10" s="315" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="312" t="s">
         <v>5</v>
       </c>
       <c r="J10" s="117" t="s">
@@ -14842,10 +14805,10 @@
       <c r="M10" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="313" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="325" t="s">
+      <c r="N10" s="312" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="324" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14853,7 +14816,7 @@
       <c r="A11" s="28">
         <v>9</v>
       </c>
-      <c r="B11" s="330" t="s">
+      <c r="B11" s="329" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="182" t="s">
@@ -14872,7 +14835,7 @@
       <c r="H11" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="331" t="s">
+      <c r="I11" s="330" t="s">
         <v>4</v>
       </c>
       <c r="J11" s="181" t="s">
@@ -14887,10 +14850,10 @@
       <c r="M11" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="N11" s="331" t="s">
-        <v>4</v>
-      </c>
-      <c r="O11" s="332" t="s">
+      <c r="N11" s="330" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="331" t="s">
         <v>4</v>
       </c>
     </row>
@@ -16152,8 +16115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA56FFEF-F7C8-4860-BE54-456CF04E33C0}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14:P21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P14" sqref="P14:P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16250,7 +16213,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="394" t="s">
+      <c r="N3" s="393" t="s">
         <v>1</v>
       </c>
       <c r="O3" s="6"/>
@@ -16268,7 +16231,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="393" t="s">
+      <c r="K4" s="392" t="s">
         <v>35</v>
       </c>
       <c r="L4" s="5"/>
@@ -16312,7 +16275,7 @@
       <c r="H6" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="277" t="s">
+      <c r="I6" s="276" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="129" t="s">
@@ -16411,7 +16374,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="394" t="s">
+      <c r="N10" s="393" t="s">
         <v>5</v>
       </c>
       <c r="O10" s="6"/>
@@ -16722,27 +16685,27 @@
       <c r="B2" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="270"/>
+      <c r="C2" s="269"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="338" t="s">
+      <c r="G2" s="337" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="262" t="s">
+      <c r="J2" s="261" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="339" t="s">
+      <c r="O2" s="338" t="s">
         <v>1</v>
       </c>
       <c r="Q2">
@@ -16756,7 +16719,7 @@
       <c r="A3" s="28">
         <v>1</v>
       </c>
-      <c r="B3" s="340" t="s">
+      <c r="B3" s="339" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5"/>
@@ -16769,7 +16732,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="287" t="s">
+      <c r="M3" s="286" t="s">
         <v>35</v>
       </c>
       <c r="N3" s="5"/>
@@ -16872,7 +16835,7 @@
       <c r="A7" s="28">
         <v>5</v>
       </c>
-      <c r="B7" s="308" t="s">
+      <c r="B7" s="307" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="5"/>
@@ -16901,40 +16864,40 @@
       <c r="A8" s="28">
         <v>6</v>
       </c>
-      <c r="B8" s="247" t="s">
+      <c r="B8" s="246" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="81" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="334" t="s">
+      <c r="E8" s="333" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="335" t="s">
+      <c r="G8" s="334" t="s">
         <v>6</v>
       </c>
       <c r="H8" s="31" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="5"/>
-      <c r="J8" s="334" t="s">
+      <c r="J8" s="333" t="s">
         <v>6</v>
       </c>
       <c r="K8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="335" t="s">
+      <c r="L8" s="334" t="s">
         <v>6</v>
       </c>
       <c r="M8" s="31" t="s">
         <v>6</v>
       </c>
       <c r="N8" s="5"/>
-      <c r="O8" s="341" t="s">
+      <c r="O8" s="340" t="s">
         <v>6</v>
       </c>
     </row>
@@ -16942,7 +16905,7 @@
       <c r="A9" s="28">
         <v>7</v>
       </c>
-      <c r="B9" s="342" t="s">
+      <c r="B9" s="341" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="224" t="s">
@@ -16954,13 +16917,13 @@
       <c r="E9" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="335" t="s">
+      <c r="F9" s="334" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="203" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="335" t="s">
+      <c r="H9" s="334" t="s">
         <v>6</v>
       </c>
       <c r="I9" s="232" t="s">
@@ -16969,19 +16932,19 @@
       <c r="J9" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="335" t="s">
+      <c r="K9" s="334" t="s">
         <v>6</v>
       </c>
       <c r="L9" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="335" t="s">
+      <c r="M9" s="334" t="s">
         <v>6</v>
       </c>
       <c r="N9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="243" t="s">
+      <c r="O9" s="242" t="s">
         <v>4</v>
       </c>
     </row>
@@ -16989,16 +16952,16 @@
       <c r="A10" s="28">
         <v>8</v>
       </c>
-      <c r="B10" s="343" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="336" t="s">
+      <c r="B10" s="342" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="335" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="252" t="s">
+      <c r="E10" s="251" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="224" t="s">
@@ -17007,7 +16970,7 @@
       <c r="G10" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="336" t="s">
+      <c r="H10" s="335" t="s">
         <v>6</v>
       </c>
       <c r="I10" s="186" t="s">
@@ -17022,13 +16985,13 @@
       <c r="L10" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="336" t="s">
+      <c r="M10" s="335" t="s">
         <v>6</v>
       </c>
       <c r="N10" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="344" t="s">
+      <c r="O10" s="343" t="s">
         <v>4</v>
       </c>
     </row>
@@ -17036,46 +16999,46 @@
       <c r="A11" s="28">
         <v>9</v>
       </c>
-      <c r="B11" s="345" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="346" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="347" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="348" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="268" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="265" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="349" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="266" t="s">
+      <c r="B11" s="344" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="345" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="346" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="347" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="267" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="264" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="348" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="265" t="s">
         <v>4</v>
       </c>
       <c r="J11" s="218" t="s">
         <v>4</v>
       </c>
-      <c r="K11" s="268" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11" s="350" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11" s="351" t="s">
-        <v>4</v>
-      </c>
-      <c r="N11" s="352" t="s">
-        <v>4</v>
-      </c>
-      <c r="O11" s="353" t="s">
+      <c r="K11" s="267" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="349" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="350" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="351" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="352" t="s">
         <v>4</v>
       </c>
     </row>
@@ -18223,20 +18186,20 @@
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="288" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="259" t="s">
+      <c r="J3" s="287" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="258" t="s">
         <v>5</v>
       </c>
       <c r="L3" s="5"/>
-      <c r="M3" s="288" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="291" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="245" t="s">
+      <c r="M3" s="287" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="290" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="244" t="s">
         <v>5</v>
       </c>
     </row>
@@ -18285,7 +18248,7 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="288" t="s">
+      <c r="D5" s="287" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="234" t="s">
@@ -18295,7 +18258,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="288" t="s">
+      <c r="J5" s="287" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="234" t="s">
@@ -18305,7 +18268,7 @@
       <c r="M5" s="232" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="259" t="s">
+      <c r="N5" s="258" t="s">
         <v>5</v>
       </c>
       <c r="O5" s="6"/>
@@ -18314,7 +18277,7 @@
       <c r="A6" s="28">
         <v>4</v>
       </c>
-      <c r="B6" s="355" t="s">
+      <c r="B6" s="354" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="5"/>
@@ -18380,7 +18343,7 @@
       <c r="N7" s="204" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="298" t="s">
+      <c r="O7" s="297" t="s">
         <v>5</v>
       </c>
     </row>
@@ -18388,7 +18351,7 @@
       <c r="A8" s="28">
         <v>6</v>
       </c>
-      <c r="B8" s="356" t="s">
+      <c r="B8" s="355" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="5"/>
@@ -18415,7 +18378,7 @@
         <v>5</v>
       </c>
       <c r="N8" s="5"/>
-      <c r="O8" s="298" t="s">
+      <c r="O8" s="297" t="s">
         <v>5</v>
       </c>
     </row>
@@ -18423,7 +18386,7 @@
       <c r="A9" s="28">
         <v>7</v>
       </c>
-      <c r="B9" s="357" t="s">
+      <c r="B9" s="356" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="5"/>
@@ -18485,7 +18448,7 @@
       <c r="A11" s="28">
         <v>9</v>
       </c>
-      <c r="B11" s="358" t="s">
+      <c r="B11" s="357" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="78" t="s">
@@ -19365,46 +19328,46 @@
       <c r="A2" s="28">
         <v>0</v>
       </c>
-      <c r="B2" s="360" t="s">
+      <c r="B2" s="359" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="295" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="296" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="365" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="295" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="296" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="269" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="294" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="295" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="297" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="269" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="293" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="361" t="s">
+      <c r="D2" s="294" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="295" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="364" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="294" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="295" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="268" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="293" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="294" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="296" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="268" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="292" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="360" t="s">
         <v>4</v>
       </c>
       <c r="Q2">
@@ -19418,7 +19381,7 @@
       <c r="A3" s="28">
         <v>1</v>
       </c>
-      <c r="B3" s="244" t="s">
+      <c r="B3" s="243" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="233" t="s">
@@ -19447,7 +19410,7 @@
       <c r="N3" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="325" t="s">
+      <c r="O3" s="324" t="s">
         <v>0</v>
       </c>
     </row>
@@ -19481,10 +19444,10 @@
       <c r="F5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="335" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="335" t="s">
+      <c r="G5" s="334" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="334" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="31" t="s">
@@ -19493,10 +19456,10 @@
       <c r="J5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="335" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="359" t="s">
+      <c r="K5" s="334" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="358" t="s">
         <v>6</v>
       </c>
       <c r="M5" s="5"/>
@@ -19511,7 +19474,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="333" t="s">
+      <c r="F6" s="332" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="94" t="s">
@@ -19525,7 +19488,7 @@
       <c r="K6" s="198" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="359" t="s">
+      <c r="L6" s="358" t="s">
         <v>6</v>
       </c>
       <c r="M6" s="5"/>
@@ -19551,7 +19514,7 @@
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="366" t="s">
+      <c r="K7" s="365" t="s">
         <v>35</v>
       </c>
       <c r="L7" s="36" t="s">
@@ -19598,7 +19561,7 @@
         <v>6</v>
       </c>
       <c r="N8" s="5"/>
-      <c r="O8" s="307" t="s">
+      <c r="O8" s="306" t="s">
         <v>6</v>
       </c>
     </row>
@@ -19627,7 +19590,7 @@
       <c r="A10" s="28">
         <v>8</v>
       </c>
-      <c r="B10" s="244" t="s">
+      <c r="B10" s="243" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="30" t="s">
@@ -19666,7 +19629,7 @@
       <c r="N10" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="325" t="s">
+      <c r="O10" s="324" t="s">
         <v>0</v>
       </c>
     </row>
@@ -19674,46 +19637,46 @@
       <c r="A11" s="28">
         <v>9</v>
       </c>
-      <c r="B11" s="362" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="363" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="349" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="266" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="305" t="s">
+      <c r="B11" s="361" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="362" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="348" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="265" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="304" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="265" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="349" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="349" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="266" t="s">
-        <v>4</v>
-      </c>
-      <c r="L11" s="265" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11" s="349" t="s">
-        <v>4</v>
-      </c>
-      <c r="N11" s="349" t="s">
-        <v>4</v>
-      </c>
-      <c r="O11" s="364" t="s">
+      <c r="H11" s="264" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="348" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="348" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="265" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="264" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="348" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="348" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="363" t="s">
         <v>4</v>
       </c>
     </row>
@@ -20698,13 +20661,13 @@
       <c r="A2" s="28">
         <v>0</v>
       </c>
-      <c r="B2" s="368" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="338" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="369" t="s">
+      <c r="B2" s="367" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="337" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="368" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="239" t="s">
@@ -20713,10 +20676,10 @@
       <c r="F2" s="239" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="370" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="369" t="s">
+      <c r="G2" s="369" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="368" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="239" t="s">
@@ -20725,19 +20688,19 @@
       <c r="J2" s="239" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="370" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="369" t="s">
+      <c r="K2" s="369" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="368" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="239" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="370" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="371" t="s">
+      <c r="N2" s="369" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="370" t="s">
         <v>1</v>
       </c>
       <c r="Q2">
@@ -20803,7 +20766,7 @@
       <c r="N4" s="200" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="242" t="s">
+      <c r="O4" s="241" t="s">
         <v>4</v>
       </c>
     </row>
@@ -20814,7 +20777,7 @@
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="367" t="s">
+      <c r="E5" s="366" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="117" t="s">
@@ -20885,7 +20848,7 @@
       <c r="N6" s="200" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="242" t="s">
+      <c r="O6" s="241" t="s">
         <v>4</v>
       </c>
     </row>
@@ -20948,7 +20911,7 @@
       <c r="M8" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="252" t="s">
+      <c r="N8" s="251" t="s">
         <v>4</v>
       </c>
       <c r="O8" s="6"/>
@@ -20957,7 +20920,7 @@
       <c r="A9" s="28">
         <v>7</v>
       </c>
-      <c r="B9" s="328" t="s">
+      <c r="B9" s="327" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="118" t="s">
@@ -20993,7 +20956,7 @@
       <c r="M9" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="N9" s="253" t="s">
+      <c r="N9" s="252" t="s">
         <v>4</v>
       </c>
       <c r="O9" s="6"/>
@@ -21002,7 +20965,7 @@
       <c r="A10" s="28">
         <v>8</v>
       </c>
-      <c r="B10" s="281" t="s">
+      <c r="B10" s="280" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="199" t="s">
@@ -21038,7 +21001,7 @@
       <c r="M10" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="254" t="s">
+      <c r="N10" s="253" t="s">
         <v>4</v>
       </c>
       <c r="O10" s="6"/>
@@ -21047,7 +21010,7 @@
       <c r="A11" s="28">
         <v>9</v>
       </c>
-      <c r="B11" s="372" t="s">
+      <c r="B11" s="371" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="8"/>
@@ -21877,7 +21840,7 @@
       <c r="A2" s="28">
         <v>0</v>
       </c>
-      <c r="B2" s="320" t="s">
+      <c r="B2" s="319" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="136" t="s">
@@ -21886,7 +21849,7 @@
       <c r="D2" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="321" t="s">
+      <c r="E2" s="320" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="135" t="s">
@@ -21898,7 +21861,7 @@
       <c r="H2" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="321" t="s">
+      <c r="I2" s="320" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="135" t="s">
@@ -21910,7 +21873,7 @@
       <c r="L2" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="321" t="s">
+      <c r="M2" s="320" t="s">
         <v>0</v>
       </c>
       <c r="N2" s="135" t="s">
@@ -21989,7 +21952,7 @@
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="277" t="s">
+      <c r="M5" s="276" t="s">
         <v>6</v>
       </c>
       <c r="N5" s="5"/>
@@ -22010,14 +21973,14 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="373" t="s">
+      <c r="I6" s="372" t="s">
         <v>35</v>
       </c>
       <c r="J6" s="82" t="s">
         <v>6</v>
       </c>
       <c r="K6" s="5"/>
-      <c r="L6" s="277" t="s">
+      <c r="L6" s="276" t="s">
         <v>6</v>
       </c>
       <c r="M6" s="5"/>
@@ -22136,7 +22099,7 @@
         <v>4</v>
       </c>
       <c r="N10" s="5"/>
-      <c r="O10" s="319" t="s">
+      <c r="O10" s="318" t="s">
         <v>4</v>
       </c>
     </row>
@@ -22780,46 +22743,46 @@
       <c r="A2" s="28">
         <v>0</v>
       </c>
-      <c r="B2" s="380" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="317" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="317" t="s">
+      <c r="B2" s="379" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="316" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="316" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="338" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="255" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="256" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="257" t="s">
+      <c r="F2" s="337" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="254" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="255" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="256" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="381" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="255" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="256" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="256" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="382" t="s">
+      <c r="K2" s="380" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="254" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="255" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="255" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="381" t="s">
         <v>4</v>
       </c>
       <c r="Q2">
@@ -22860,7 +22823,7 @@
       <c r="J3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="253" t="s">
+      <c r="K3" s="252" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="199" t="s">
@@ -22872,7 +22835,7 @@
       <c r="N3" s="200" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="242" t="s">
+      <c r="O3" s="241" t="s">
         <v>4</v>
       </c>
     </row>
@@ -22907,7 +22870,7 @@
       <c r="J4" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="253" t="s">
+      <c r="K4" s="252" t="s">
         <v>4</v>
       </c>
       <c r="L4" s="29" t="s">
@@ -22919,7 +22882,7 @@
       <c r="N4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="246" t="s">
+      <c r="O4" s="245" t="s">
         <v>6</v>
       </c>
     </row>
@@ -22936,7 +22899,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="253" t="s">
+      <c r="K5" s="252" t="s">
         <v>4</v>
       </c>
       <c r="L5" s="5"/>
@@ -22969,13 +22932,13 @@
       <c r="H6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="252" t="s">
+      <c r="I6" s="251" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="252" t="s">
+      <c r="K6" s="251" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="81" t="s">
@@ -22993,34 +22956,34 @@
       <c r="A7" s="28">
         <v>5</v>
       </c>
-      <c r="B7" s="383" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="337" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="337" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="377" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="367" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="337" t="s">
+      <c r="B7" s="382" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="336" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="336" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="376" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="366" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="336" t="s">
         <v>4</v>
       </c>
       <c r="H7" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="253" t="s">
+      <c r="I7" s="252" t="s">
         <v>4</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="253" t="s">
+      <c r="K7" s="252" t="s">
         <v>4</v>
       </c>
       <c r="L7" s="82" t="s">
@@ -23049,19 +23012,19 @@
       <c r="F8" s="235" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="377" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="374" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="253" t="s">
+      <c r="G8" s="376" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="373" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="252" t="s">
         <v>4</v>
       </c>
       <c r="J8" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="253" t="s">
+      <c r="K8" s="252" t="s">
         <v>4</v>
       </c>
       <c r="L8" s="36" t="s">
@@ -23069,7 +23032,7 @@
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="307" t="s">
+      <c r="O8" s="306" t="s">
         <v>6</v>
       </c>
     </row>
@@ -23081,28 +23044,28 @@
       <c r="C9" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="378" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="378" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="379" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="253" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="375" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="253" t="s">
+      <c r="D9" s="377" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="377" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="378" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="252" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="374" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="252" t="s">
         <v>4</v>
       </c>
       <c r="J9" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="K9" s="253" t="s">
+      <c r="K9" s="252" t="s">
         <v>4</v>
       </c>
       <c r="L9" s="81" t="s">
@@ -23112,7 +23075,7 @@
       <c r="N9" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="384" t="s">
+      <c r="O9" s="383" t="s">
         <v>1</v>
       </c>
     </row>
@@ -23133,10 +23096,10 @@
       <c r="F10" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="253" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="376" t="s">
+      <c r="G10" s="252" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="375" t="s">
         <v>1</v>
       </c>
       <c r="I10" s="199" t="s">
@@ -23155,7 +23118,7 @@
       <c r="N10" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="385" t="s">
+      <c r="O10" s="384" t="s">
         <v>1</v>
       </c>
     </row>
@@ -23167,35 +23130,35 @@
       <c r="C11" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="346" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="346" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="347" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="348" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="386" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="387" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="346" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="347" t="s">
-        <v>4</v>
-      </c>
-      <c r="L11" s="305" t="s">
+      <c r="D11" s="345" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="345" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="346" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="347" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="385" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="386" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="345" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="346" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="304" t="s">
         <v>6</v>
       </c>
       <c r="M11" s="8"/>
-      <c r="N11" s="388" t="s">
+      <c r="N11" s="387" t="s">
         <v>35</v>
       </c>
       <c r="O11" s="9"/>
@@ -24189,7 +24152,7 @@
       <c r="E2" s="227" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="258" t="s">
+      <c r="F2" s="257" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="2"/>
@@ -24197,7 +24160,7 @@
       <c r="I2" s="227" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="269" t="s">
+      <c r="J2" s="268" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="2"/>
@@ -24296,7 +24259,7 @@
       <c r="E5" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="287" t="s">
+      <c r="F5" s="286" t="s">
         <v>35</v>
       </c>
       <c r="G5" s="5"/>
@@ -24482,7 +24445,7 @@
       <c r="A11" s="28">
         <v>9</v>
       </c>
-      <c r="B11" s="286" t="s">
+      <c r="B11" s="285" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="160" t="s">
@@ -25413,32 +25376,32 @@
       <c r="B2" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="255" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="256" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="256" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="257" t="s">
+      <c r="C2" s="254" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="255" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="255" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="256" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="255" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="256" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="256" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="257" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="303" t="s">
+      <c r="H2" s="254" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="255" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="255" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="256" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="302" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="2"/>
@@ -25455,7 +25418,7 @@
       <c r="A3" s="28">
         <v>1</v>
       </c>
-      <c r="B3" s="389" t="s">
+      <c r="B3" s="388" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5"/>
@@ -25465,7 +25428,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="391" t="s">
+      <c r="J3" s="390" t="s">
         <v>35</v>
       </c>
       <c r="K3" s="5"/>
@@ -25492,7 +25455,7 @@
       <c r="E4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="277" t="s">
+      <c r="F4" s="276" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="5"/>
@@ -25607,7 +25570,7 @@
       <c r="N8" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="246" t="s">
+      <c r="O8" s="245" t="s">
         <v>6</v>
       </c>
     </row>
@@ -25672,10 +25635,10 @@
       <c r="B11" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="331" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="331" t="s">
+      <c r="C11" s="330" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="330" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="181" t="s">
@@ -25684,10 +25647,10 @@
       <c r="F11" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="331" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="331" t="s">
+      <c r="G11" s="330" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="330" t="s">
         <v>0</v>
       </c>
       <c r="I11" s="181" t="s">
@@ -25699,16 +25662,16 @@
       <c r="K11" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="L11" s="390" t="s">
+      <c r="L11" s="389" t="s">
         <v>6</v>
       </c>
       <c r="M11" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="N11" s="331" t="s">
-        <v>4</v>
-      </c>
-      <c r="O11" s="332" t="s">
+      <c r="N11" s="330" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="331" t="s">
         <v>4</v>
       </c>
     </row>
@@ -29741,7 +29704,7 @@
       <c r="F9" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="392" t="s">
+      <c r="G9" s="391" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="50" t="s">
@@ -32446,13 +32409,13 @@
         <v>4</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="255" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="256" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="257" t="s">
+      <c r="H2" s="254" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="255" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="256" t="s">
         <v>5</v>
       </c>
       <c r="K2" s="2"/>
@@ -32488,7 +32451,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="5"/>
-      <c r="I3" s="252" t="s">
+      <c r="I3" s="251" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="5"/>
@@ -32523,7 +32486,7 @@
       <c r="H4" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="253" t="s">
+      <c r="I4" s="252" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="158" t="s">
@@ -32556,7 +32519,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="254" t="s">
+      <c r="I5" s="253" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="5"/>
@@ -32624,7 +32587,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="252" t="s">
+      <c r="I7" s="251" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="5"/>
@@ -32659,7 +32622,7 @@
       <c r="H8" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="253" t="s">
+      <c r="I8" s="252" t="s">
         <v>4</v>
       </c>
       <c r="J8" s="158" t="s">
@@ -32692,7 +32655,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="254" t="s">
+      <c r="I9" s="253" t="s">
         <v>5</v>
       </c>
       <c r="J9" s="5"/>

--- a/ext_assets/LevelDesign.xlsx
+++ b/ext_assets/LevelDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nesdev\repos\crillion-nes\crillion-nes\ext_assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD03B2F-A3C7-4D0E-BD22-08E8DBC3E08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85CB5AC-A951-4271-8B95-ADDE65803736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="16" xr2:uid="{E8D8F587-BDBE-423A-95AF-6E9B76766DB8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="13" xr2:uid="{E8D8F587-BDBE-423A-95AF-6E9B76766DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="6" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5188" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5182" uniqueCount="36">
   <si>
     <t>D</t>
   </si>
@@ -1104,7 +1104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="400">
+  <cellXfs count="401">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2243,6 +2243,9 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2252,13 +2255,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2601,10 +2602,10 @@
       <c r="B1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="394" t="s">
+      <c r="D1" s="395" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="395"/>
+      <c r="E1" s="396"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2">
@@ -2616,7 +2617,7 @@
       </c>
       <c r="D2" s="87">
         <f>SUM(B:B)</f>
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="E2" s="88" t="s">
         <v>7</v>
@@ -2890,7 +2891,7 @@
       </c>
       <c r="B16">
         <f>'15'!Q$2</f>
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -6423,9 +6424,9 @@
       <c r="G5" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="396"/>
+      <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="396"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="198" t="s">
         <v>4</v>
       </c>
@@ -6458,7 +6459,7 @@
       <c r="E6" s="314" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="397" t="s">
+      <c r="F6" s="394" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="373" t="s">
@@ -7665,7 +7666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D6449E-BDD8-47F1-8C6B-F5B8184718A5}">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P34" sqref="P14:P34"/>
     </sheetView>
@@ -11868,11 +11869,11 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E412488F-3473-4AB3-985F-ED3230803FB7}">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="13" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P14" sqref="P14:P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11942,25 +11943,25 @@
       <c r="E2" s="320" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="398" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="268" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="268" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="399" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="398" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="268" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="268" t="s">
+      <c r="F2" s="135" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="136" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="136" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="320" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="135" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="136" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="136" t="s">
         <v>0</v>
       </c>
       <c r="M2" s="320" t="s">
@@ -11973,7 +11974,7 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R2" t="s">
         <v>7</v>
@@ -11984,31 +11985,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="C3" s="398"/>
+      <c r="D3" s="399"/>
+      <c r="E3" s="398"/>
+      <c r="F3" s="397"/>
+      <c r="G3" s="397"/>
+      <c r="H3" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="289" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="289" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="397"/>
+      <c r="M3" s="398"/>
+      <c r="N3" s="398"/>
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -12016,20 +12012,20 @@
         <v>2</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="286" t="s">
+      <c r="C4" s="398"/>
+      <c r="D4" s="398"/>
+      <c r="E4" s="398"/>
+      <c r="F4" s="398"/>
+      <c r="G4" s="398"/>
+      <c r="H4" s="398"/>
+      <c r="I4" s="400" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="286"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="J4" s="400"/>
+      <c r="K4" s="398"/>
+      <c r="L4" s="398"/>
+      <c r="M4" s="398"/>
+      <c r="N4" s="398"/>
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -12037,18 +12033,18 @@
         <v>3</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="C5" s="398"/>
+      <c r="D5" s="398"/>
+      <c r="E5" s="398"/>
+      <c r="F5" s="398"/>
+      <c r="G5" s="398"/>
+      <c r="H5" s="398"/>
+      <c r="I5" s="398"/>
+      <c r="J5" s="398"/>
+      <c r="K5" s="398"/>
+      <c r="L5" s="398"/>
+      <c r="M5" s="398"/>
+      <c r="N5" s="398"/>
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -12056,18 +12052,18 @@
         <v>4</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="C6" s="398"/>
+      <c r="D6" s="398"/>
+      <c r="E6" s="398"/>
+      <c r="F6" s="398"/>
+      <c r="G6" s="398"/>
+      <c r="H6" s="398"/>
+      <c r="I6" s="398"/>
+      <c r="J6" s="398"/>
+      <c r="K6" s="398"/>
+      <c r="L6" s="398"/>
+      <c r="M6" s="398"/>
+      <c r="N6" s="398"/>
       <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -12124,11 +12120,11 @@
       <c r="B8" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="398"/>
       <c r="D8" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="398"/>
       <c r="F8" s="16" t="s">
         <v>4</v>
       </c>
@@ -12150,7 +12146,7 @@
       <c r="L8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="5"/>
+      <c r="M8" s="398"/>
       <c r="N8" s="202" t="s">
         <v>4</v>
       </c>
@@ -12168,7 +12164,7 @@
       <c r="C9" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="398"/>
       <c r="E9" s="16" t="s">
         <v>4</v>
       </c>
@@ -12190,11 +12186,11 @@
       <c r="K9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="5"/>
+      <c r="L9" s="398"/>
       <c r="M9" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="5"/>
+      <c r="N9" s="398"/>
       <c r="O9" s="210" t="s">
         <v>4</v>
       </c>
@@ -12390,7 +12386,7 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -12406,21 +12402,21 @@
       </c>
       <c r="P18" t="str">
         <f>CONCATENATE(".db #$", C18, B18, ", #%", IF(E18="R", "0", "1"),  DEC2BIN(D18-1,2), VLOOKUP(F18, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G18, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$41, #%01100100</v>
+        <v>.db #$61, #%01100100</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
         <v>4</v>
@@ -12430,7 +12426,7 @@
       </c>
       <c r="P19" t="str">
         <f>CONCATENATE(".db #$", C19, B19, ", #%", IF(E19="R", "0", "1"),  DEC2BIN(D19-1,2), VLOOKUP(F19, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G19, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$81, #%01000100</v>
+        <v>.db #$05, #%11100100</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
@@ -12438,13 +12434,13 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F20" t="s">
         <v>4</v>
@@ -12454,7 +12450,7 @@
       </c>
       <c r="P20" t="str">
         <f>CONCATENATE(".db #$", C20, B20, ", #%", IF(E20="R", "0", "1"),  DEC2BIN(D20-1,2), VLOOKUP(F20, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G20, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$05, #%11100100</v>
+        <v>.db #$15, #%01100100</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
@@ -12462,7 +12458,7 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -12478,7 +12474,7 @@
       </c>
       <c r="P21" t="str">
         <f>CONCATENATE(".db #$", C21, B21, ", #%", IF(E21="R", "0", "1"),  DEC2BIN(D21-1,2), VLOOKUP(F21, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G21, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$15, #%01100100</v>
+        <v>.db #$55, #%01100100</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
@@ -12486,7 +12482,7 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -12502,21 +12498,21 @@
       </c>
       <c r="P22" t="str">
         <f>CONCATENATE(".db #$", C22, B22, ", #%", IF(E22="R", "0", "1"),  DEC2BIN(D22-1,2), VLOOKUP(F22, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G22, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$55, #%01100100</v>
+        <v>.db #$95, #%01100100</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>5</v>
       </c>
-      <c r="C23">
-        <v>9</v>
+      <c r="C23" t="s">
+        <v>0</v>
       </c>
       <c r="D23">
         <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F23" t="s">
         <v>4</v>
@@ -12526,21 +12522,21 @@
       </c>
       <c r="P23" t="str">
         <f>CONCATENATE(".db #$", C23, B23, ", #%", IF(E23="R", "0", "1"),  DEC2BIN(D23-1,2), VLOOKUP(F23, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G23, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$95, #%01100100</v>
+        <v>.db #$D5, #%11100100</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F24" t="s">
         <v>4</v>
@@ -12550,7 +12546,7 @@
       </c>
       <c r="P24" t="str">
         <f>CONCATENATE(".db #$", C24, B24, ", #%", IF(E24="R", "0", "1"),  DEC2BIN(D24-1,2), VLOOKUP(F24, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G24, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$D5, #%11100100</v>
+        <v>.db #$26, #%00000100</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
@@ -12558,10 +12554,10 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25" t="s">
         <v>17</v>
@@ -12574,7 +12570,7 @@
       </c>
       <c r="P25" t="str">
         <f>CONCATENATE(".db #$", C25, B25, ", #%", IF(E25="R", "0", "1"),  DEC2BIN(D25-1,2), VLOOKUP(F25, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G25, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$26, #%00000100</v>
+        <v>.db #$46, #%01000100</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
@@ -12582,10 +12578,10 @@
         <v>6</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26" t="s">
         <v>17</v>
@@ -12598,18 +12594,18 @@
       </c>
       <c r="P26" t="str">
         <f>CONCATENATE(".db #$", C26, B26, ", #%", IF(E26="R", "0", "1"),  DEC2BIN(D26-1,2), VLOOKUP(F26, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G26, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$46, #%01000100</v>
+        <v>.db #$76, #%01100100</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>6</v>
       </c>
-      <c r="C27">
-        <v>7</v>
+      <c r="C27" t="s">
+        <v>4</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E27" t="s">
         <v>17</v>
@@ -12622,15 +12618,15 @@
       </c>
       <c r="P27" t="str">
         <f>CONCATENATE(".db #$", C27, B27, ", #%", IF(E27="R", "0", "1"),  DEC2BIN(D27-1,2), VLOOKUP(F27, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G27, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$76, #%01100100</v>
+        <v>.db #$C6, #%00000100</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -12646,7 +12642,7 @@
       </c>
       <c r="P28" t="str">
         <f>CONCATENATE(".db #$", C28, B28, ", #%", IF(E28="R", "0", "1"),  DEC2BIN(D28-1,2), VLOOKUP(F28, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G28, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$C6, #%00000100</v>
+        <v>.db #$17, #%00000100</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
@@ -12654,10 +12650,10 @@
         <v>7</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E29" t="s">
         <v>17</v>
@@ -12670,7 +12666,7 @@
       </c>
       <c r="P29" t="str">
         <f>CONCATENATE(".db #$", C29, B29, ", #%", IF(E29="R", "0", "1"),  DEC2BIN(D29-1,2), VLOOKUP(F29, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G29, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$17, #%00000100</v>
+        <v>.db #$37, #%01100100</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
@@ -12678,10 +12674,10 @@
         <v>7</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E30" t="s">
         <v>17</v>
@@ -12694,18 +12690,18 @@
       </c>
       <c r="P30" t="str">
         <f>CONCATENATE(".db #$", C30, B30, ", #%", IF(E30="R", "0", "1"),  DEC2BIN(D30-1,2), VLOOKUP(F30, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G30, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$37, #%01100100</v>
+        <v>.db #$77, #%01000100</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>7</v>
       </c>
-      <c r="C31">
-        <v>7</v>
+      <c r="C31" t="s">
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
         <v>17</v>
@@ -12718,18 +12714,18 @@
       </c>
       <c r="P31" t="str">
         <f>CONCATENATE(".db #$", C31, B31, ", #%", IF(E31="R", "0", "1"),  DEC2BIN(D31-1,2), VLOOKUP(F31, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G31, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$77, #%01000100</v>
+        <v>.db #$B7, #%00000100</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E32" t="s">
         <v>17</v>
@@ -12742,7 +12738,7 @@
       </c>
       <c r="P32" t="str">
         <f>CONCATENATE(".db #$", C32, B32, ", #%", IF(E32="R", "0", "1"),  DEC2BIN(D32-1,2), VLOOKUP(F32, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G32, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$B7, #%00000100</v>
+        <v>.db #$18, #%01100100</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
@@ -12750,7 +12746,7 @@
         <v>8</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D33">
         <v>4</v>
@@ -12766,7 +12762,7 @@
       </c>
       <c r="P33" t="str">
         <f>CONCATENATE(".db #$", C33, B33, ", #%", IF(E33="R", "0", "1"),  DEC2BIN(D33-1,2), VLOOKUP(F33, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G33, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$18, #%01100100</v>
+        <v>.db #$58, #%01100100</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
@@ -12774,7 +12770,7 @@
         <v>8</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D34">
         <v>4</v>
@@ -12790,30 +12786,6 @@
       </c>
       <c r="P34" t="str">
         <f>CONCATENATE(".db #$", C34, B34, ", #%", IF(E34="R", "0", "1"),  DEC2BIN(D34-1,2), VLOOKUP(F34, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G34, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$58, #%01100100</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B35">
-        <v>8</v>
-      </c>
-      <c r="C35">
-        <v>9</v>
-      </c>
-      <c r="D35">
-        <v>4</v>
-      </c>
-      <c r="E35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" t="s">
-        <v>26</v>
-      </c>
-      <c r="P35" t="str">
-        <f>CONCATENATE(".db #$", C35, B35, ", #%", IF(E35="R", "0", "1"),  DEC2BIN(D35-1,2), VLOOKUP(F35, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G35, info!$K$5:$L$11, 2, FALSE))</f>
         <v>.db #$98, #%01100100</v>
       </c>
     </row>

--- a/ext_assets/LevelDesign.xlsx
+++ b/ext_assets/LevelDesign.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nesdev\repos\crillion-nes\crillion-nes\ext_assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85CB5AC-A951-4271-8B95-ADDE65803736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01E97ED-E4C8-451A-87DC-A1DE841D6043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="13" xr2:uid="{E8D8F587-BDBE-423A-95AF-6E9B76766DB8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="18" xr2:uid="{E8D8F587-BDBE-423A-95AF-6E9B76766DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="6" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5182" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5183" uniqueCount="36">
   <si>
     <t>D</t>
   </si>
@@ -1104,7 +1104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="401">
+  <cellXfs count="397">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2252,16 +2252,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -2270,8 +2260,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFAFAF"/>
       <color rgb="FFE2A2F4"/>
-      <color rgb="FFFFAFAF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -7666,7 +7656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D6449E-BDD8-47F1-8C6B-F5B8184718A5}">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P34" sqref="P14:P34"/>
     </sheetView>
@@ -11985,11 +11975,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="398"/>
-      <c r="D3" s="399"/>
-      <c r="E3" s="398"/>
-      <c r="F3" s="397"/>
-      <c r="G3" s="397"/>
+      <c r="C3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="44" t="s">
         <v>4</v>
       </c>
@@ -12002,9 +11991,9 @@
       <c r="K3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="397"/>
-      <c r="M3" s="398"/>
-      <c r="N3" s="398"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -12012,20 +12001,20 @@
         <v>2</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="398"/>
-      <c r="D4" s="398"/>
-      <c r="E4" s="398"/>
-      <c r="F4" s="398"/>
-      <c r="G4" s="398"/>
-      <c r="H4" s="398"/>
-      <c r="I4" s="400" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="286" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="400"/>
-      <c r="K4" s="398"/>
-      <c r="L4" s="398"/>
-      <c r="M4" s="398"/>
-      <c r="N4" s="398"/>
+      <c r="J4" s="286"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -12033,18 +12022,18 @@
         <v>3</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="398"/>
-      <c r="D5" s="398"/>
-      <c r="E5" s="398"/>
-      <c r="F5" s="398"/>
-      <c r="G5" s="398"/>
-      <c r="H5" s="398"/>
-      <c r="I5" s="398"/>
-      <c r="J5" s="398"/>
-      <c r="K5" s="398"/>
-      <c r="L5" s="398"/>
-      <c r="M5" s="398"/>
-      <c r="N5" s="398"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -12052,18 +12041,18 @@
         <v>4</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="398"/>
-      <c r="D6" s="398"/>
-      <c r="E6" s="398"/>
-      <c r="F6" s="398"/>
-      <c r="G6" s="398"/>
-      <c r="H6" s="398"/>
-      <c r="I6" s="398"/>
-      <c r="J6" s="398"/>
-      <c r="K6" s="398"/>
-      <c r="L6" s="398"/>
-      <c r="M6" s="398"/>
-      <c r="N6" s="398"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
       <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -12120,11 +12109,11 @@
       <c r="B8" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="398"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="398"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="16" t="s">
         <v>4</v>
       </c>
@@ -12146,7 +12135,7 @@
       <c r="L8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="398"/>
+      <c r="M8" s="5"/>
       <c r="N8" s="202" t="s">
         <v>4</v>
       </c>
@@ -12164,7 +12153,7 @@
       <c r="C9" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="398"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="16" t="s">
         <v>4</v>
       </c>
@@ -12186,11 +12175,11 @@
       <c r="K9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="398"/>
+      <c r="L9" s="5"/>
       <c r="M9" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="398"/>
+      <c r="N9" s="5"/>
       <c r="O9" s="210" t="s">
         <v>4</v>
       </c>
@@ -14329,9 +14318,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEC0477-6F56-4B92-B5AE-3EF26F62000D}">
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="13" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P14" sqref="P14:P64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14627,13 +14616,13 @@
       <c r="F7" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="167" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="117" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="118" t="s">
+      <c r="G7" s="142" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="315" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="312" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="118" t="s">
@@ -14671,17 +14660,19 @@
       <c r="E8" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="119" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="117" t="s">
+      <c r="F8" s="118" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="117" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="118" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="117" t="s">
+      <c r="J8" s="118" t="s">
         <v>5</v>
       </c>
       <c r="K8" s="119" t="s">
@@ -14715,13 +14706,13 @@
       <c r="F9" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="117" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="118" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="118" t="s">
+      <c r="G9" s="168" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="170" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="170" t="s">
         <v>5</v>
       </c>
       <c r="J9" s="323" t="s">
@@ -15626,10 +15617,10 @@
         <v>6</v>
       </c>
       <c r="C46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46" t="s">
         <v>17</v>
@@ -15642,7 +15633,7 @@
       </c>
       <c r="P46" t="str">
         <f>CONCATENATE(".db #$", C46, B46, ", #%", IF(E46="R", "0", "1"),  DEC2BIN(D46-1,2), VLOOKUP(F46, info!$H$5:$I$9, 2, FALSE), VLOOKUP(G46, info!$K$5:$L$11, 2, FALSE))</f>
-        <v>.db #$66, #%00100010</v>
+        <v>.db #$56, #%01000010</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.3">
